--- a/all_modes/ridership.xlsx
+++ b/all_modes/ridership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-trends\all_modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38EC3A9-CCD1-427B-BCC2-CCF91C38E1DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141ED5FF-F144-4A30-9419-EDCDFDD824C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35565" yWindow="2160" windowWidth="21600" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="238">
   <si>
     <t xml:space="preserve">Subway </t>
   </si>
@@ -726,9 +726,6 @@
     <t xml:space="preserve">total trips (not ridership); ops reports are missing for apr, may, jul, aug, sep 2016; proxy figures based on trip histories </t>
   </si>
   <si>
-    <t xml:space="preserve">3/2020 to present monthly data includes SIR </t>
-  </si>
-  <si>
     <t xml:space="preserve">2019 &amp; 2020 Subway Ridership Tables </t>
   </si>
   <si>
@@ -742,6 +739,18 @@
   </si>
   <si>
     <t>data covers 2008 through 2017</t>
+  </si>
+  <si>
+    <t>*cells are linked to ridership_annual in the annotations folder</t>
+  </si>
+  <si>
+    <t>3/2020 to present monthly data includes SIR</t>
+  </si>
+  <si>
+    <t>Jan 2022 NYCT Committee Book</t>
+  </si>
+  <si>
+    <t>Subtracted 1.463 million SIR trips from 2021 subway total; based on Preliminary Dec 2021 Report: SIR</t>
   </si>
 </sst>
 </file>
@@ -753,7 +762,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,6 +843,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -863,7 +887,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -881,12 +905,14 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1172,8 +1198,8 @@
   <dimension ref="A1:Y190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,10 +4705,10 @@
       <c r="G92" s="11">
         <v>792632407</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92" s="17">
         <v>667051170</v>
       </c>
-      <c r="I92" s="18">
+      <c r="I92" s="17">
         <v>125581237</v>
       </c>
       <c r="J92" s="5">
@@ -5325,10 +5351,10 @@
       <c r="G105" s="11">
         <v>776081306</v>
       </c>
-      <c r="H105" s="18">
+      <c r="H105" s="17">
         <v>650681784</v>
       </c>
-      <c r="I105" s="19">
+      <c r="I105" s="18">
         <v>125399522</v>
       </c>
       <c r="J105" s="5">
@@ -5971,10 +5997,10 @@
       <c r="G118" s="11">
         <v>764030270</v>
       </c>
-      <c r="H118" s="18">
+      <c r="H118" s="17">
         <v>638413113</v>
       </c>
-      <c r="I118" s="19">
+      <c r="I118" s="18">
         <v>125617157</v>
       </c>
       <c r="J118" s="5">
@@ -6641,10 +6667,10 @@
       <c r="G131" s="11">
         <v>724834684</v>
       </c>
-      <c r="H131" s="18">
+      <c r="H131" s="17">
         <v>602620356</v>
       </c>
-      <c r="I131" s="18">
+      <c r="I131" s="17">
         <v>122214328</v>
       </c>
       <c r="J131" s="5">
@@ -7242,10 +7268,10 @@
       <c r="G144" s="11">
         <v>690809514</v>
       </c>
-      <c r="H144" s="18">
+      <c r="H144" s="17">
         <v>569361220</v>
       </c>
-      <c r="I144" s="18">
+      <c r="I144" s="17">
         <v>121448276</v>
       </c>
       <c r="J144" s="5">
@@ -7744,10 +7770,10 @@
       <c r="G157" s="11">
         <v>677588084</v>
       </c>
-      <c r="H157" s="19">
+      <c r="H157" s="18">
         <v>557036504</v>
       </c>
-      <c r="I157" s="18">
+      <c r="I157" s="17">
         <v>120551580</v>
       </c>
       <c r="J157" s="5">
@@ -8917,7 +8943,8 @@
       </c>
       <c r="B183" s="16"/>
       <c r="C183" s="5">
-        <v>761142069</v>
+        <f>761142069 -1463000</f>
+        <v>759679069</v>
       </c>
       <c r="D183" s="5">
         <f t="shared" ref="D183" si="141">SUM(D171:D182)</f>
@@ -8996,7 +9023,7 @@
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I190" s="20"/>
+      <c r="I190" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -9010,10 +9037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C429C9-6E20-46E5-A73D-03E9F6692ECC}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9023,7 +9050,7 @@
     <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -9049,8 +9076,11 @@
         <v>221</v>
       </c>
       <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -9071,7 +9101,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -9092,7 +9122,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -9116,7 +9146,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -9140,7 +9170,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -9164,7 +9194,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -9194,7 +9224,7 @@
         <v>6036059</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -9224,7 +9254,7 @@
         <v>8791987</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -9257,7 +9287,7 @@
         <v>10068280</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -9290,7 +9320,7 @@
         <v>13827132</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -9323,7 +9353,7 @@
         <v>16347284</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -9356,7 +9386,7 @@
         <v>17742410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -9389,7 +9419,7 @@
         <v>20984725</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -9422,13 +9452,13 @@
         <v>19783517</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2021</v>
       </c>
       <c r="B15" s="1">
         <f>master!C183</f>
-        <v>761142069</v>
+        <v>759679069</v>
       </c>
       <c r="C15" s="1">
         <f>master!D183</f>
@@ -9457,6 +9487,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9503,16 +9534,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCA9939-48E3-4CB2-997E-11CCE7504404}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -9521,7 +9552,7 @@
       <c r="A1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="21" t="s">
         <v>189</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -9535,118 +9566,115 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="22" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="22" t="s">
         <v>207</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="22" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" t="s">
         <v>231</v>
       </c>
-      <c r="D8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -9658,44 +9686,59 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>211</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>212</v>
+        <v>188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>97</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{84B0E9EE-EFEB-4083-A93A-3BC5FD708F1D}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{3DCF2152-0657-4698-90D9-F26348B14B0C}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{69CC570E-BFEB-40D9-85FC-633335F250BF}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{088F4EED-C626-4EFA-AEAB-96E3C9C30608}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{DA5FA279-A915-4B58-9617-BC41D827AF47}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{84B0E9EE-EFEB-4083-A93A-3BC5FD708F1D}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{3DCF2152-0657-4698-90D9-F26348B14B0C}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{69CC570E-BFEB-40D9-85FC-633335F250BF}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{088F4EED-C626-4EFA-AEAB-96E3C9C30608}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{DA5FA279-A915-4B58-9617-BC41D827AF47}"/>
     <hyperlink ref="C4" r:id="rId6" xr:uid="{E8439B98-3E84-41A0-B9CD-3739F499A683}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{3E80DAAC-D5F7-4652-B5CC-25183877717F}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{F28064AE-5FE2-415E-A85F-5C673AE9EA29}"/>
-    <hyperlink ref="C12" r:id="rId9" location="ferry" xr:uid="{56131F57-DF06-49E1-82F8-0DF4CEC42320}"/>
-    <hyperlink ref="C8" r:id="rId10" display="2020 Bus Ridership Tables" xr:uid="{F227A77D-916C-4E32-893B-1496C7C58EA6}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{3E80DAAC-D5F7-4652-B5CC-25183877717F}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{F28064AE-5FE2-415E-A85F-5C673AE9EA29}"/>
+    <hyperlink ref="C13" r:id="rId9" location="ferry" xr:uid="{56131F57-DF06-49E1-82F8-0DF4CEC42320}"/>
+    <hyperlink ref="C9" r:id="rId10" display="2020 Bus Ridership Tables" xr:uid="{F227A77D-916C-4E32-893B-1496C7C58EA6}"/>
     <hyperlink ref="C3" r:id="rId11" display="2020 Subway Ridership Tables " xr:uid="{16CFE0C9-9F28-487E-AF01-91E5A4009EF9}"/>
     <hyperlink ref="C2" r:id="rId12" xr:uid="{C9695268-117C-4641-90F4-575CDB269589}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{FB9FB5C9-5167-4BF9-82A9-C6F1EFC607F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/all_modes/ridership.xlsx
+++ b/all_modes/ridership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-trends\all_modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141ED5FF-F144-4A30-9419-EDCDFDD824C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F3AA45-3AA9-4D9A-A53D-DAD79480F4F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35565" yWindow="2160" windowWidth="21600" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32805" yWindow="1260" windowWidth="21600" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="237">
   <si>
     <t xml:space="preserve">Subway </t>
   </si>
@@ -739,9 +739,6 @@
   </si>
   <si>
     <t>data covers 2008 through 2017</t>
-  </si>
-  <si>
-    <t>*cells are linked to ridership_annual in the annotations folder</t>
   </si>
   <si>
     <t>3/2020 to present monthly data includes SIR</t>
@@ -1197,9 +1194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6BD9D9-A94A-452F-BE0B-A0E3D87F1ACA}">
   <dimension ref="A1:Y190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9040,7 +9037,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9076,9 +9073,7 @@
         <v>221</v>
       </c>
       <c r="I1" s="9"/>
-      <c r="J1" s="20" t="s">
-        <v>234</v>
-      </c>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -9536,7 +9531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCA9939-48E3-4CB2-997E-11CCE7504404}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -9595,7 +9590,7 @@
         <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9603,10 +9598,10 @@
         <v>207</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
         <v>236</v>
-      </c>
-      <c r="D5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/all_modes/ridership.xlsx
+++ b/all_modes/ridership.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-trends\all_modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16ED4EC-C974-44B0-BD2F-F1F931C17D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4320B3A-2153-4FC5-876F-F79DC792B55C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="240">
   <si>
     <t xml:space="preserve">Subway </t>
   </si>
@@ -753,10 +753,10 @@
     <t>millions</t>
   </si>
   <si>
-    <t>nyct</t>
-  </si>
-  <si>
-    <t>mta</t>
+    <t>nyct mil</t>
+  </si>
+  <si>
+    <t>mta mil</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -909,7 +909,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -942,10 +942,15 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1231,8 +1236,8 @@
   <dimension ref="A1:AD190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N141" sqref="N141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6715,6 +6720,12 @@
       <c r="J131" s="11">
         <v>724834684</v>
       </c>
+      <c r="K131" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L131" s="27" t="s">
+        <v>239</v>
+      </c>
       <c r="M131" s="17">
         <v>602620356</v>
       </c>
@@ -6781,7 +6792,9 @@
       <c r="B132" s="13">
         <v>31</v>
       </c>
-      <c r="D132" s="31"/>
+      <c r="D132" s="31">
+        <v>134.6</v>
+      </c>
       <c r="E132" s="1">
         <v>13651785</v>
       </c>
@@ -6793,6 +6806,12 @@
       </c>
       <c r="J132" s="1">
         <v>54701101</v>
+      </c>
+      <c r="K132" s="32">
+        <v>45.3</v>
+      </c>
+      <c r="L132" s="32">
+        <v>9.4</v>
       </c>
       <c r="M132" s="14">
         <v>45323007</v>
@@ -6829,7 +6848,9 @@
       <c r="B133" s="13">
         <v>28</v>
       </c>
-      <c r="D133" s="31"/>
+      <c r="D133" s="31">
+        <v>127.3</v>
+      </c>
       <c r="E133" s="1">
         <v>12781938.5</v>
       </c>
@@ -6841,6 +6862,12 @@
       </c>
       <c r="J133" s="1">
         <v>53839817</v>
+      </c>
+      <c r="K133" s="32">
+        <v>44.7</v>
+      </c>
+      <c r="L133" s="32">
+        <v>9.1999999999999993</v>
       </c>
       <c r="M133" s="14">
         <v>44686764</v>
@@ -6877,7 +6904,9 @@
       <c r="B134" s="13">
         <v>31</v>
       </c>
-      <c r="D134" s="31"/>
+      <c r="D134" s="31">
+        <v>144.1</v>
+      </c>
       <c r="E134" s="1">
         <v>14551088.6</v>
       </c>
@@ -6889,6 +6918,12 @@
       </c>
       <c r="J134" s="1">
         <v>60144292</v>
+      </c>
+      <c r="K134" s="32">
+        <v>49.8</v>
+      </c>
+      <c r="L134" s="32">
+        <v>10.4</v>
       </c>
       <c r="M134" s="14">
         <v>49761212</v>
@@ -6925,7 +6960,9 @@
       <c r="B135" s="13">
         <v>30</v>
       </c>
-      <c r="D135" s="31"/>
+      <c r="D135" s="31">
+        <v>142</v>
+      </c>
       <c r="E135" s="1">
         <v>14377755</v>
       </c>
@@ -6937,6 +6974,12 @@
       </c>
       <c r="J135" s="1">
         <v>58764474</v>
+      </c>
+      <c r="K135" s="35">
+        <v>48.6</v>
+      </c>
+      <c r="L135" s="32">
+        <v>10.1</v>
       </c>
       <c r="M135" s="14">
         <v>48618792</v>
@@ -6973,7 +7016,9 @@
       <c r="B136" s="13">
         <v>31</v>
       </c>
-      <c r="D136" s="31"/>
+      <c r="D136" s="31">
+        <v>150.30000000000001</v>
+      </c>
       <c r="E136" s="1">
         <v>15265259</v>
       </c>
@@ -6985,6 +7030,12 @@
       </c>
       <c r="J136" s="1">
         <v>62841847</v>
+      </c>
+      <c r="K136" s="32">
+        <v>51.8</v>
+      </c>
+      <c r="L136" s="32">
+        <v>11</v>
       </c>
       <c r="M136" s="14">
         <v>51833282</v>
@@ -7021,7 +7072,9 @@
       <c r="B137" s="13">
         <v>30</v>
       </c>
-      <c r="D137" s="31"/>
+      <c r="D137" s="31">
+        <v>142.69999999999999</v>
+      </c>
       <c r="E137" s="1">
         <v>15532956.4</v>
       </c>
@@ -7034,11 +7087,11 @@
       <c r="J137" s="1">
         <v>57735003</v>
       </c>
-      <c r="K137" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="L137" s="27" t="s">
-        <v>239</v>
+      <c r="K137" s="32">
+        <v>47.6</v>
+      </c>
+      <c r="L137" s="32">
+        <v>10.1</v>
       </c>
       <c r="M137" s="14">
         <v>47613640</v>
@@ -7075,7 +7128,9 @@
       <c r="B138" s="13">
         <v>31</v>
       </c>
-      <c r="D138" s="31"/>
+      <c r="D138" s="31">
+        <v>136.1</v>
+      </c>
       <c r="E138" s="1">
         <v>15166969</v>
       </c>
@@ -7088,11 +7143,11 @@
       <c r="J138" s="1">
         <v>56050422</v>
       </c>
-      <c r="K138" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="L138" s="27" t="s">
-        <v>237</v>
+      <c r="K138" s="32">
+        <v>46.1</v>
+      </c>
+      <c r="L138" s="32">
+        <v>10</v>
       </c>
       <c r="M138" s="14">
         <v>46072347</v>
@@ -7129,7 +7184,9 @@
       <c r="B139" s="13">
         <v>31</v>
       </c>
-      <c r="D139" s="31"/>
+      <c r="D139" s="31">
+        <v>136.9</v>
+      </c>
       <c r="E139" s="1">
         <v>15305750</v>
       </c>
@@ -7139,8 +7196,12 @@
       <c r="H139" s="14">
         <v>7447642</v>
       </c>
-      <c r="K139" s="30"/>
-      <c r="L139" s="30"/>
+      <c r="K139" s="30">
+        <v>46.8</v>
+      </c>
+      <c r="L139" s="30">
+        <v>10.3</v>
+      </c>
       <c r="O139" s="1">
         <v>13622640</v>
       </c>
@@ -7170,7 +7231,9 @@
       <c r="B140" s="13">
         <v>30</v>
       </c>
-      <c r="D140" s="31"/>
+      <c r="D140" s="31">
+        <v>135</v>
+      </c>
       <c r="E140" s="1">
         <v>14169085</v>
       </c>
@@ -7180,8 +7243,12 @@
       <c r="H140" s="14">
         <v>6941823</v>
       </c>
-      <c r="K140" s="30"/>
-      <c r="L140" s="30"/>
+      <c r="K140" s="30">
+        <v>46.8</v>
+      </c>
+      <c r="L140" s="30">
+        <v>10.1</v>
+      </c>
       <c r="O140" s="1">
         <v>13928448.000000002</v>
       </c>
@@ -7211,7 +7278,9 @@
       <c r="B141" s="13">
         <v>31</v>
       </c>
-      <c r="D141" s="31"/>
+      <c r="D141" s="31">
+        <v>154.1</v>
+      </c>
       <c r="E141" s="1">
         <v>16060822</v>
       </c>
@@ -7221,8 +7290,12 @@
       <c r="H141" s="14">
         <v>7888088</v>
       </c>
-      <c r="K141" s="30"/>
-      <c r="L141" s="30"/>
+      <c r="K141" s="30">
+        <v>52</v>
+      </c>
+      <c r="L141" s="30">
+        <v>11.3</v>
+      </c>
       <c r="O141" s="1">
         <v>15227696</v>
       </c>
@@ -7252,7 +7325,9 @@
       <c r="B142" s="13">
         <v>30</v>
       </c>
-      <c r="D142" s="31"/>
+      <c r="D142" s="31">
+        <v>140.69999999999999</v>
+      </c>
       <c r="E142" s="1">
         <v>14696123</v>
       </c>
@@ -7262,8 +7337,12 @@
       <c r="H142" s="14">
         <v>7218474</v>
       </c>
-      <c r="K142" s="30"/>
-      <c r="L142" s="30"/>
+      <c r="K142" s="30">
+        <v>45.7</v>
+      </c>
+      <c r="L142" s="30">
+        <v>10</v>
+      </c>
       <c r="O142" s="1">
         <v>14081232</v>
       </c>
@@ -7293,7 +7372,10 @@
       <c r="B143" s="13">
         <v>31</v>
       </c>
-      <c r="D143" s="31"/>
+      <c r="D143" s="34">
+        <f>D144-SUM(D132:D142)</f>
+        <v>136.20000000000005</v>
+      </c>
       <c r="E143" s="1">
         <v>14827255</v>
       </c>
@@ -7303,8 +7385,14 @@
       <c r="H143" s="14">
         <v>7244447</v>
       </c>
-      <c r="K143" s="30"/>
-      <c r="L143" s="30"/>
+      <c r="K143" s="33">
+        <f>K144-SUM(K132:K142)</f>
+        <v>44.099999999999909</v>
+      </c>
+      <c r="L143" s="33">
+        <f>L144-SUM(L132:L142)</f>
+        <v>9.5480000000000018</v>
+      </c>
       <c r="O143" s="1">
         <v>14170323.200000001</v>
       </c>
@@ -7335,7 +7423,9 @@
       <c r="C144" s="11">
         <v>1680060402</v>
       </c>
-      <c r="D144" s="32"/>
+      <c r="D144" s="36">
+        <v>1680</v>
+      </c>
       <c r="E144" s="5">
         <f t="shared" ref="E144" si="104">SUM(E132:E143)</f>
         <v>176386786.5</v>
@@ -7351,8 +7441,12 @@
       <c r="J144" s="11">
         <v>690809514</v>
       </c>
-      <c r="K144" s="33"/>
-      <c r="L144" s="33"/>
+      <c r="K144" s="32">
+        <v>569.29999999999995</v>
+      </c>
+      <c r="L144" s="32">
+        <v>121.44799999999999</v>
+      </c>
       <c r="M144" s="17">
         <v>569361220</v>
       </c>
@@ -7419,7 +7513,9 @@
       <c r="B145" s="13">
         <v>31</v>
       </c>
-      <c r="D145" s="31"/>
+      <c r="D145" s="31">
+        <v>134.5</v>
+      </c>
       <c r="E145" s="1">
         <v>14027005</v>
       </c>
@@ -7429,8 +7525,12 @@
       <c r="H145" s="14">
         <v>6860312</v>
       </c>
-      <c r="K145" s="30"/>
-      <c r="L145" s="30"/>
+      <c r="K145" s="30">
+        <v>44.5</v>
+      </c>
+      <c r="L145" s="30">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="O145" s="1">
         <v>13275043.200000001</v>
       </c>
@@ -7460,7 +7560,9 @@
       <c r="B146" s="13">
         <v>28</v>
       </c>
-      <c r="D146" s="31"/>
+      <c r="D146" s="31">
+        <v>126.4</v>
+      </c>
       <c r="E146" s="1">
         <v>12744394.5</v>
       </c>
@@ -7470,8 +7572,12 @@
       <c r="H146" s="14">
         <v>6200044</v>
       </c>
-      <c r="K146" s="30"/>
-      <c r="L146" s="30"/>
+      <c r="K146" s="30">
+        <v>42.2</v>
+      </c>
+      <c r="L146" s="30">
+        <v>9</v>
+      </c>
       <c r="O146" s="1">
         <v>12146848</v>
       </c>
@@ -7501,7 +7607,9 @@
       <c r="B147" s="13">
         <v>31</v>
       </c>
-      <c r="D147" s="31"/>
+      <c r="D147" s="31">
+        <v>143.69999999999999</v>
+      </c>
       <c r="E147" s="1">
         <v>14613117.199999999</v>
       </c>
@@ -7511,8 +7619,12 @@
       <c r="H147" s="14">
         <v>7098004</v>
       </c>
-      <c r="K147" s="30"/>
-      <c r="L147" s="30"/>
+      <c r="K147" s="30">
+        <v>48.3</v>
+      </c>
+      <c r="L147" s="30">
+        <v>10.4</v>
+      </c>
       <c r="O147" s="1">
         <v>13488819.200000001</v>
       </c>
@@ -7542,7 +7654,9 @@
       <c r="B148" s="13">
         <v>30</v>
       </c>
-      <c r="D148" s="31"/>
+      <c r="D148" s="31">
+        <v>145</v>
+      </c>
       <c r="E148" s="1">
         <v>15161243.6</v>
       </c>
@@ -7552,8 +7666,12 @@
       <c r="H148" s="14">
         <v>7437206</v>
       </c>
-      <c r="K148" s="30"/>
-      <c r="L148" s="30"/>
+      <c r="K148" s="30">
+        <v>47.2</v>
+      </c>
+      <c r="L148" s="30">
+        <v>10.199999999999999</v>
+      </c>
       <c r="O148" s="1">
         <v>12711456</v>
       </c>
@@ -7583,7 +7701,9 @@
       <c r="B149" s="13">
         <v>31</v>
       </c>
-      <c r="D149" s="31"/>
+      <c r="D149" s="31">
+        <v>150.80000000000001</v>
+      </c>
       <c r="E149" s="1">
         <v>15562224.460000001</v>
       </c>
@@ -7593,8 +7713,12 @@
       <c r="H149" s="14">
         <v>7587279</v>
       </c>
-      <c r="K149" s="30"/>
-      <c r="L149" s="30"/>
+      <c r="K149" s="30">
+        <v>49.8</v>
+      </c>
+      <c r="L149" s="30">
+        <v>10.8</v>
+      </c>
       <c r="O149" s="1">
         <v>12909144</v>
       </c>
@@ -7624,7 +7748,9 @@
       <c r="B150" s="13">
         <v>30</v>
       </c>
-      <c r="D150" s="31"/>
+      <c r="D150" s="31">
+        <v>141.4</v>
+      </c>
       <c r="E150" s="1">
         <v>15105917</v>
       </c>
@@ -7634,8 +7760,12 @@
       <c r="H150" s="14">
         <v>7369572</v>
       </c>
-      <c r="K150" s="30"/>
-      <c r="L150" s="30"/>
+      <c r="K150" s="30">
+        <v>45.8</v>
+      </c>
+      <c r="L150" s="30">
+        <v>9.6</v>
+      </c>
       <c r="O150" s="1">
         <v>11857200</v>
       </c>
@@ -7665,13 +7795,21 @@
       <c r="B151" s="13">
         <v>31</v>
       </c>
-      <c r="D151" s="31"/>
-      <c r="G151" s="28"/>
+      <c r="D151" s="31">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="G151" s="28">
+        <v>7990885</v>
+      </c>
       <c r="H151" s="14">
         <v>7550014</v>
       </c>
-      <c r="K151" s="30"/>
-      <c r="L151" s="30"/>
+      <c r="K151" s="30">
+        <v>46.2</v>
+      </c>
+      <c r="L151" s="30">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="O151" s="1">
         <v>10734035.200000001</v>
       </c>
@@ -7701,13 +7839,21 @@
       <c r="B152" s="13">
         <v>31</v>
       </c>
-      <c r="D152" s="31"/>
-      <c r="G152" s="28"/>
+      <c r="D152" s="31">
+        <v>137.1</v>
+      </c>
+      <c r="G152" s="28">
+        <v>7921000</v>
+      </c>
       <c r="H152" s="14">
         <v>7297197</v>
       </c>
-      <c r="K152" s="30"/>
-      <c r="L152" s="30"/>
+      <c r="K152" s="30">
+        <v>44</v>
+      </c>
+      <c r="L152" s="30">
+        <v>9.5</v>
+      </c>
       <c r="O152" s="1">
         <v>10300134.4</v>
       </c>
@@ -7781,7 +7927,9 @@
       <c r="B154" s="13">
         <v>31</v>
       </c>
-      <c r="D154" s="31"/>
+      <c r="D154" s="31">
+        <v>155.19999999999999</v>
+      </c>
       <c r="G154" s="28">
         <v>7876025</v>
       </c>
@@ -7835,7 +7983,9 @@
       <c r="K155" s="30">
         <v>45.2</v>
       </c>
-      <c r="L155" s="30"/>
+      <c r="L155" s="30">
+        <v>9.5</v>
+      </c>
       <c r="O155" s="1">
         <v>11506656</v>
       </c>
@@ -7865,15 +8015,24 @@
       <c r="B156" s="13">
         <v>31</v>
       </c>
-      <c r="D156" s="31"/>
+      <c r="D156" s="34">
+        <f>D157-SUM(D145:D155)</f>
+        <v>140.30000000000018</v>
+      </c>
       <c r="G156" s="28">
         <v>7648354</v>
       </c>
       <c r="H156" s="14">
         <v>7222953</v>
       </c>
-      <c r="K156" s="30"/>
-      <c r="L156" s="30"/>
+      <c r="K156" s="33">
+        <f>K157-SUM(K145:K155)</f>
+        <v>45.300000000000011</v>
+      </c>
+      <c r="L156" s="33">
+        <f>L157-SUM(L145:L155)</f>
+        <v>11.327000000000012</v>
+      </c>
       <c r="O156" s="1">
         <v>11526246.4</v>
       </c>
@@ -7904,7 +8063,9 @@
       <c r="C157" s="11">
         <v>1697787002</v>
       </c>
-      <c r="D157" s="32"/>
+      <c r="D157" s="36">
+        <v>1697.7</v>
+      </c>
       <c r="E157" s="5">
         <f t="shared" ref="E157" si="116">SUM(E145:E156)</f>
         <v>87213901.760000005</v>
@@ -7926,8 +8087,12 @@
       <c r="J157" s="11">
         <v>677588084</v>
       </c>
-      <c r="K157" s="33"/>
-      <c r="L157" s="33"/>
+      <c r="K157" s="32">
+        <v>557</v>
+      </c>
+      <c r="L157" s="32">
+        <v>120.42700000000001</v>
+      </c>
       <c r="M157" s="18">
         <v>557036504</v>
       </c>

--- a/all_modes/ridership.xlsx
+++ b/all_modes/ridership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-trends\all_modes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\all_modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB4901-09F3-4762-8361-C572635C6C25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA713ADA-1461-42AF-A25B-A29A955D56A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="5" r:id="rId1"/>
@@ -810,7 +810,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -955,12 +955,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -980,15 +974,21 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1276,40 +1276,40 @@
   <dimension ref="A1:Y190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W132" sqref="W132"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V183" sqref="V183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="13" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="31" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="18.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="13" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" style="13" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="13" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="29" customWidth="1"/>
+    <col min="8" max="9" width="18.5546875" style="13" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="18.5546875" style="13" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" style="1" customWidth="1"/>
+    <col min="14" max="17" width="18.5546875" style="13" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="13" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" style="13" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="13" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1370,14 +1370,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="12">
         <v>31</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="29">
         <v>130687792</v>
       </c>
       <c r="D2" s="1">
@@ -1389,7 +1389,7 @@
       <c r="F2" s="13">
         <v>6618443</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="29">
         <v>70417574</v>
       </c>
       <c r="H2" s="13">
@@ -1399,14 +1399,14 @@
         <v>9528068</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="12">
         <v>29</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>125878662</v>
       </c>
       <c r="D3" s="1">
@@ -1418,7 +1418,7 @@
       <c r="F3" s="13">
         <v>6301485</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <v>66719666</v>
       </c>
       <c r="H3" s="13">
@@ -1428,14 +1428,14 @@
         <v>9087705</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="12">
         <v>31</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>137148128</v>
       </c>
       <c r="D4" s="1">
@@ -1447,7 +1447,7 @@
       <c r="F4" s="13">
         <v>6771486</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="29">
         <v>74293070</v>
       </c>
       <c r="H4" s="13">
@@ -1457,14 +1457,14 @@
         <v>10145256</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="12">
         <v>30</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>136528969</v>
       </c>
       <c r="D5" s="1">
@@ -1476,7 +1476,7 @@
       <c r="F5" s="13">
         <v>6958640</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <v>73936462</v>
       </c>
       <c r="H5" s="13">
@@ -1486,14 +1486,14 @@
         <v>10234615</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="12">
         <v>31</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>140151863</v>
       </c>
       <c r="D6" s="1">
@@ -1505,7 +1505,7 @@
       <c r="F6" s="13">
         <v>7022684</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="29">
         <v>76073505</v>
       </c>
       <c r="H6" s="13">
@@ -1515,14 +1515,14 @@
         <v>10491142</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="12">
         <v>30</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>136670880</v>
       </c>
       <c r="D7" s="1">
@@ -1534,7 +1534,7 @@
       <c r="F7" s="13">
         <v>7194263</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="29">
         <v>72679575</v>
       </c>
       <c r="H7" s="13">
@@ -1544,14 +1544,14 @@
         <v>10070315</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="12">
         <v>31</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>137724560</v>
       </c>
       <c r="D8" s="1">
@@ -1563,7 +1563,7 @@
       <c r="F8" s="13">
         <v>7489563</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="29">
         <v>71968981</v>
       </c>
       <c r="H8" s="13">
@@ -1573,14 +1573,14 @@
         <v>10090794</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="12">
         <v>31</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>130906150</v>
       </c>
       <c r="D9" s="1">
@@ -1592,7 +1592,7 @@
       <c r="F9" s="13">
         <v>7005789</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <v>68117359</v>
       </c>
       <c r="H9" s="13">
@@ -1602,14 +1602,14 @@
         <v>9651741</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="12">
         <v>30</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="29">
         <v>138407478</v>
       </c>
       <c r="D10" s="1">
@@ -1621,7 +1621,7 @@
       <c r="F10" s="13">
         <v>7007148</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <v>75754069</v>
       </c>
       <c r="H10" s="13">
@@ -1631,14 +1631,14 @@
         <v>10798069</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B11" s="12">
         <v>31</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>145276862</v>
       </c>
       <c r="D11" s="1">
@@ -1650,7 +1650,7 @@
       <c r="F11" s="13">
         <v>7509521</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="29">
         <v>78632147</v>
       </c>
       <c r="H11" s="13">
@@ -1660,14 +1660,14 @@
         <v>11242147</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="12">
         <v>30</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="29">
         <v>128600655</v>
       </c>
       <c r="D12" s="1">
@@ -1679,7 +1679,7 @@
       <c r="F12" s="13">
         <v>6510977</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="29">
         <v>68886322</v>
       </c>
       <c r="H12" s="13">
@@ -1689,14 +1689,14 @@
         <v>9673322</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="12">
         <v>31</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>135899369</v>
       </c>
       <c r="D13" s="1">
@@ -1708,7 +1708,7 @@
       <c r="F13" s="13">
         <v>7165229</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="29">
         <v>70362576</v>
       </c>
       <c r="H13" s="13">
@@ -1718,7 +1718,7 @@
         <v>10014576</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>190</v>
       </c>
@@ -1758,14 +1758,14 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="12">
         <v>31</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>126009217</v>
       </c>
       <c r="D15" s="1">
@@ -1777,7 +1777,7 @@
       <c r="F15" s="13">
         <v>6332765</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="29">
         <v>67639562</v>
       </c>
       <c r="H15" s="13">
@@ -1787,14 +1787,14 @@
         <v>9439157</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="12">
         <v>28</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>120462055</v>
       </c>
       <c r="D16" s="1">
@@ -1806,7 +1806,7 @@
       <c r="F16" s="13">
         <v>5877056</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="29">
         <v>66172052</v>
       </c>
       <c r="H16" s="13">
@@ -1816,14 +1816,14 @@
         <v>9213013</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B17" s="12">
         <v>31</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>136722849</v>
       </c>
       <c r="D17" s="1">
@@ -1835,7 +1835,7 @@
       <c r="F17" s="13">
         <v>6762519</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="29">
         <v>76233131</v>
       </c>
       <c r="H17" s="13">
@@ -1845,14 +1845,14 @@
         <v>10658594</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="12">
         <v>30</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="29">
         <v>133627175</v>
       </c>
       <c r="D18" s="1">
@@ -1864,7 +1864,7 @@
       <c r="F18" s="13">
         <v>6765029</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="29">
         <v>72312037</v>
       </c>
       <c r="H18" s="13">
@@ -1874,14 +1874,14 @@
         <v>10128848</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="12">
         <v>31</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <v>133291045</v>
       </c>
       <c r="D19" s="1">
@@ -1893,7 +1893,7 @@
       <c r="F19" s="13">
         <v>6542782</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="29">
         <v>74057481</v>
       </c>
       <c r="H19" s="13">
@@ -1903,14 +1903,14 @@
         <v>10343294</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="12">
         <v>30</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="29">
         <v>134869386.24000001</v>
       </c>
       <c r="D20" s="1">
@@ -1922,7 +1922,7 @@
       <c r="F20" s="13">
         <v>7034778</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="29">
         <v>71635711</v>
       </c>
       <c r="H20" s="13">
@@ -1932,14 +1932,14 @@
         <v>10165530</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="12">
         <v>31</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
         <v>132712155</v>
       </c>
       <c r="D21" s="1">
@@ -1951,7 +1951,7 @@
       <c r="F21" s="13">
         <v>7000919</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="29">
         <v>68289066</v>
       </c>
       <c r="H21" s="13">
@@ -1961,14 +1961,14 @@
         <v>9667200</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="12">
         <v>31</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="29">
         <v>124429585</v>
       </c>
       <c r="D22" s="1">
@@ -1980,7 +1980,7 @@
       <c r="F22" s="13">
         <v>6551798</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="29">
         <v>65034072</v>
       </c>
       <c r="H22" s="13">
@@ -1990,14 +1990,14 @@
         <v>9220512</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="12">
         <v>30</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="29">
         <v>132849077</v>
       </c>
       <c r="D23" s="1">
@@ -2009,7 +2009,7 @@
       <c r="F23" s="13">
         <v>6670065</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="29">
         <v>71529711</v>
       </c>
       <c r="H23" s="13">
@@ -2019,14 +2019,14 @@
         <v>10252638</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="12">
         <v>31</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="29">
         <v>140665575</v>
       </c>
       <c r="D24" s="1">
@@ -2038,7 +2038,7 @@
       <c r="F24" s="13">
         <v>6952772</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="29">
         <v>76152542</v>
       </c>
       <c r="H24" s="13">
@@ -2048,14 +2048,14 @@
         <v>10964658</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="12">
         <v>30</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="29">
         <v>129582208</v>
       </c>
       <c r="D25" s="1">
@@ -2067,7 +2067,7 @@
       <c r="F25" s="13">
         <v>6485758</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="29">
         <v>69543297</v>
       </c>
       <c r="H25" s="13">
@@ -2077,14 +2077,14 @@
         <v>10042575</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="12">
         <v>31</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="29">
         <v>134646273</v>
       </c>
       <c r="D26" s="1">
@@ -2096,7 +2096,7 @@
       <c r="F26" s="13">
         <v>6922906</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="29">
         <v>67865435</v>
       </c>
       <c r="H26" s="13">
@@ -2106,7 +2106,7 @@
         <v>9896486</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>191</v>
       </c>
@@ -2146,14 +2146,14 @@
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B28" s="12">
         <v>31</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <v>124453847</v>
       </c>
       <c r="D28" s="1">
@@ -2165,7 +2165,7 @@
       <c r="F28" s="13">
         <v>6057658</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="29">
         <v>64709323</v>
       </c>
       <c r="H28" s="13">
@@ -2181,14 +2181,14 @@
         <v>14860656</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B29" s="12">
         <v>28</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="29">
         <v>116642180</v>
       </c>
       <c r="D29" s="1">
@@ -2200,7 +2200,7 @@
       <c r="F29" s="13">
         <v>5687951</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="29">
         <v>59425449</v>
       </c>
       <c r="H29" s="13">
@@ -2216,14 +2216,14 @@
         <v>11143132</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B30" s="12">
         <v>31</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="29">
         <v>141694962</v>
       </c>
       <c r="D30" s="1">
@@ -2235,7 +2235,7 @@
       <c r="F30" s="13">
         <v>6938210</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="29">
         <v>74366407</v>
       </c>
       <c r="H30" s="13">
@@ -2251,14 +2251,14 @@
         <v>12882577</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B31" s="12">
         <v>30</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="29">
         <v>137493648</v>
       </c>
       <c r="D31" s="1">
@@ -2270,7 +2270,7 @@
       <c r="F31" s="13">
         <v>6837262</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="29">
         <v>72045574</v>
       </c>
       <c r="H31" s="13">
@@ -2286,14 +2286,14 @@
         <v>15143940</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B32" s="12">
         <v>31</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="29">
         <v>136783505</v>
       </c>
       <c r="D32" s="1">
@@ -2305,7 +2305,7 @@
       <c r="F32" s="13">
         <v>6731056</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="29">
         <v>72208305</v>
       </c>
       <c r="H32" s="13">
@@ -2321,14 +2321,14 @@
         <v>15480594</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="29">
         <v>137776559</v>
       </c>
       <c r="D33" s="1">
@@ -2340,7 +2340,7 @@
       <c r="F33" s="13">
         <v>7158125</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="29">
         <v>71579496</v>
       </c>
       <c r="H33" s="13">
@@ -2356,14 +2356,14 @@
         <v>14824110</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B34" s="12">
         <v>31</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="29">
         <v>131462116</v>
       </c>
       <c r="D34" s="1">
@@ -2375,7 +2375,7 @@
       <c r="F34" s="13">
         <v>6992466</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="29">
         <v>65997054</v>
       </c>
       <c r="H34" s="13">
@@ -2391,14 +2391,14 @@
         <v>14655312</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B35" s="12">
         <v>31</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="29">
         <v>129614344</v>
       </c>
       <c r="D35" s="1">
@@ -2410,7 +2410,7 @@
       <c r="F35" s="13">
         <v>6912973</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="29">
         <v>64486180</v>
       </c>
       <c r="H35" s="13">
@@ -2426,14 +2426,14 @@
         <v>12527565</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B36" s="12">
         <v>30</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="29">
         <v>134616599</v>
       </c>
       <c r="D36" s="1">
@@ -2445,7 +2445,7 @@
       <c r="F36" s="13">
         <v>6852629</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="29">
         <v>69073081</v>
       </c>
       <c r="H36" s="13">
@@ -2461,14 +2461,14 @@
         <v>15539160</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B37" s="12">
         <v>31</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="29">
         <v>142062724</v>
       </c>
       <c r="D37" s="1">
@@ -2480,7 +2480,7 @@
       <c r="F37" s="13">
         <v>7027596</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="29">
         <v>72717176</v>
       </c>
       <c r="H37" s="13">
@@ -2496,14 +2496,14 @@
         <v>14197876</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B38" s="12">
         <v>30</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="29">
         <v>135692863</v>
       </c>
       <c r="D38" s="1">
@@ -2515,7 +2515,7 @@
       <c r="F38" s="13">
         <v>6810467</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="29">
         <v>68271318</v>
       </c>
       <c r="H38" s="13">
@@ -2531,14 +2531,14 @@
         <v>13911030</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B39" s="12">
         <v>31</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="29">
         <v>135904672.22</v>
       </c>
       <c r="D39" s="1">
@@ -2550,7 +2550,7 @@
       <c r="F39" s="13">
         <v>7089455</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="29">
         <v>59683528</v>
       </c>
       <c r="H39" s="13">
@@ -2566,7 +2566,7 @@
         <v>13817537</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>192</v>
       </c>
@@ -2610,14 +2610,14 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B41" s="12">
         <v>31</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="29">
         <v>126714693</v>
       </c>
       <c r="D41" s="1">
@@ -2629,7 +2629,7 @@
       <c r="F41" s="13">
         <v>6058384</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="29">
         <v>59683528</v>
       </c>
       <c r="H41" s="13">
@@ -2645,14 +2645,14 @@
         <v>13463207</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B42" s="12">
         <v>28</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="29">
         <v>123148197</v>
       </c>
       <c r="D42" s="1">
@@ -2664,7 +2664,7 @@
       <c r="F42" s="13">
         <v>5823842</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="29">
         <v>59032497</v>
       </c>
       <c r="H42" s="13">
@@ -2680,14 +2680,14 @@
         <v>14200676</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B43" s="12">
         <v>31</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="29">
         <v>144992308</v>
       </c>
       <c r="D43" s="1">
@@ -2699,7 +2699,7 @@
       <c r="F43" s="13">
         <v>7067303</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="29">
         <v>72524089</v>
       </c>
       <c r="H43" s="13">
@@ -2715,14 +2715,14 @@
         <v>16064572</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="12">
         <v>30</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="29">
         <v>134759291</v>
       </c>
       <c r="D44" s="1">
@@ -2734,7 +2734,7 @@
       <c r="F44" s="13">
         <v>6804593</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="29">
         <v>65305809</v>
       </c>
       <c r="H44" s="13">
@@ -2750,14 +2750,14 @@
         <v>14717310</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B45" s="12">
         <v>31</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="29">
         <v>140211645</v>
       </c>
       <c r="D45" s="1">
@@ -2769,7 +2769,7 @@
       <c r="F45" s="13">
         <v>6948660</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="29">
         <v>69997698</v>
       </c>
       <c r="H45" s="13">
@@ -2785,14 +2785,14 @@
         <v>15552948</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B46" s="12">
         <v>30</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="29">
         <v>146943606</v>
       </c>
       <c r="D46" s="1">
@@ -2804,7 +2804,7 @@
       <c r="F46" s="13">
         <v>7327290</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="29">
         <v>67268051</v>
       </c>
       <c r="H46" s="13">
@@ -2820,14 +2820,14 @@
         <v>15094560</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B47" s="12">
         <v>31</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="29">
         <v>131188482</v>
       </c>
       <c r="D47" s="1">
@@ -2839,7 +2839,7 @@
       <c r="F47" s="13">
         <v>7012229</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="29">
         <v>62321339</v>
       </c>
       <c r="H47" s="13">
@@ -2855,14 +2855,14 @@
         <v>14739725</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B48" s="12">
         <v>31</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="29">
         <v>128020545</v>
       </c>
       <c r="D48" s="1">
@@ -2874,7 +2874,7 @@
       <c r="F48" s="13">
         <v>6704764</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="29">
         <v>59405713</v>
       </c>
       <c r="H48" s="13">
@@ -2890,14 +2890,14 @@
         <v>13259940</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B49" s="12">
         <v>30</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="29">
         <v>138363218</v>
       </c>
       <c r="D49" s="1">
@@ -2909,7 +2909,7 @@
       <c r="F49" s="13">
         <v>6960470</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="29">
         <v>66893119</v>
       </c>
       <c r="H49" s="13">
@@ -2925,14 +2925,14 @@
         <v>14624100</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B50" s="12">
         <v>31</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="29">
         <v>144272734</v>
       </c>
       <c r="D50" s="1">
@@ -2944,7 +2944,7 @@
       <c r="F50" s="13">
         <v>7042872</v>
       </c>
-      <c r="G50" s="31">
+      <c r="G50" s="29">
         <v>69672538</v>
       </c>
       <c r="H50" s="13">
@@ -2960,14 +2960,14 @@
         <v>15702492</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B51" s="12">
         <v>30</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="29">
         <v>139725379</v>
       </c>
       <c r="D51" s="1">
@@ -2979,7 +2979,7 @@
       <c r="F51" s="13">
         <v>6948147</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="29">
         <v>66463267</v>
       </c>
       <c r="H51" s="13">
@@ -2995,14 +2995,14 @@
         <v>14523660</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B52" s="12">
         <v>31</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="29">
         <v>141987712</v>
       </c>
       <c r="D52" s="1">
@@ -3014,7 +3014,7 @@
       <c r="F52" s="13">
         <v>7339230</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="29">
         <v>64994789</v>
       </c>
       <c r="H52" s="13">
@@ -3030,7 +3030,7 @@
         <v>14923710</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>194</v>
       </c>
@@ -3074,14 +3074,14 @@
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="12">
         <v>31</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="29">
         <v>132772387</v>
       </c>
       <c r="D54" s="1">
@@ -3093,7 +3093,7 @@
       <c r="F54" s="13">
         <v>6537572</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="29">
         <v>62817582</v>
       </c>
       <c r="H54" s="13">
@@ -3109,14 +3109,14 @@
         <v>14967141</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B55" s="12">
         <v>29</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="29">
         <v>132353517</v>
       </c>
       <c r="D55" s="1">
@@ -3128,7 +3128,7 @@
       <c r="F55" s="13">
         <v>6395892</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="29">
         <v>63605354</v>
       </c>
       <c r="H55" s="13">
@@ -3144,14 +3144,14 @@
         <v>14980965</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B56" s="12">
         <v>31</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="29">
         <v>147440937</v>
       </c>
       <c r="D56" s="1">
@@ -3163,7 +3163,7 @@
       <c r="F56" s="13">
         <v>7145215</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="29">
         <v>71700125</v>
       </c>
       <c r="H56" s="13">
@@ -3179,14 +3179,14 @@
         <v>16143684</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B57" s="12">
         <v>30</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="29">
         <v>139083547</v>
       </c>
       <c r="D57" s="1">
@@ -3198,7 +3198,7 @@
       <c r="F57" s="13">
         <v>6972024</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="29">
         <v>65757367</v>
       </c>
       <c r="H57" s="13">
@@ -3214,14 +3214,14 @@
         <v>15475440</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B58" s="12">
         <v>31</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="29">
         <v>148398562</v>
       </c>
       <c r="D58" s="1">
@@ -3233,7 +3233,7 @@
       <c r="F58" s="13">
         <v>7242998</v>
       </c>
-      <c r="G58" s="31">
+      <c r="G58" s="29">
         <v>71206246</v>
       </c>
       <c r="H58" s="13">
@@ -3249,14 +3249,14 @@
         <v>15565007</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B59" s="12">
         <v>30</v>
       </c>
-      <c r="C59" s="31">
+      <c r="C59" s="29">
         <v>141989816</v>
       </c>
       <c r="D59" s="1">
@@ -3268,7 +3268,7 @@
       <c r="F59" s="13">
         <v>7269950</v>
       </c>
-      <c r="G59" s="31">
+      <c r="G59" s="29">
         <v>65734533</v>
       </c>
       <c r="H59" s="13">
@@ -3284,14 +3284,14 @@
         <v>15094170</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B60" s="12">
         <v>31</v>
       </c>
-      <c r="C60" s="31">
+      <c r="C60" s="29">
         <v>137123261</v>
       </c>
       <c r="D60" s="1">
@@ -3303,7 +3303,7 @@
       <c r="F60" s="13">
         <v>7214301</v>
       </c>
-      <c r="G60" s="31">
+      <c r="G60" s="29">
         <v>62653564</v>
       </c>
       <c r="H60" s="13">
@@ -3319,14 +3319,14 @@
         <v>14377304</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B61" s="12">
         <v>31</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="29">
         <v>139368048</v>
       </c>
       <c r="D61" s="1">
@@ -3338,7 +3338,7 @@
       <c r="F61" s="13">
         <v>7349146</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G61" s="29">
         <v>63908253</v>
       </c>
       <c r="H61" s="13">
@@ -3354,14 +3354,14 @@
         <v>14379071</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B62" s="12">
         <v>30</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="29">
         <v>136962617</v>
       </c>
       <c r="D62" s="1">
@@ -3373,7 +3373,7 @@
       <c r="F62" s="13">
         <v>6754982</v>
       </c>
-      <c r="G62" s="31">
+      <c r="G62" s="29">
         <v>65163379</v>
       </c>
       <c r="H62" s="13">
@@ -3389,14 +3389,14 @@
         <v>14543490</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B63" s="12">
         <v>31</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="29">
         <v>137138044</v>
       </c>
       <c r="D63" s="1">
@@ -3408,7 +3408,7 @@
       <c r="F63" s="13">
         <v>6778734</v>
       </c>
-      <c r="G63" s="31">
+      <c r="G63" s="29">
         <v>65192102</v>
       </c>
       <c r="H63" s="13">
@@ -3424,14 +3424,14 @@
         <v>14519687</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B64" s="12">
         <v>30</v>
       </c>
-      <c r="C64" s="31">
+      <c r="C64" s="29">
         <v>124291965</v>
       </c>
       <c r="D64" s="1">
@@ -3443,7 +3443,7 @@
       <c r="F64" s="13">
         <v>6283202</v>
       </c>
-      <c r="G64" s="31">
+      <c r="G64" s="29">
         <v>61217006</v>
       </c>
       <c r="H64" s="13">
@@ -3459,14 +3459,14 @@
         <v>13773420</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B65" s="12">
         <v>31</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="29">
         <v>137234842</v>
       </c>
       <c r="D65" s="1">
@@ -3478,7 +3478,7 @@
       <c r="F65" s="13">
         <v>7009613</v>
       </c>
-      <c r="G65" s="31">
+      <c r="G65" s="29">
         <v>63023303</v>
       </c>
       <c r="H65" s="13">
@@ -3494,7 +3494,7 @@
         <v>14694155</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>193</v>
       </c>
@@ -3538,14 +3538,14 @@
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B67" s="12">
         <v>31</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="29">
         <v>136985100.41</v>
       </c>
       <c r="D67" s="1">
@@ -3557,7 +3557,7 @@
       <c r="F67" s="13">
         <v>6677133</v>
       </c>
-      <c r="G67" s="31">
+      <c r="G67" s="29">
         <v>66084983</v>
       </c>
       <c r="H67" s="13">
@@ -3579,14 +3579,14 @@
         <v>767631</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B68" s="12">
         <v>28</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="29">
         <v>127917491.26000001</v>
       </c>
       <c r="D68" s="1">
@@ -3598,7 +3598,7 @@
       <c r="F68" s="13">
         <v>5996007</v>
       </c>
-      <c r="G68" s="31">
+      <c r="G68" s="29">
         <v>62002790</v>
       </c>
       <c r="H68" s="13">
@@ -3623,14 +3623,14 @@
         <v>579182</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B69" s="12">
         <v>31</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="29">
         <v>142934752</v>
       </c>
       <c r="D69" s="1">
@@ -3642,7 +3642,7 @@
       <c r="F69" s="13">
         <v>6961374</v>
       </c>
-      <c r="G69" s="31">
+      <c r="G69" s="29">
         <v>68335935</v>
       </c>
       <c r="H69" s="13">
@@ -3667,14 +3667,14 @@
         <v>711379</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B70" s="12">
         <v>30</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="29">
         <v>146388413.88999999</v>
       </c>
       <c r="D70" s="1">
@@ -3686,7 +3686,7 @@
       <c r="F70" s="13">
         <v>7106230</v>
       </c>
-      <c r="G70" s="31">
+      <c r="G70" s="29">
         <v>70608596</v>
       </c>
       <c r="H70" s="13">
@@ -3711,14 +3711,14 @@
         <v>851956</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B71" s="12">
         <v>31</v>
       </c>
-      <c r="C71" s="31">
+      <c r="C71" s="29">
         <v>150544399</v>
       </c>
       <c r="D71" s="1">
@@ -3730,7 +3730,7 @@
       <c r="F71" s="13">
         <v>7198299</v>
       </c>
-      <c r="G71" s="31">
+      <c r="G71" s="29">
         <v>71344297</v>
       </c>
       <c r="H71" s="13">
@@ -3755,14 +3755,14 @@
         <v>859353</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B72" s="12">
         <v>30</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="29">
         <v>141256868</v>
       </c>
       <c r="D72" s="1">
@@ -3774,7 +3774,7 @@
       <c r="F72" s="13">
         <v>7095500</v>
       </c>
-      <c r="G72" s="31">
+      <c r="G72" s="29">
         <v>65030836</v>
       </c>
       <c r="H72" s="13">
@@ -3802,14 +3802,14 @@
         <v>618572</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B73" s="12">
         <v>31</v>
       </c>
-      <c r="C73" s="31">
+      <c r="C73" s="29">
         <v>140790832</v>
       </c>
       <c r="D73" s="1">
@@ -3821,7 +3821,7 @@
       <c r="F73" s="13">
         <v>7300168</v>
       </c>
-      <c r="G73" s="31">
+      <c r="G73" s="29">
         <v>64566505</v>
       </c>
       <c r="H73" s="13">
@@ -3849,14 +3849,14 @@
         <v>953872</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B74" s="12">
         <v>31</v>
       </c>
-      <c r="C74" s="31">
+      <c r="C74" s="29">
         <v>138694131.77000001</v>
       </c>
       <c r="D74" s="1">
@@ -3868,7 +3868,7 @@
       <c r="F74" s="13">
         <v>7132265</v>
       </c>
-      <c r="G74" s="31">
+      <c r="G74" s="29">
         <v>63620709</v>
       </c>
       <c r="H74" s="13">
@@ -3899,14 +3899,14 @@
         <v>1109428</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B75" s="12">
         <v>30</v>
       </c>
-      <c r="C75" s="31">
+      <c r="C75" s="29">
         <v>141551981</v>
       </c>
       <c r="D75" s="1">
@@ -3918,7 +3918,7 @@
       <c r="F75" s="13">
         <v>6786130</v>
       </c>
-      <c r="G75" s="31">
+      <c r="G75" s="29">
         <v>67675320</v>
       </c>
       <c r="H75" s="13">
@@ -3949,14 +3949,14 @@
         <v>1104527</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B76" s="12">
         <v>31</v>
       </c>
-      <c r="C76" s="31">
+      <c r="C76" s="29">
         <v>156450636</v>
       </c>
       <c r="D76" s="1">
@@ -3968,7 +3968,7 @@
       <c r="F76" s="13">
         <v>7382282</v>
       </c>
-      <c r="G76" s="31">
+      <c r="G76" s="29">
         <v>74778783</v>
       </c>
       <c r="H76" s="13">
@@ -3999,14 +3999,14 @@
         <v>1087170</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B77" s="12">
         <v>30</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="29">
         <v>141464184</v>
       </c>
       <c r="D77" s="1">
@@ -4018,7 +4018,7 @@
       <c r="F77" s="13">
         <v>6680246</v>
       </c>
-      <c r="G77" s="31">
+      <c r="G77" s="29">
         <v>65315012</v>
       </c>
       <c r="H77" s="13">
@@ -4049,14 +4049,14 @@
         <v>701619</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B78" s="12">
         <v>31</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="29">
         <v>142545974</v>
       </c>
       <c r="D78" s="1">
@@ -4068,7 +4068,7 @@
       <c r="F78" s="13">
         <v>7062872</v>
       </c>
-      <c r="G78" s="31">
+      <c r="G78" s="29">
         <v>63124330</v>
       </c>
       <c r="H78" s="13">
@@ -4099,7 +4099,7 @@
         <v>460871</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>195</v>
       </c>
@@ -4153,14 +4153,14 @@
         <v>6036059</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B80" s="12">
         <v>31</v>
       </c>
-      <c r="C80" s="31">
+      <c r="C80" s="29">
         <v>137104015</v>
       </c>
       <c r="D80" s="1">
@@ -4172,7 +4172,7 @@
       <c r="F80" s="13">
         <v>6526360</v>
       </c>
-      <c r="G80" s="31">
+      <c r="G80" s="29">
         <v>60439584</v>
       </c>
       <c r="H80" s="13">
@@ -4203,14 +4203,14 @@
         <v>312728</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B81" s="12">
         <v>28</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81" s="29">
         <v>129798394</v>
       </c>
       <c r="D81" s="1">
@@ -4222,7 +4222,7 @@
       <c r="F81" s="13">
         <v>5963984</v>
       </c>
-      <c r="G81" s="31">
+      <c r="G81" s="29">
         <v>57243161.57</v>
       </c>
       <c r="H81" s="13">
@@ -4253,14 +4253,14 @@
         <v>247352</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B82" s="12">
         <v>31</v>
       </c>
-      <c r="C82" s="31">
+      <c r="C82" s="29">
         <v>148399611</v>
       </c>
       <c r="D82" s="1">
@@ -4272,7 +4272,7 @@
       <c r="F82" s="13">
         <v>6824170</v>
       </c>
-      <c r="G82" s="31">
+      <c r="G82" s="29">
         <v>70037781</v>
       </c>
       <c r="H82" s="13">
@@ -4303,14 +4303,14 @@
         <v>451432</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B83" s="12">
         <v>30</v>
       </c>
-      <c r="C83" s="31">
+      <c r="C83" s="29">
         <v>147926218</v>
       </c>
       <c r="D83" s="1">
@@ -4322,7 +4322,7 @@
       <c r="F83" s="13">
         <v>7159018</v>
       </c>
-      <c r="G83" s="31">
+      <c r="G83" s="29">
         <v>67502255</v>
       </c>
       <c r="H83" s="13">
@@ -4353,14 +4353,14 @@
         <v>671626</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B84" s="12">
         <v>31</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="29">
         <v>152779557</v>
       </c>
       <c r="D84" s="1">
@@ -4372,7 +4372,7 @@
       <c r="F84" s="13">
         <v>7169671</v>
       </c>
-      <c r="G84" s="31">
+      <c r="G84" s="29">
         <v>71159266</v>
       </c>
       <c r="H84" s="13">
@@ -4403,14 +4403,14 @@
         <v>955032</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="12">
         <v>30</v>
       </c>
-      <c r="C85" s="31">
+      <c r="C85" s="29">
         <v>147972716</v>
       </c>
       <c r="D85" s="1">
@@ -4422,7 +4422,7 @@
       <c r="F85" s="13">
         <v>7360103</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G85" s="29">
         <v>66771687</v>
       </c>
       <c r="H85" s="13">
@@ -4453,14 +4453,14 @@
         <v>1035478</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B86" s="12">
         <v>31</v>
       </c>
-      <c r="C86" s="31">
+      <c r="C86" s="29">
         <v>146387263</v>
       </c>
       <c r="D86" s="1">
@@ -4472,7 +4472,7 @@
       <c r="F86" s="13">
         <v>7520253</v>
       </c>
-      <c r="G86" s="31">
+      <c r="G86" s="29">
         <v>65338669</v>
       </c>
       <c r="H86" s="13">
@@ -4503,14 +4503,14 @@
         <v>1061379</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B87" s="12">
         <v>31</v>
       </c>
-      <c r="C87" s="31">
+      <c r="C87" s="29">
         <v>140032698</v>
       </c>
       <c r="D87" s="1">
@@ -4522,7 +4522,7 @@
       <c r="F87" s="13">
         <v>7078935</v>
       </c>
-      <c r="G87" s="31">
+      <c r="G87" s="29">
         <v>62388832</v>
       </c>
       <c r="H87" s="13">
@@ -4553,14 +4553,14 @@
         <v>1059463</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B88" s="12">
         <v>30</v>
       </c>
-      <c r="C88" s="31">
+      <c r="C88" s="29">
         <v>149379082</v>
       </c>
       <c r="D88" s="1">
@@ -4572,7 +4572,7 @@
       <c r="F88" s="13">
         <v>7215858</v>
       </c>
-      <c r="G88" s="31">
+      <c r="G88" s="29">
         <v>69493697</v>
       </c>
       <c r="H88" s="13">
@@ -4603,14 +4603,14 @@
         <v>1052153</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B89" s="12">
         <v>31</v>
       </c>
-      <c r="C89" s="31">
+      <c r="C89" s="29">
         <v>160094868</v>
       </c>
       <c r="D89" s="1">
@@ -4622,7 +4622,7 @@
       <c r="F89" s="13">
         <v>7653001</v>
       </c>
-      <c r="G89" s="31">
+      <c r="G89" s="29">
         <v>73879127</v>
       </c>
       <c r="H89" s="13">
@@ -4653,14 +4653,14 @@
         <v>924178</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B90" s="12">
         <v>30</v>
       </c>
-      <c r="C90" s="31">
+      <c r="C90" s="29">
         <v>141224462</v>
       </c>
       <c r="D90" s="1">
@@ -4672,7 +4672,7 @@
       <c r="F90" s="13">
         <v>6685728</v>
       </c>
-      <c r="G90" s="31">
+      <c r="G90" s="29">
         <v>63417354</v>
       </c>
       <c r="H90" s="13">
@@ -4703,14 +4703,14 @@
         <v>583710</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B91" s="12">
         <v>31</v>
       </c>
-      <c r="C91" s="31">
+      <c r="C91" s="29">
         <v>150150167</v>
       </c>
       <c r="D91" s="1">
@@ -4722,7 +4722,7 @@
       <c r="F91" s="13">
         <v>7503970</v>
       </c>
-      <c r="G91" s="31">
+      <c r="G91" s="29">
         <v>64819333</v>
       </c>
       <c r="H91" s="13">
@@ -4753,7 +4753,7 @@
         <v>437456</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>196</v>
       </c>
@@ -4807,14 +4807,14 @@
         <v>8791987</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B93" s="12">
         <v>31</v>
       </c>
-      <c r="C93" s="31">
+      <c r="C93" s="29">
         <v>133769924</v>
       </c>
       <c r="D93" s="1">
@@ -4826,7 +4826,7 @@
       <c r="F93" s="13">
         <v>6304067</v>
       </c>
-      <c r="G93" s="31">
+      <c r="G93" s="29">
         <v>59112096</v>
       </c>
       <c r="H93" s="13">
@@ -4872,14 +4872,14 @@
         <v>313704</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B94" s="12">
         <v>28</v>
       </c>
-      <c r="C94" s="31">
+      <c r="C94" s="29">
         <v>130778251</v>
       </c>
       <c r="D94" s="1">
@@ -4891,7 +4891,7 @@
       <c r="F94" s="13">
         <v>5972025</v>
       </c>
-      <c r="G94" s="31">
+      <c r="G94" s="29">
         <v>56619833</v>
       </c>
       <c r="H94" s="13">
@@ -4937,14 +4937,14 @@
         <v>209795</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B95" s="12">
         <v>31</v>
       </c>
-      <c r="C95" s="31">
+      <c r="C95" s="29">
         <v>153076928</v>
       </c>
       <c r="D95" s="1">
@@ -4956,7 +4956,7 @@
       <c r="F95" s="13">
         <v>7171308</v>
       </c>
-      <c r="G95" s="31">
+      <c r="G95" s="29">
         <v>68293699</v>
       </c>
       <c r="H95" s="13">
@@ -5002,14 +5002,14 @@
         <v>312715</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B96" s="12">
         <v>30</v>
       </c>
-      <c r="C96" s="31">
+      <c r="C96" s="29">
         <v>150348150</v>
       </c>
       <c r="D96" s="1">
@@ -5021,7 +5021,7 @@
       <c r="F96" s="13">
         <v>7283033</v>
       </c>
-      <c r="G96" s="31">
+      <c r="G96" s="29">
         <v>65867751</v>
       </c>
       <c r="H96" s="13">
@@ -5067,14 +5067,14 @@
         <v>707915</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B97" s="12">
         <v>31</v>
       </c>
-      <c r="C97" s="31">
+      <c r="C97" s="29">
         <v>151418931</v>
       </c>
       <c r="D97" s="1">
@@ -5086,7 +5086,7 @@
       <c r="F97" s="13">
         <v>7177702</v>
       </c>
-      <c r="G97" s="31">
+      <c r="G97" s="29">
         <v>68002850</v>
       </c>
       <c r="H97" s="13">
@@ -5132,14 +5132,14 @@
         <v>1039675</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B98" s="12">
         <v>30</v>
       </c>
-      <c r="C98" s="31">
+      <c r="C98" s="29">
         <v>152034275</v>
       </c>
       <c r="D98" s="1">
@@ -5151,7 +5151,7 @@
       <c r="F98" s="13">
         <v>7604031</v>
       </c>
-      <c r="G98" s="31">
+      <c r="G98" s="29">
         <v>65537442</v>
       </c>
       <c r="H98" s="13">
@@ -5197,14 +5197,14 @@
         <v>941117</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B99" s="12">
         <v>31</v>
       </c>
-      <c r="C99" s="31">
+      <c r="C99" s="29">
         <v>148098272</v>
       </c>
       <c r="D99" s="1">
@@ -5216,7 +5216,7 @@
       <c r="F99" s="13">
         <v>7644287</v>
       </c>
-      <c r="G99" s="31">
+      <c r="G99" s="29">
         <v>63775805</v>
       </c>
       <c r="H99" s="13">
@@ -5262,14 +5262,14 @@
         <v>1085477</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B100" s="12">
         <v>31</v>
       </c>
-      <c r="C100" s="31">
+      <c r="C100" s="29">
         <v>139974023</v>
       </c>
       <c r="D100" s="1">
@@ -5281,7 +5281,7 @@
       <c r="F100" s="13">
         <v>7201809</v>
       </c>
-      <c r="G100" s="31">
+      <c r="G100" s="29">
         <v>61109202</v>
       </c>
       <c r="H100" s="13">
@@ -5327,14 +5327,14 @@
         <v>1164533</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B101" s="12">
         <v>30</v>
       </c>
-      <c r="C101" s="31">
+      <c r="C101" s="29">
         <v>146515000</v>
       </c>
       <c r="D101" s="1">
@@ -5346,7 +5346,7 @@
       <c r="F101" s="13">
         <v>7352209</v>
       </c>
-      <c r="G101" s="31">
+      <c r="G101" s="29">
         <v>64962884</v>
       </c>
       <c r="H101" s="13">
@@ -5392,14 +5392,14 @@
         <v>1289709</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B102" s="12">
         <v>31</v>
       </c>
-      <c r="C102" s="31">
+      <c r="C102" s="29">
         <v>161124042</v>
       </c>
       <c r="D102" s="1">
@@ -5411,7 +5411,7 @@
       <c r="F102" s="13">
         <v>7667660</v>
       </c>
-      <c r="G102" s="31">
+      <c r="G102" s="29">
         <v>69728893</v>
       </c>
       <c r="H102" s="13">
@@ -5457,14 +5457,14 @@
         <v>1212269</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B103" s="12">
         <v>30</v>
       </c>
-      <c r="C103" s="31">
+      <c r="C103" s="29">
         <v>144519447</v>
       </c>
       <c r="D103" s="1">
@@ -5476,7 +5476,7 @@
       <c r="F103" s="13">
         <v>6998173</v>
       </c>
-      <c r="G103" s="31">
+      <c r="G103" s="29">
         <v>63309371</v>
       </c>
       <c r="H103" s="13">
@@ -5522,14 +5522,14 @@
         <v>987259</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B104" s="12">
         <v>31</v>
       </c>
-      <c r="C104" s="31">
+      <c r="C104" s="29">
         <v>150834412</v>
       </c>
       <c r="D104" s="1">
@@ -5541,7 +5541,7 @@
       <c r="F104" s="13">
         <v>7632258</v>
       </c>
-      <c r="G104" s="31">
+      <c r="G104" s="29">
         <v>69135291</v>
       </c>
       <c r="H104" s="13">
@@ -5587,7 +5587,7 @@
         <v>804112</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>197</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="H105" s="14">
         <v>650681784</v>
       </c>
-      <c r="I105" s="32">
+      <c r="I105" s="30">
         <v>125399522</v>
       </c>
       <c r="J105" s="5">
@@ -5651,14 +5651,14 @@
         <v>10068280</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B106" s="12">
         <v>31</v>
       </c>
-      <c r="C106" s="31">
+      <c r="C106" s="29">
         <v>136413951</v>
       </c>
       <c r="D106" s="1">
@@ -5670,7 +5670,7 @@
       <c r="F106" s="13">
         <v>6468097</v>
       </c>
-      <c r="G106" s="31">
+      <c r="G106" s="29">
         <v>58514668</v>
       </c>
       <c r="H106" s="13">
@@ -5716,14 +5716,14 @@
         <v>509478</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B107" s="12">
         <v>29</v>
       </c>
-      <c r="C107" s="31">
+      <c r="C107" s="29">
         <v>136690795</v>
       </c>
       <c r="D107" s="1">
@@ -5735,7 +5735,7 @@
       <c r="F107" s="13">
         <v>6443258</v>
       </c>
-      <c r="G107" s="31">
+      <c r="G107" s="29">
         <v>59978619</v>
       </c>
       <c r="H107" s="13">
@@ -5781,14 +5781,14 @@
         <v>560865</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B108" s="12">
         <v>31</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="29">
         <v>156297328</v>
       </c>
       <c r="D108" s="1">
@@ -5800,7 +5800,7 @@
       <c r="F108" s="13">
         <v>7531732</v>
       </c>
-      <c r="G108" s="31">
+      <c r="G108" s="29">
         <v>70114293</v>
       </c>
       <c r="H108" s="13">
@@ -5846,14 +5846,14 @@
         <v>919911</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B109" s="12">
         <v>30</v>
       </c>
-      <c r="C109" s="31">
+      <c r="C109" s="29">
         <v>147291655</v>
       </c>
       <c r="D109" s="1">
@@ -5865,7 +5865,7 @@
       <c r="F109" s="13">
         <v>7119160</v>
       </c>
-      <c r="G109" s="31">
+      <c r="G109" s="29">
         <v>64884158</v>
       </c>
       <c r="H109" s="13">
@@ -5911,14 +5911,14 @@
         <v>1013149</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B110" s="12">
         <v>31</v>
       </c>
-      <c r="C110" s="31">
+      <c r="C110" s="29">
         <v>151910204</v>
       </c>
       <c r="D110" s="1">
@@ -5930,7 +5930,7 @@
       <c r="F110" s="13">
         <v>7197619</v>
       </c>
-      <c r="G110" s="31">
+      <c r="G110" s="29">
         <v>67631143</v>
       </c>
       <c r="H110" s="13">
@@ -5976,14 +5976,14 @@
         <v>1212280</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B111" s="12">
         <v>30</v>
       </c>
-      <c r="C111" s="31">
+      <c r="C111" s="29">
         <v>151007041</v>
       </c>
       <c r="D111" s="1">
@@ -5995,7 +5995,7 @@
       <c r="F111" s="13">
         <v>7679576</v>
       </c>
-      <c r="G111" s="31">
+      <c r="G111" s="29">
         <v>65000522</v>
       </c>
       <c r="H111" s="13">
@@ -6041,14 +6041,14 @@
         <v>1460303</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B112" s="12">
         <v>31</v>
       </c>
-      <c r="C112" s="31">
+      <c r="C112" s="29">
         <v>139851426</v>
       </c>
       <c r="D112" s="1">
@@ -6060,7 +6060,7 @@
       <c r="F112" s="13">
         <v>7245013</v>
       </c>
-      <c r="G112" s="31">
+      <c r="G112" s="29">
         <v>60455808</v>
       </c>
       <c r="H112" s="13">
@@ -6106,14 +6106,14 @@
         <v>1380110</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B113" s="12">
         <v>31</v>
       </c>
-      <c r="C113" s="31">
+      <c r="C113" s="29">
         <v>143703034</v>
       </c>
       <c r="D113" s="1">
@@ -6125,7 +6125,7 @@
       <c r="F113" s="13">
         <v>7444260</v>
       </c>
-      <c r="G113" s="31">
+      <c r="G113" s="29">
         <v>62546762</v>
       </c>
       <c r="H113" s="13">
@@ -6171,14 +6171,14 @@
         <v>1557663</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B114" s="12">
         <v>30</v>
       </c>
-      <c r="C114" s="31">
+      <c r="C114" s="29">
         <v>148467391</v>
       </c>
       <c r="D114" s="1">
@@ -6190,7 +6190,7 @@
       <c r="F114" s="13">
         <v>7269161</v>
       </c>
-      <c r="G114" s="31">
+      <c r="G114" s="29">
         <v>65746340</v>
       </c>
       <c r="H114" s="13">
@@ -6236,14 +6236,14 @@
         <v>1648856</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B115" s="12">
         <v>31</v>
       </c>
-      <c r="C115" s="31">
+      <c r="C115" s="29">
         <v>150638608</v>
       </c>
       <c r="D115" s="1">
@@ -6255,7 +6255,7 @@
       <c r="F115" s="13">
         <v>7444035</v>
       </c>
-      <c r="G115" s="31">
+      <c r="G115" s="29">
         <v>65389998</v>
       </c>
       <c r="H115" s="13">
@@ -6301,14 +6301,14 @@
         <v>1573653</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B116" s="12">
         <v>30</v>
       </c>
-      <c r="C116" s="31">
+      <c r="C116" s="29">
         <v>147033943</v>
       </c>
       <c r="D116" s="1">
@@ -6320,7 +6320,7 @@
       <c r="F116" s="13">
         <v>7235754</v>
       </c>
-      <c r="G116" s="31">
+      <c r="G116" s="29">
         <v>62804593</v>
       </c>
       <c r="H116" s="13">
@@ -6366,14 +6366,14 @@
         <v>1184214</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B117" s="12">
         <v>31</v>
       </c>
-      <c r="C117" s="31">
+      <c r="C117" s="29">
         <v>147509424</v>
       </c>
       <c r="D117" s="1">
@@ -6385,7 +6385,7 @@
       <c r="F117" s="13">
         <v>7416456</v>
       </c>
-      <c r="G117" s="31">
+      <c r="G117" s="29">
         <v>60933766</v>
       </c>
       <c r="H117" s="13">
@@ -6431,7 +6431,7 @@
         <v>806650</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>198</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="H118" s="14">
         <v>638413113</v>
       </c>
-      <c r="I118" s="32">
+      <c r="I118" s="30">
         <v>125617157</v>
       </c>
       <c r="J118" s="5">
@@ -6495,14 +6495,14 @@
         <v>13827132</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B119" s="12">
         <v>31</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="29">
         <v>140288294</v>
       </c>
       <c r="D119" s="1">
@@ -6514,7 +6514,7 @@
       <c r="F119" s="13">
         <v>6739640</v>
       </c>
-      <c r="G119" s="31">
+      <c r="G119" s="29">
         <v>59469170</v>
       </c>
       <c r="H119" s="13">
@@ -6560,14 +6560,14 @@
         <v>723254</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B120" s="12">
         <v>28</v>
       </c>
-      <c r="C120" s="31">
+      <c r="C120" s="29">
         <v>130465060</v>
       </c>
       <c r="D120" s="1">
@@ -6579,7 +6579,7 @@
       <c r="F120" s="13">
         <v>6255285</v>
       </c>
-      <c r="G120" s="31">
+      <c r="G120" s="29">
         <v>56020935.799999997</v>
       </c>
       <c r="H120" s="13">
@@ -6625,14 +6625,14 @@
         <v>783654</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B121" s="12">
         <v>31</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="29">
         <v>151384924</v>
       </c>
       <c r="D121" s="1">
@@ -6644,7 +6644,7 @@
       <c r="F121" s="13">
         <v>7308183</v>
       </c>
-      <c r="G121" s="31">
+      <c r="G121" s="29">
         <v>64266389</v>
       </c>
       <c r="H121" s="13">
@@ -6690,14 +6690,14 @@
         <v>722529</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B122" s="12">
         <v>30</v>
       </c>
-      <c r="C122" s="31">
+      <c r="C122" s="29">
         <v>143284553</v>
       </c>
       <c r="D122" s="1">
@@ -6709,7 +6709,7 @@
       <c r="F122" s="13">
         <v>7015190</v>
       </c>
-      <c r="G122" s="31">
+      <c r="G122" s="29">
         <v>59516210</v>
       </c>
       <c r="H122" s="13">
@@ -6755,14 +6755,14 @@
         <v>1315370</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B123" s="12">
         <v>31</v>
       </c>
-      <c r="C123" s="31">
+      <c r="C123" s="29">
         <v>153470353</v>
       </c>
       <c r="D123" s="1">
@@ -6774,7 +6774,7 @@
       <c r="F123" s="13">
         <v>7464395</v>
       </c>
-      <c r="G123" s="31">
+      <c r="G123" s="29">
         <v>65470186.969999999</v>
       </c>
       <c r="H123" s="13">
@@ -6823,14 +6823,14 @@
         <v>1523249</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B124" s="12">
         <v>30</v>
       </c>
-      <c r="C124" s="31">
+      <c r="C124" s="29">
         <v>149360780</v>
       </c>
       <c r="D124" s="1">
@@ -6842,7 +6842,7 @@
       <c r="F124" s="13">
         <v>7708077</v>
       </c>
-      <c r="G124" s="31">
+      <c r="G124" s="29">
         <v>61651794</v>
       </c>
       <c r="H124" s="13">
@@ -6891,14 +6891,14 @@
         <v>1731155</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B125" s="12">
         <v>31</v>
       </c>
-      <c r="C125" s="31">
+      <c r="C125" s="29">
         <v>137447659</v>
       </c>
       <c r="D125" s="1">
@@ -6910,7 +6910,7 @@
       <c r="F125" s="13">
         <v>7244976</v>
       </c>
-      <c r="G125" s="31">
+      <c r="G125" s="29">
         <v>57655766</v>
       </c>
       <c r="H125" s="13">
@@ -6959,14 +6959,14 @@
         <v>1735637</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B126" s="12">
         <v>31</v>
       </c>
-      <c r="C126" s="31">
+      <c r="C126" s="29">
         <v>141721056</v>
       </c>
       <c r="D126" s="1">
@@ -6978,7 +6978,7 @@
       <c r="F126" s="13">
         <v>7507575</v>
       </c>
-      <c r="G126" s="31">
+      <c r="G126" s="29">
         <v>58903588</v>
       </c>
       <c r="H126" s="13">
@@ -7027,14 +7027,14 @@
         <v>1816382</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B127" s="12">
         <v>30</v>
       </c>
-      <c r="C127" s="31">
+      <c r="C127" s="29">
         <v>143012669</v>
       </c>
       <c r="D127" s="1">
@@ -7046,7 +7046,7 @@
       <c r="F127" s="13">
         <v>7083645</v>
       </c>
-      <c r="G127" s="31">
+      <c r="G127" s="29">
         <v>60692759</v>
       </c>
       <c r="H127" s="13">
@@ -7095,14 +7095,14 @@
         <v>1878158</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B128" s="12">
         <v>31</v>
       </c>
-      <c r="C128" s="31">
+      <c r="C128" s="29">
         <v>153344574</v>
       </c>
       <c r="D128" s="1">
@@ -7114,7 +7114,7 @@
       <c r="F128" s="13">
         <v>7730577</v>
       </c>
-      <c r="G128" s="31">
+      <c r="G128" s="29">
         <v>65046872</v>
       </c>
       <c r="H128" s="13">
@@ -7163,14 +7163,14 @@
         <v>1897310</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B129" s="12">
         <v>30</v>
       </c>
-      <c r="C129" s="31">
+      <c r="C129" s="29">
         <v>144357826</v>
       </c>
       <c r="D129" s="1">
@@ -7182,7 +7182,7 @@
       <c r="F129" s="13">
         <v>7277877</v>
       </c>
-      <c r="G129" s="31">
+      <c r="G129" s="29">
         <v>60020903</v>
       </c>
       <c r="H129" s="13">
@@ -7231,14 +7231,14 @@
         <v>1330631</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B130" s="12">
         <v>31</v>
       </c>
-      <c r="C130" s="31">
+      <c r="C130" s="29">
         <v>139097559</v>
       </c>
       <c r="D130" s="1">
@@ -7250,7 +7250,7 @@
       <c r="F130" s="13">
         <v>7160806</v>
       </c>
-      <c r="G130" s="31">
+      <c r="G130" s="29">
         <v>56032653</v>
       </c>
       <c r="H130" s="13">
@@ -7299,7 +7299,7 @@
         <v>889955</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>199</v>
       </c>
@@ -7365,14 +7365,14 @@
         <v>16347284</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B132" s="12">
         <v>31</v>
       </c>
-      <c r="C132" s="31">
+      <c r="C132" s="29">
         <v>134600000</v>
       </c>
       <c r="D132" s="1">
@@ -7384,7 +7384,7 @@
       <c r="F132" s="13">
         <v>6768837</v>
       </c>
-      <c r="G132" s="31">
+      <c r="G132" s="29">
         <v>54701101</v>
       </c>
       <c r="H132" s="13">
@@ -7433,14 +7433,14 @@
         <v>718980</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B133" s="12">
         <v>28</v>
       </c>
-      <c r="C133" s="31">
+      <c r="C133" s="29">
         <v>127300000</v>
       </c>
       <c r="D133" s="1">
@@ -7452,7 +7452,7 @@
       <c r="F133" s="13">
         <v>6237588</v>
       </c>
-      <c r="G133" s="31">
+      <c r="G133" s="29">
         <v>53839817</v>
       </c>
       <c r="H133" s="13">
@@ -7501,14 +7501,14 @@
         <v>843097</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B134" s="12">
         <v>31</v>
       </c>
-      <c r="C134" s="31">
+      <c r="C134" s="29">
         <v>144100000</v>
       </c>
       <c r="D134" s="1">
@@ -7520,7 +7520,7 @@
       <c r="F134" s="13">
         <v>7139088</v>
       </c>
-      <c r="G134" s="31">
+      <c r="G134" s="29">
         <v>60144292</v>
       </c>
       <c r="H134" s="13">
@@ -7569,14 +7569,14 @@
         <v>976749</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B135" s="12">
         <v>30</v>
       </c>
-      <c r="C135" s="31">
+      <c r="C135" s="29">
         <v>142000000</v>
       </c>
       <c r="D135" s="1">
@@ -7588,7 +7588,7 @@
       <c r="F135" s="13">
         <v>7110538</v>
       </c>
-      <c r="G135" s="31">
+      <c r="G135" s="29">
         <v>58764474</v>
       </c>
       <c r="H135" s="13">
@@ -7637,14 +7637,14 @@
         <v>1307551</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B136" s="12">
         <v>31</v>
       </c>
-      <c r="C136" s="31">
+      <c r="C136" s="29">
         <v>150300000</v>
       </c>
       <c r="D136" s="1">
@@ -7656,7 +7656,7 @@
       <c r="F136" s="13">
         <v>7549186</v>
       </c>
-      <c r="G136" s="31">
+      <c r="G136" s="29">
         <v>62841847</v>
       </c>
       <c r="H136" s="13">
@@ -7705,14 +7705,14 @@
         <v>1824476</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B137" s="12">
         <v>30</v>
       </c>
-      <c r="C137" s="31">
+      <c r="C137" s="29">
         <v>142700000</v>
       </c>
       <c r="D137" s="1">
@@ -7724,7 +7724,7 @@
       <c r="F137" s="13">
         <v>7592314</v>
       </c>
-      <c r="G137" s="31">
+      <c r="G137" s="29">
         <v>57735003</v>
       </c>
       <c r="H137" s="13">
@@ -7773,14 +7773,14 @@
         <v>1952950</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B138" s="12">
         <v>31</v>
       </c>
-      <c r="C138" s="31">
+      <c r="C138" s="29">
         <v>136100000</v>
       </c>
       <c r="D138" s="1">
@@ -7792,7 +7792,7 @@
       <c r="F138" s="13">
         <v>7414611</v>
       </c>
-      <c r="G138" s="31">
+      <c r="G138" s="29">
         <v>56050422</v>
       </c>
       <c r="H138" s="13">
@@ -7841,14 +7841,14 @@
         <v>1913639</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B139" s="12">
         <v>31</v>
       </c>
-      <c r="C139" s="31">
+      <c r="C139" s="29">
         <v>136900000</v>
       </c>
       <c r="D139" s="1">
@@ -7860,7 +7860,7 @@
       <c r="F139" s="13">
         <v>7447642</v>
       </c>
-      <c r="G139" s="31">
+      <c r="G139" s="29">
         <v>57100000</v>
       </c>
       <c r="H139" s="13">
@@ -7909,14 +7909,14 @@
         <v>1975891</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B140" s="12">
         <v>30</v>
       </c>
-      <c r="C140" s="31">
+      <c r="C140" s="29">
         <v>135000000</v>
       </c>
       <c r="D140" s="1">
@@ -7928,7 +7928,7 @@
       <c r="F140" s="13">
         <v>6941823</v>
       </c>
-      <c r="G140" s="31">
+      <c r="G140" s="29">
         <v>56900000</v>
       </c>
       <c r="H140" s="13">
@@ -7977,14 +7977,14 @@
         <v>1877279</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B141" s="12">
         <v>31</v>
       </c>
-      <c r="C141" s="31">
+      <c r="C141" s="29">
         <v>154100000</v>
       </c>
       <c r="D141" s="1">
@@ -7996,7 +7996,7 @@
       <c r="F141" s="13">
         <v>7888088</v>
       </c>
-      <c r="G141" s="31">
+      <c r="G141" s="29">
         <v>63300000</v>
       </c>
       <c r="H141" s="13">
@@ -8045,14 +8045,14 @@
         <v>1895402</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B142" s="12">
         <v>30</v>
       </c>
-      <c r="C142" s="31">
+      <c r="C142" s="29">
         <v>140700000</v>
       </c>
       <c r="D142" s="1">
@@ -8064,7 +8064,7 @@
       <c r="F142" s="13">
         <v>7218474</v>
       </c>
-      <c r="G142" s="31">
+      <c r="G142" s="29">
         <v>55700000</v>
       </c>
       <c r="H142" s="13">
@@ -8113,14 +8113,14 @@
         <v>1180064</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B143" s="12">
         <v>31</v>
       </c>
-      <c r="C143" s="31">
+      <c r="C143" s="29">
         <v>136200000.00000006</v>
       </c>
       <c r="D143" s="1">
@@ -8132,7 +8132,7 @@
       <c r="F143" s="13">
         <v>7244447</v>
       </c>
-      <c r="G143" s="31">
+      <c r="G143" s="29">
         <v>53647999.999999911</v>
       </c>
       <c r="H143" s="13">
@@ -8181,7 +8181,7 @@
         <v>1276332</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>200</v>
       </c>
@@ -8247,14 +8247,14 @@
         <v>17742410</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B145" s="12">
         <v>31</v>
       </c>
-      <c r="C145" s="31">
+      <c r="C145" s="29">
         <v>134500000</v>
       </c>
       <c r="D145" s="1">
@@ -8266,7 +8266,7 @@
       <c r="F145" s="13">
         <v>6860312</v>
       </c>
-      <c r="G145" s="31">
+      <c r="G145" s="29">
         <v>54200000</v>
       </c>
       <c r="H145" s="13">
@@ -8315,14 +8315,14 @@
         <v>998608</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B146" s="12">
         <v>28</v>
       </c>
-      <c r="C146" s="31">
+      <c r="C146" s="29">
         <v>126400000</v>
       </c>
       <c r="D146" s="1">
@@ -8334,7 +8334,7 @@
       <c r="F146" s="13">
         <v>6200044</v>
       </c>
-      <c r="G146" s="31">
+      <c r="G146" s="29">
         <v>51200000</v>
       </c>
       <c r="H146" s="13">
@@ -8383,14 +8383,14 @@
         <v>974974</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B147" s="12">
         <v>31</v>
       </c>
-      <c r="C147" s="31">
+      <c r="C147" s="29">
         <v>143700000</v>
       </c>
       <c r="D147" s="1">
@@ -8402,7 +8402,7 @@
       <c r="F147" s="13">
         <v>7098004</v>
       </c>
-      <c r="G147" s="31">
+      <c r="G147" s="29">
         <v>58700000</v>
       </c>
       <c r="H147" s="13">
@@ -8451,14 +8451,14 @@
         <v>1351725</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B148" s="12">
         <v>30</v>
       </c>
-      <c r="C148" s="31">
+      <c r="C148" s="29">
         <v>145000000</v>
       </c>
       <c r="D148" s="1">
@@ -8470,7 +8470,7 @@
       <c r="F148" s="13">
         <v>7437206</v>
       </c>
-      <c r="G148" s="31">
+      <c r="G148" s="29">
         <v>57400000</v>
       </c>
       <c r="H148" s="13">
@@ -8519,14 +8519,14 @@
         <v>1799337</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B149" s="12">
         <v>31</v>
       </c>
-      <c r="C149" s="31">
+      <c r="C149" s="29">
         <v>150800000</v>
       </c>
       <c r="D149" s="1">
@@ -8538,7 +8538,7 @@
       <c r="F149" s="13">
         <v>7587279</v>
       </c>
-      <c r="G149" s="31">
+      <c r="G149" s="29">
         <v>60600000</v>
       </c>
       <c r="H149" s="13">
@@ -8587,14 +8587,14 @@
         <v>1960885</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B150" s="12">
         <v>30</v>
       </c>
-      <c r="C150" s="31">
+      <c r="C150" s="29">
         <v>141400000</v>
       </c>
       <c r="D150" s="1">
@@ -8606,7 +8606,7 @@
       <c r="F150" s="13">
         <v>7369572</v>
       </c>
-      <c r="G150" s="31">
+      <c r="G150" s="29">
         <v>55400000</v>
       </c>
       <c r="H150" s="13">
@@ -8655,14 +8655,14 @@
         <v>2164915</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B151" s="12">
         <v>31</v>
       </c>
-      <c r="C151" s="31">
+      <c r="C151" s="29">
         <v>139300000</v>
       </c>
       <c r="D151" s="1">
@@ -8674,7 +8674,7 @@
       <c r="F151" s="13">
         <v>7550014</v>
       </c>
-      <c r="G151" s="31">
+      <c r="G151" s="29">
         <v>55400000</v>
       </c>
       <c r="H151" s="13">
@@ -8723,14 +8723,14 @@
         <v>2225392</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B152" s="12">
         <v>31</v>
       </c>
-      <c r="C152" s="31">
+      <c r="C152" s="29">
         <v>137100000</v>
       </c>
       <c r="D152" s="1">
@@ -8742,7 +8742,7 @@
       <c r="F152" s="13">
         <v>7297197</v>
       </c>
-      <c r="G152" s="31">
+      <c r="G152" s="29">
         <v>53500000</v>
       </c>
       <c r="H152" s="13">
@@ -8791,14 +8791,14 @@
         <v>2393606</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B153" s="12">
         <v>30</v>
       </c>
-      <c r="C153" s="31">
+      <c r="C153" s="29">
         <v>143300000</v>
       </c>
       <c r="D153" s="1">
@@ -8810,7 +8810,7 @@
       <c r="F153" s="13">
         <v>7164148</v>
       </c>
-      <c r="G153" s="31">
+      <c r="G153" s="29">
         <v>58400000</v>
       </c>
       <c r="H153" s="13">
@@ -8859,14 +8859,14 @@
         <v>2494735</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B154" s="12">
         <v>31</v>
       </c>
-      <c r="C154" s="31">
+      <c r="C154" s="29">
         <v>155200000</v>
       </c>
       <c r="D154" s="1">
@@ -8878,7 +8878,7 @@
       <c r="F154" s="13">
         <v>7823079</v>
       </c>
-      <c r="G154" s="31">
+      <c r="G154" s="29">
         <v>61300000</v>
       </c>
       <c r="H154" s="13">
@@ -8927,14 +8927,14 @@
         <v>2135457</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B155" s="12">
         <v>30</v>
       </c>
-      <c r="C155" s="31">
+      <c r="C155" s="29">
         <v>140700000</v>
       </c>
       <c r="D155" s="1">
@@ -8946,7 +8946,7 @@
       <c r="F155" s="13">
         <v>6984562</v>
       </c>
-      <c r="G155" s="31">
+      <c r="G155" s="29">
         <v>54700000</v>
       </c>
       <c r="H155" s="13">
@@ -8995,14 +8995,14 @@
         <v>1509888</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B156" s="12">
         <v>31</v>
       </c>
-      <c r="C156" s="31">
+      <c r="C156" s="29">
         <v>140300000.00000018</v>
       </c>
       <c r="D156" s="1">
@@ -9014,7 +9014,7 @@
       <c r="F156" s="13">
         <v>7222953</v>
       </c>
-      <c r="G156" s="31">
+      <c r="G156" s="29">
         <v>56627000.00000003</v>
       </c>
       <c r="H156" s="13">
@@ -9063,7 +9063,7 @@
         <v>975203</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>201</v>
       </c>
@@ -9083,7 +9083,7 @@
       <c r="G157" s="10">
         <v>677588084</v>
       </c>
-      <c r="H157" s="32">
+      <c r="H157" s="30">
         <v>557036504</v>
       </c>
       <c r="I157" s="14">
@@ -9130,14 +9130,14 @@
       </c>
       <c r="W157" s="6"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B158" s="12">
         <v>31</v>
       </c>
-      <c r="C158" s="31">
+      <c r="C158" s="29">
         <v>138400000</v>
       </c>
       <c r="D158" s="1">
@@ -9149,7 +9149,7 @@
       <c r="F158" s="13">
         <v>6957330</v>
       </c>
-      <c r="G158" s="31">
+      <c r="G158" s="29">
         <v>54600000</v>
       </c>
       <c r="H158" s="13">
@@ -9198,14 +9198,14 @@
         <v>1266838</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B159" s="12">
         <v>29</v>
       </c>
-      <c r="C159" s="31">
+      <c r="C159" s="29">
         <v>130800000.00000001</v>
       </c>
       <c r="D159" s="1">
@@ -9217,7 +9217,7 @@
       <c r="F159" s="13">
         <v>6319585</v>
       </c>
-      <c r="G159" s="31">
+      <c r="G159" s="29">
         <v>52400000</v>
       </c>
       <c r="H159" s="13">
@@ -9266,14 +9266,14 @@
         <v>1169973</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B160" s="12">
         <v>31</v>
       </c>
-      <c r="C160" s="31">
+      <c r="C160" s="29">
         <v>73825807</v>
       </c>
       <c r="D160" s="1">
@@ -9285,7 +9285,7 @@
       <c r="F160" s="13">
         <v>2820988</v>
       </c>
-      <c r="G160" s="31">
+      <c r="G160" s="29">
         <v>36894400</v>
       </c>
       <c r="J160" s="1">
@@ -9328,14 +9328,14 @@
         <v>1086410</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B161" s="12">
         <v>30</v>
       </c>
-      <c r="C161" s="31">
+      <c r="C161" s="29">
         <v>11750151</v>
       </c>
       <c r="D161" s="1">
@@ -9347,7 +9347,7 @@
       <c r="F161" s="13">
         <v>359900</v>
       </c>
-      <c r="G161" s="31">
+      <c r="G161" s="29">
         <v>13033900</v>
       </c>
       <c r="J161" s="1">
@@ -9390,14 +9390,14 @@
         <v>692152</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B162" s="12">
         <v>31</v>
       </c>
-      <c r="C162" s="31">
+      <c r="C162" s="29">
         <v>15299308</v>
       </c>
       <c r="D162" s="1">
@@ -9409,7 +9409,7 @@
       <c r="F162" s="13">
         <v>524600</v>
       </c>
-      <c r="G162" s="31">
+      <c r="G162" s="29">
         <v>17800800</v>
       </c>
       <c r="J162" s="1">
@@ -9452,14 +9452,14 @@
         <v>1509625</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B163" s="12">
         <v>30</v>
       </c>
-      <c r="C163" s="31">
+      <c r="C163" s="29">
         <v>23969478</v>
       </c>
       <c r="D163" s="1">
@@ -9471,7 +9471,7 @@
       <c r="F163" s="13">
         <v>955400</v>
       </c>
-      <c r="G163" s="31">
+      <c r="G163" s="29">
         <v>25988900</v>
       </c>
       <c r="J163" s="1">
@@ -9514,14 +9514,14 @@
         <v>1914570</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B164" s="12">
         <v>31</v>
       </c>
-      <c r="C164" s="31">
+      <c r="C164" s="29">
         <v>32571261</v>
       </c>
       <c r="D164" s="1">
@@ -9533,7 +9533,7 @@
       <c r="F164" s="13">
         <v>1351300</v>
       </c>
-      <c r="G164" s="31">
+      <c r="G164" s="29">
         <v>32848300</v>
       </c>
       <c r="J164" s="1">
@@ -9576,14 +9576,14 @@
         <v>2137699</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B165" s="12">
         <v>31</v>
       </c>
-      <c r="C165" s="31">
+      <c r="C165" s="29">
         <v>35265638</v>
       </c>
       <c r="D165" s="1">
@@ -9595,7 +9595,7 @@
       <c r="F165" s="13">
         <v>1389000</v>
       </c>
-      <c r="G165" s="31">
+      <c r="G165" s="29">
         <v>34796800</v>
       </c>
       <c r="J165" s="1">
@@ -9638,14 +9638,14 @@
         <v>2364421</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B166" s="12">
         <v>30</v>
       </c>
-      <c r="C166" s="31">
+      <c r="C166" s="29">
         <v>42867559</v>
       </c>
       <c r="D166" s="1">
@@ -9657,7 +9657,7 @@
       <c r="F166" s="13">
         <v>1752700</v>
       </c>
-      <c r="G166" s="31">
+      <c r="G166" s="29">
         <v>27952400</v>
       </c>
       <c r="J166" s="1">
@@ -9700,14 +9700,14 @@
         <v>2519711</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B167" s="12">
         <v>31</v>
       </c>
-      <c r="C167" s="31">
+      <c r="C167" s="29">
         <v>48033239</v>
       </c>
       <c r="D167" s="1">
@@ -9719,7 +9719,7 @@
       <c r="F167" s="13">
         <v>1968800</v>
       </c>
-      <c r="G167" s="31">
+      <c r="G167" s="29">
         <v>30054115</v>
       </c>
       <c r="J167" s="1">
@@ -9762,14 +9762,14 @@
         <v>2270701</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B168" s="12">
         <v>30</v>
       </c>
-      <c r="C168" s="31">
+      <c r="C168" s="29">
         <v>43696314</v>
       </c>
       <c r="D168" s="1">
@@ -9781,7 +9781,7 @@
       <c r="F168" s="13">
         <v>1525300</v>
       </c>
-      <c r="G168" s="31">
+      <c r="G168" s="29">
         <v>26914713</v>
       </c>
       <c r="J168" s="1">
@@ -9825,14 +9825,14 @@
       </c>
       <c r="Y168" s="11"/>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B169" s="12">
         <v>31</v>
       </c>
-      <c r="C169" s="31">
+      <c r="C169" s="29">
         <v>43539931</v>
       </c>
       <c r="D169" s="1">
@@ -9844,7 +9844,7 @@
       <c r="F169" s="13">
         <v>1429000</v>
       </c>
-      <c r="G169" s="31">
+      <c r="G169" s="29">
         <v>26070976</v>
       </c>
       <c r="J169" s="1">
@@ -9887,7 +9887,7 @@
         <v>1098071</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>202</v>
       </c>
@@ -9907,8 +9907,8 @@
       <c r="G170" s="10">
         <v>382424445</v>
       </c>
-      <c r="H170" s="29"/>
-      <c r="I170" s="29"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
       <c r="J170" s="5">
         <v>42155601.600000001</v>
       </c>
@@ -9950,14 +9950,14 @@
       </c>
       <c r="Y170" s="11"/>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B171" s="12">
         <v>31</v>
       </c>
-      <c r="C171" s="31">
+      <c r="C171" s="29">
         <v>41172760</v>
       </c>
       <c r="D171" s="1">
@@ -9969,7 +9969,7 @@
       <c r="F171" s="13">
         <v>1378300</v>
       </c>
-      <c r="G171" s="31">
+      <c r="G171" s="29">
         <v>25035873</v>
       </c>
       <c r="J171" s="1">
@@ -10012,14 +10012,14 @@
         <v>1105978</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B172" s="12">
         <v>28</v>
       </c>
-      <c r="C172" s="31">
+      <c r="C172" s="29">
         <v>39210245</v>
       </c>
       <c r="D172" s="1">
@@ -10031,7 +10031,7 @@
       <c r="F172" s="13">
         <v>1205100</v>
       </c>
-      <c r="G172" s="31">
+      <c r="G172" s="29">
         <v>22875301</v>
       </c>
       <c r="J172" s="1">
@@ -10075,14 +10075,14 @@
       </c>
       <c r="Y172" s="11"/>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B173" s="12">
         <v>31</v>
       </c>
-      <c r="C173" s="31">
+      <c r="C173" s="29">
         <v>50830142</v>
       </c>
       <c r="D173" s="1">
@@ -10094,7 +10094,7 @@
       <c r="F173" s="13">
         <v>1690600</v>
       </c>
-      <c r="G173" s="31">
+      <c r="G173" s="29">
         <v>29700545</v>
       </c>
       <c r="J173" s="1">
@@ -10137,14 +10137,14 @@
         <v>1513563</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B174" s="12">
         <v>30</v>
       </c>
-      <c r="C174" s="31">
+      <c r="C174" s="29">
         <v>53349073</v>
       </c>
       <c r="D174" s="1">
@@ -10156,7 +10156,7 @@
       <c r="F174" s="13">
         <v>1963000</v>
       </c>
-      <c r="G174" s="31">
+      <c r="G174" s="29">
         <v>30573447</v>
       </c>
       <c r="J174" s="1">
@@ -10200,14 +10200,14 @@
       </c>
       <c r="Y174" s="11"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B175" s="12">
         <v>31</v>
       </c>
-      <c r="C175" s="31">
+      <c r="C175" s="29">
         <v>58527136</v>
       </c>
       <c r="D175" s="1">
@@ -10219,7 +10219,7 @@
       <c r="F175" s="13">
         <v>2361900</v>
       </c>
-      <c r="G175" s="31">
+      <c r="G175" s="29">
         <v>31797784</v>
       </c>
       <c r="J175" s="1">
@@ -10263,14 +10263,14 @@
       </c>
       <c r="X175" s="11"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="12">
         <v>30</v>
       </c>
-      <c r="C176" s="31">
+      <c r="C176" s="29">
         <v>65548953</v>
       </c>
       <c r="D176" s="1">
@@ -10282,7 +10282,7 @@
       <c r="F176" s="13">
         <v>2577000</v>
       </c>
-      <c r="G176" s="31">
+      <c r="G176" s="29">
         <v>32745118</v>
       </c>
       <c r="J176" s="1">
@@ -10326,14 +10326,14 @@
       </c>
       <c r="Y176" s="11"/>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B177" s="12">
         <v>31</v>
       </c>
-      <c r="C177" s="31">
+      <c r="C177" s="29">
         <v>67050688</v>
       </c>
       <c r="D177" s="1">
@@ -10345,7 +10345,7 @@
       <c r="F177" s="13">
         <v>2710300</v>
       </c>
-      <c r="G177" s="31">
+      <c r="G177" s="29">
         <v>32814466</v>
       </c>
       <c r="J177" s="1">
@@ -10388,14 +10388,14 @@
         <v>3027926</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B178" s="12">
         <v>31</v>
       </c>
-      <c r="C178" s="31">
+      <c r="C178" s="29">
         <v>66518837</v>
       </c>
       <c r="D178" s="1">
@@ -10407,7 +10407,7 @@
       <c r="F178" s="13">
         <v>2595300</v>
       </c>
-      <c r="G178" s="31">
+      <c r="G178" s="29">
         <v>32707261</v>
       </c>
       <c r="J178" s="1">
@@ -10450,14 +10450,14 @@
         <v>3083554</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B179" s="12">
         <v>30</v>
       </c>
-      <c r="C179" s="31">
+      <c r="C179" s="29">
         <v>73925553</v>
       </c>
       <c r="D179" s="1">
@@ -10469,7 +10469,7 @@
       <c r="F179" s="13">
         <v>2869100</v>
       </c>
-      <c r="G179" s="31">
+      <c r="G179" s="29">
         <v>35736273</v>
       </c>
       <c r="J179" s="1">
@@ -10512,14 +10512,14 @@
         <v>3204517</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B180" s="12">
         <v>31</v>
       </c>
-      <c r="C180" s="31">
+      <c r="C180" s="29">
         <v>83606247</v>
       </c>
       <c r="D180" s="1">
@@ -10531,7 +10531,7 @@
       <c r="F180" s="13">
         <v>3326700</v>
       </c>
-      <c r="G180" s="31">
+      <c r="G180" s="29">
         <v>38137454</v>
       </c>
       <c r="J180" s="1">
@@ -10574,14 +10574,14 @@
         <v>2989007</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B181" s="12">
         <v>30</v>
       </c>
-      <c r="C181" s="31">
+      <c r="C181" s="29">
         <v>82509146</v>
       </c>
       <c r="D181" s="1">
@@ -10593,7 +10593,7 @@
       <c r="F181" s="13">
         <v>3373000</v>
       </c>
-      <c r="G181" s="31">
+      <c r="G181" s="29">
         <v>35751726</v>
       </c>
       <c r="J181" s="1">
@@ -10636,14 +10636,14 @@
         <v>2105560</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B182" s="12">
         <v>31</v>
       </c>
-      <c r="C182" s="31">
+      <c r="C182" s="29">
         <v>78893289</v>
       </c>
       <c r="D182" s="1">
@@ -10655,7 +10655,7 @@
       <c r="F182" s="13">
         <v>3077500</v>
       </c>
-      <c r="G182" s="31">
+      <c r="G182" s="29">
         <v>33762618</v>
       </c>
       <c r="J182" s="1">
@@ -10686,10 +10686,10 @@
         <v>322831</v>
       </c>
       <c r="V182" s="1">
-        <v>1748287</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1698399</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>203</v>
       </c>
@@ -10748,10 +10748,10 @@
         <v>3725882</v>
       </c>
       <c r="V183" s="5">
-        <v>27342997</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27293109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="I190" s="16"/>
     </row>
   </sheetData>
@@ -10766,17 +10766,17 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -10804,7 +10804,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -10825,7 +10825,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -10846,7 +10846,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -10870,7 +10870,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -10918,7 +10918,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>6036059</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>8791987</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>10068280</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>13827132</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>16347284</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>17742410</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>20984725</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>19783517</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -11206,7 +11206,7 @@
       </c>
       <c r="H15" s="1">
         <f>master!V183</f>
-        <v>27342997</v>
+        <v>27293109</v>
       </c>
     </row>
   </sheetData>
@@ -11220,35 +11220,35 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
@@ -11274,52 +11274,52 @@
       </c>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
       <c r="B2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>252</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>252</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="25" t="s">
         <v>252</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>252</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="25" t="s">
         <v>252</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="25" t="s">
         <v>252</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -11327,7 +11327,7 @@
         <f>master!C160</f>
         <v>73825807</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="31">
         <f>master!C160/master!C147</f>
         <v>0.51374952679192765</v>
       </c>
@@ -11335,7 +11335,7 @@
         <f>master!D160</f>
         <v>6095057</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <f>master!D160/master!D147</f>
         <v>0.41709492345685151</v>
       </c>
@@ -11343,7 +11343,7 @@
         <f>master!G160</f>
         <v>36894400</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="31">
         <f>master!G160/master!G147</f>
         <v>0.62852470187393528</v>
       </c>
@@ -11351,7 +11351,7 @@
         <f>master!J160</f>
         <v>5168220.8000000007</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="31">
         <f>master!J160/master!J147</f>
         <v>0.38314849679355184</v>
       </c>
@@ -11359,7 +11359,7 @@
         <f>master!M160</f>
         <v>23408620.800000001</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="31">
         <f>master!M160/master!M147</f>
         <v>0.58113158293304301</v>
       </c>
@@ -11367,7 +11367,7 @@
         <f>master!R160</f>
         <v>1476269</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="31">
         <f>master!R160/master!R147</f>
         <v>0.46393077000674715</v>
       </c>
@@ -11375,12 +11375,12 @@
         <f>master!V160</f>
         <v>1086410</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="31">
         <f>master!V160/master!V147</f>
         <v>0.8037211710961919</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -11388,7 +11388,7 @@
         <f>master!C161</f>
         <v>11750151</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="31">
         <f>master!C161/master!C148</f>
         <v>8.1035524137931039E-2</v>
       </c>
@@ -11396,7 +11396,7 @@
         <f>master!D161</f>
         <v>577100</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <f>master!D161/master!D148</f>
         <v>3.8064159855593901E-2</v>
       </c>
@@ -11404,7 +11404,7 @@
         <f>master!G161</f>
         <v>13033900</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="31">
         <f>master!G161/master!G148</f>
         <v>0.22707142857142856</v>
       </c>
@@ -11412,7 +11412,7 @@
         <f>master!J161</f>
         <v>437472.00000000006</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="31">
         <f>master!J161/master!J148</f>
         <v>3.4415569703423438E-2</v>
       </c>
@@ -11420,7 +11420,7 @@
         <f>master!M161</f>
         <v>7667136</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <f>master!M161/master!M148</f>
         <v>0.2028399523542245</v>
       </c>
@@ -11428,7 +11428,7 @@
         <f>master!R161</f>
         <v>231671</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="31">
         <f>master!R161/master!R148</f>
         <v>6.3306009331222324E-2</v>
       </c>
@@ -11436,12 +11436,12 @@
         <f>master!V161</f>
         <v>692152</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="31">
         <f>master!V161/master!V148</f>
         <v>0.38467057588433962</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -11449,7 +11449,7 @@
         <f>master!C162</f>
         <v>15299308</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="31">
         <f>master!C162/master!C149</f>
         <v>0.10145429708222811</v>
       </c>
@@ -11457,7 +11457,7 @@
         <f>master!D162</f>
         <v>1026800</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <f>master!D162/master!D149</f>
         <v>6.5980284671976766E-2</v>
       </c>
@@ -11465,7 +11465,7 @@
         <f>master!G162</f>
         <v>17800800</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="31">
         <f>master!G162/master!G149</f>
         <v>0.29374257425742573</v>
       </c>
@@ -11473,7 +11473,7 @@
         <f>master!J162</f>
         <v>649115.20000000007</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="31">
         <f>master!J162/master!J149</f>
         <v>5.0283365031794522E-2</v>
       </c>
@@ -11481,7 +11481,7 @@
         <f>master!M162</f>
         <v>10905056</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="31">
         <f>master!M162/master!M149</f>
         <v>0.28047409894538372</v>
       </c>
@@ -11489,7 +11489,7 @@
         <f>master!R162</f>
         <v>406182</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="31">
         <f>master!R162/master!R149</f>
         <v>0.10462446729181397</v>
       </c>
@@ -11497,12 +11497,12 @@
         <f>master!V162</f>
         <v>1509625</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="31">
         <f>master!V162/master!V149</f>
         <v>0.76986921721569601</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -11510,7 +11510,7 @@
         <f>master!C163</f>
         <v>23969478</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="31">
         <f>master!C163/master!C150</f>
         <v>0.16951540311173974</v>
       </c>
@@ -11518,7 +11518,7 @@
         <f>master!D163</f>
         <v>2152400</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <f>master!D163/master!D150</f>
         <v>0.14248721213018714</v>
       </c>
@@ -11526,7 +11526,7 @@
         <f>master!G163</f>
         <v>25988900</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="31">
         <f>master!G163/master!G150</f>
         <v>0.46911371841155236</v>
       </c>
@@ -11534,7 +11534,7 @@
         <f>master!J163</f>
         <v>980544.00000000012</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <f>master!J163/master!J150</f>
         <v>8.269608339236921E-2</v>
       </c>
@@ -11542,7 +11542,7 @@
         <f>master!M163</f>
         <v>13634736</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="31">
         <f>master!M163/master!M150</f>
         <v>0.37352182757536989</v>
       </c>
@@ -11550,7 +11550,7 @@
         <f>master!R163</f>
         <v>688100</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="31">
         <f>master!R163/master!R150</f>
         <v>0.16763938602227135</v>
       </c>
@@ -11558,12 +11558,12 @@
         <f>master!V163</f>
         <v>1914570</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="31">
         <f>master!V163/master!V150</f>
         <v>0.88436266550880749</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -11571,7 +11571,7 @@
         <f>master!C164</f>
         <v>32571261</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="31">
         <f>master!C164/master!C151</f>
         <v>0.23382096913137115</v>
       </c>
@@ -11579,7 +11579,7 @@
         <f>master!D164</f>
         <v>3139700</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <f>master!D164/master!D151</f>
         <v>0.20202820956496789</v>
       </c>
@@ -11587,7 +11587,7 @@
         <f>master!G164</f>
         <v>32848300</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <f>master!G164/master!G151</f>
         <v>0.5929296028880866</v>
       </c>
@@ -11595,7 +11595,7 @@
         <f>master!J164</f>
         <v>1396041.6</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <f>master!J164/master!J151</f>
         <v>0.13005748294918951</v>
       </c>
@@ -11603,7 +11603,7 @@
         <f>master!M164</f>
         <v>17520555.200000003</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="31">
         <f>master!M164/master!M151</f>
         <v>0.4963089832070679</v>
       </c>
@@ -11611,7 +11611,7 @@
         <f>master!R164</f>
         <v>1057981</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="31">
         <f>master!R164/master!R151</f>
         <v>0.26998299178680657</v>
       </c>
@@ -11619,12 +11619,12 @@
         <f>master!V164</f>
         <v>2137699</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="31">
         <f>master!V164/master!V151</f>
         <v>0.96059435820745287</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -11632,7 +11632,7 @@
         <f>master!C165</f>
         <v>35265638</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="31">
         <f>master!C165/master!C152</f>
         <v>0.25722566010211523</v>
       </c>
@@ -11640,7 +11640,7 @@
         <f>master!D165</f>
         <v>3267000</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="31">
         <f>master!D165/master!D152</f>
         <v>0.21467720519060174</v>
       </c>
@@ -11648,7 +11648,7 @@
         <f>master!G165</f>
         <v>34796800</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="31">
         <f>master!G165/master!G152</f>
         <v>0.65040747663551401</v>
       </c>
@@ -11656,7 +11656,7 @@
         <f>master!J165</f>
         <v>1741208</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <f>master!J165/master!J152</f>
         <v>0.16904711456968949</v>
       </c>
@@ -11664,7 +11664,7 @@
         <f>master!M165</f>
         <v>19507134.400000002</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="31">
         <f>master!M165/master!M152</f>
         <v>0.55971292029453723</v>
       </c>
@@ -11672,7 +11672,7 @@
         <f>master!R165</f>
         <v>1264094</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="31">
         <f>master!R165/master!R152</f>
         <v>0.32380833816191978</v>
       </c>
@@ -11680,12 +11680,12 @@
         <f>master!V165</f>
         <v>2364421</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="31">
         <f>master!V165/master!V152</f>
         <v>0.98780709941402223</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -11693,7 +11693,7 @@
         <f>master!C166</f>
         <v>42867559</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="31">
         <f>master!C166/master!C153</f>
         <v>0.29914556175854851</v>
       </c>
@@ -11701,7 +11701,7 @@
         <f>master!D166</f>
         <v>4010600</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <f>master!D166/master!D153</f>
         <v>0.2727521697725499</v>
       </c>
@@ -11709,7 +11709,7 @@
         <f>master!G166</f>
         <v>27952400</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="31">
         <f>master!G166/master!G153</f>
         <v>0.47863698630136986</v>
       </c>
@@ -11717,7 +11717,7 @@
         <f>master!J166</f>
         <v>2283744</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <f>master!J166/master!J153</f>
         <v>0.20620460100896279</v>
       </c>
@@ -11725,7 +11725,7 @@
         <f>master!M166</f>
         <v>21172560</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="31">
         <f>master!M166/master!M153</f>
         <v>0.62749664269130956</v>
       </c>
@@ -11733,7 +11733,7 @@
         <f>master!R166</f>
         <v>1293246</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="31">
         <f>master!R166/master!R153</f>
         <v>0.3693135672502596</v>
       </c>
@@ -11741,12 +11741,12 @@
         <f>master!V166</f>
         <v>2519711</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="31">
         <f>master!V166/master!V153</f>
         <v>1.0100114841856951</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -11754,7 +11754,7 @@
         <f>master!C167</f>
         <v>48033239</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="31">
         <f>master!C167/master!C154</f>
         <v>0.30949251932989691</v>
       </c>
@@ -11762,7 +11762,7 @@
         <f>master!D167</f>
         <v>4213000</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="31">
         <f>master!D167/master!D154</f>
         <v>0.26835926432489393</v>
       </c>
@@ -11770,7 +11770,7 @@
         <f>master!G167</f>
         <v>30054115</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <f>master!G167/master!G154</f>
         <v>0.49027920065252856</v>
       </c>
@@ -11778,7 +11778,7 @@
         <f>master!J167</f>
         <v>2841484.8000000003</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <f>master!J167/master!J154</f>
         <v>0.23513283889000619</v>
       </c>
@@ -11786,7 +11786,7 @@
         <f>master!M167</f>
         <v>22989352</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="31">
         <f>master!M167/master!M154</f>
         <v>0.62563441498839156</v>
       </c>
@@ -11794,7 +11794,7 @@
         <f>master!R167</f>
         <v>1242240</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="31">
         <f>master!R167/master!R154</f>
         <v>0.36000559900516227</v>
       </c>
@@ -11802,12 +11802,12 @@
         <f>master!V167</f>
         <v>2270701</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="31">
         <f>master!V167/master!V154</f>
         <v>1.0633325793963539</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -11815,7 +11815,7 @@
         <f>master!C168</f>
         <v>43696314</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="31">
         <f>master!C168/master!C155</f>
         <v>0.31056371002132194</v>
       </c>
@@ -11823,7 +11823,7 @@
         <f>master!D168</f>
         <v>3652500</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="31">
         <f>master!D168/master!D155</f>
         <v>0.25721026750994547</v>
       </c>
@@ -11831,7 +11831,7 @@
         <f>master!G168</f>
         <v>26914713</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="31">
         <f>master!G168/master!G155</f>
         <v>0.49204228519195614</v>
       </c>
@@ -11839,7 +11839,7 @@
         <f>master!J168</f>
         <v>2555424</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <f>master!J168/master!J155</f>
         <v>0.22208224526743478</v>
       </c>
@@ -11847,7 +11847,7 @@
         <f>master!M168</f>
         <v>20307744</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="31">
         <f>master!M168/master!M155</f>
         <v>0.54542290199152232</v>
       </c>
@@ -11855,7 +11855,7 @@
         <f>master!R168</f>
         <v>920790</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="31">
         <f>master!R168/master!R155</f>
         <v>0.33225251465347649</v>
       </c>
@@ -11863,12 +11863,12 @@
         <f>master!V168</f>
         <v>1753346</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="31">
         <f>master!V168/master!V155</f>
         <v>1.1612424232790777</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -11876,7 +11876,7 @@
         <f>master!C169</f>
         <v>43539931</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="31">
         <f>master!C169/master!C156</f>
         <v>0.31033450463292905</v>
       </c>
@@ -11884,7 +11884,7 @@
         <f>master!D169</f>
         <v>3408700</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="31">
         <f>master!D169/master!D156</f>
         <v>0.22921320903401429</v>
       </c>
@@ -11892,7 +11892,7 @@
         <f>master!G169</f>
         <v>26070976</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="31">
         <f>master!G169/master!G156</f>
         <v>0.46039832588694413</v>
       </c>
@@ -11900,7 +11900,7 @@
         <f>master!J169</f>
         <v>2471369.6</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <f>master!J169/master!J156</f>
         <v>0.21441235196915451</v>
       </c>
@@ -11908,7 +11908,7 @@
         <f>master!M169</f>
         <v>20392692.800000001</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="31">
         <f>master!M169/master!M156</f>
         <v>0.52917494153427946</v>
       </c>
@@ -11916,7 +11916,7 @@
         <f>master!R169</f>
         <v>809523</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="31">
         <f>master!R169/master!R156</f>
         <v>0.27862780650597235</v>
       </c>
@@ -11924,12 +11924,12 @@
         <f>master!V169</f>
         <v>1098071</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="31">
         <f>master!V169/master!V156</f>
         <v>1.1259922293102052</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -11937,7 +11937,7 @@
         <f>master!C171</f>
         <v>41172760</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <f>master!C171/master!C145</f>
         <v>0.3061171747211896</v>
       </c>
@@ -11945,7 +11945,7 @@
         <f>master!D171</f>
         <v>3064700</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <f>master!D171/master!D145</f>
         <v>0.21848569954883454</v>
       </c>
@@ -11953,7 +11953,7 @@
         <f>master!G171</f>
         <v>25035873</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="31">
         <f>master!G171/master!G145</f>
         <v>0.46191647601476016</v>
       </c>
@@ -11961,7 +11961,7 @@
         <f>master!J171</f>
         <v>2307342.4000000004</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <f>master!J171/master!J145</f>
         <v>0.17381053795742074</v>
       </c>
@@ -11969,7 +11969,7 @@
         <f>master!M171</f>
         <v>20769305.600000001</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="31">
         <f>master!M171/master!M145</f>
         <v>0.56337527900621986</v>
       </c>
@@ -11977,7 +11977,7 @@
         <f>master!R171</f>
         <v>771066</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="31">
         <f>master!R171/master!R145</f>
         <v>0.27096876218991495</v>
       </c>
@@ -11985,12 +11985,12 @@
         <f>master!V171</f>
         <v>1105978</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="31">
         <f>master!V171/master!V145</f>
         <v>1.1075196673769887</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -11998,7 +11998,7 @@
         <f>master!C172</f>
         <v>39210245</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="31">
         <f>master!C172/master!C146</f>
         <v>0.31020763449367089</v>
       </c>
@@ -12006,7 +12006,7 @@
         <f>master!D172</f>
         <v>2712000</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="31">
         <f>master!D172/master!D146</f>
         <v>0.21279943900041701</v>
       </c>
@@ -12014,7 +12014,7 @@
         <f>master!G172</f>
         <v>22875301</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="31">
         <f>master!G172/master!G146</f>
         <v>0.44678322265624998</v>
       </c>
@@ -12022,7 +12022,7 @@
         <f>master!J172</f>
         <v>2276019.2000000002</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <f>master!J172/master!J146</f>
         <v>0.18737529275084369</v>
       </c>
@@ -12030,7 +12030,7 @@
         <f>master!M172</f>
         <v>20176620.800000004</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="31">
         <f>master!M172/master!M146</f>
         <v>0.57691795298789483</v>
       </c>
@@ -12038,7 +12038,7 @@
         <f>master!R172</f>
         <v>657070</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="31">
         <f>master!R172/master!R146</f>
         <v>0.24927615185939439</v>
       </c>
@@ -12046,12 +12046,12 @@
         <f>master!V172</f>
         <v>639789</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="31">
         <f>master!V172/master!V146</f>
         <v>0.65621134512304946</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -12059,7 +12059,7 @@
         <f>master!C173</f>
         <v>50830142</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="31">
         <f>master!C173/master!C147</f>
         <v>0.35372402226861516</v>
       </c>
@@ -12067,7 +12067,7 @@
         <f>master!D173</f>
         <v>3836500</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <f>master!D173/master!D147</f>
         <v>0.26253809830526781</v>
       </c>
@@ -12075,7 +12075,7 @@
         <f>master!G173</f>
         <v>29700545</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="31">
         <f>master!G173/master!G147</f>
         <v>0.5059718057921635</v>
       </c>
@@ -12083,7 +12083,7 @@
         <f>master!J173</f>
         <v>3191561.6</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <f>master!J173/master!J147</f>
         <v>0.23660793081131964</v>
       </c>
@@ -12091,7 +12091,7 @@
         <f>master!M173</f>
         <v>24852576</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="31">
         <f>master!M173/master!M147</f>
         <v>0.61697854624753257</v>
       </c>
@@ -12099,7 +12099,7 @@
         <f>master!R173</f>
         <v>1001010</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="31">
         <f>master!R173/master!R147</f>
         <v>0.31457636791428523</v>
       </c>
@@ -12107,12 +12107,12 @@
         <f>master!V173</f>
         <v>1513563</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="31">
         <f>master!V173/master!V147</f>
         <v>1.1197270154802197</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -12120,7 +12120,7 @@
         <f>master!C174</f>
         <v>53349073</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="31">
         <f>master!C174/master!C148</f>
         <v>0.36792464137931036</v>
       </c>
@@ -12128,7 +12128,7 @@
         <f>master!D174</f>
         <v>4211400</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <f>master!D174/master!D148</f>
         <v>0.27777404750623491</v>
       </c>
@@ -12136,7 +12136,7 @@
         <f>master!G174</f>
         <v>30573447</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="31">
         <f>master!G174/master!G148</f>
         <v>0.53263844947735195</v>
       </c>
@@ -12144,7 +12144,7 @@
         <f>master!J174</f>
         <v>3594144</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <f>master!J174/master!J148</f>
         <v>0.28274841214098528</v>
       </c>
@@ -12152,7 +12152,7 @@
         <f>master!M174</f>
         <v>24500304</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="31">
         <f>master!M174/master!M148</f>
         <v>0.64817429820261641</v>
       </c>
@@ -12160,7 +12160,7 @@
         <f>master!R174</f>
         <v>1063013</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="31">
         <f>master!R174/master!R148</f>
         <v>0.29047705969763432</v>
       </c>
@@ -12168,12 +12168,12 @@
         <f>master!V174</f>
         <v>2043841</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="31">
         <f>master!V174/master!V148</f>
         <v>1.1358856067540433</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -12181,7 +12181,7 @@
         <f>master!C175</f>
         <v>58527136</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="31">
         <f>master!C175/master!C149</f>
         <v>0.38811098143236072</v>
       </c>
@@ -12189,7 +12189,7 @@
         <f>master!D175</f>
         <v>5056700</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <f>master!D175/master!D149</f>
         <v>0.32493426714139551</v>
       </c>
@@ -12197,7 +12197,7 @@
         <f>master!G175</f>
         <v>31797784</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="31">
         <f>master!G175/master!G149</f>
         <v>0.52471590759075903</v>
       </c>
@@ -12205,7 +12205,7 @@
         <f>master!J175</f>
         <v>4133763.2</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <f>master!J175/master!J149</f>
         <v>0.32021977599754098</v>
       </c>
@@ -12213,7 +12213,7 @@
         <f>master!M175</f>
         <v>25606248</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="31">
         <f>master!M175/master!M149</f>
         <v>0.65858344378717859</v>
       </c>
@@ -12221,7 +12221,7 @@
         <f>master!R175</f>
         <v>1452332</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="31">
         <f>master!R175/master!R149</f>
         <v>0.37409206176259602</v>
       </c>
@@ -12229,12 +12229,12 @@
         <f>master!V175</f>
         <v>2709149</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="31">
         <f>master!V175/master!V149</f>
         <v>1.3815950450944343</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -12242,7 +12242,7 @@
         <f>master!C176</f>
         <v>65548953</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="31">
         <f>master!C176/master!C150</f>
         <v>0.46357109618104669</v>
       </c>
@@ -12250,7 +12250,7 @@
         <f>master!D176</f>
         <v>5706600</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <f>master!D176/master!D150</f>
         <v>0.37777249802180163</v>
       </c>
@@ -12258,7 +12258,7 @@
         <f>master!G176</f>
         <v>32745118</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="31">
         <f>master!G176/master!G150</f>
         <v>0.59106711191335737</v>
       </c>
@@ -12266,7 +12266,7 @@
         <f>master!J176</f>
         <v>4657008</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <f>master!J176/master!J150</f>
         <v>0.39275781803461191</v>
       </c>
@@ -12274,7 +12274,7 @@
         <f>master!M176</f>
         <v>26063280</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="31">
         <f>master!M176/master!M150</f>
         <v>0.71400018146362243</v>
       </c>
@@ -12282,7 +12282,7 @@
         <f>master!R176</f>
         <v>1844031</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="31">
         <f>master!R176/master!R150</f>
         <v>0.44925479530015272</v>
       </c>
@@ -12290,12 +12290,12 @@
         <f>master!V176</f>
         <v>3171826</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="31">
         <f>master!V176/master!V150</f>
         <v>1.4651041726811445</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -12303,7 +12303,7 @@
         <f>master!C177</f>
         <v>67050688</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="31">
         <f>master!C177/master!C151</f>
         <v>0.48134018664752332</v>
       </c>
@@ -12311,7 +12311,7 @@
         <f>master!D177</f>
         <v>6025000</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="31">
         <f>master!D177/master!D151</f>
         <v>0.38768670975855385</v>
       </c>
@@ -12319,7 +12319,7 @@
         <f>master!G177</f>
         <v>32814466</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="31">
         <f>master!G177/master!G151</f>
         <v>0.59231888086642603</v>
       </c>
@@ -12327,7 +12327,7 @@
         <f>master!J177</f>
         <v>4647966.3999999994</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <f>master!J177/master!J151</f>
         <v>0.43301203260447657</v>
       </c>
@@ -12335,7 +12335,7 @@
         <f>master!M177</f>
         <v>25823347.200000003</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="31">
         <f>master!M177/master!M151</f>
         <v>0.73150417013241009</v>
       </c>
@@ -12343,7 +12343,7 @@
         <f>master!R177</f>
         <v>1973516</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="31">
         <f>master!R177/master!R151</f>
         <v>0.50361561693369861</v>
       </c>
@@ -12351,12 +12351,12 @@
         <f>master!V177</f>
         <v>3027926</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="31">
         <f>master!V177/master!V151</f>
         <v>1.360625903211659</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -12364,7 +12364,7 @@
         <f>master!C178</f>
         <v>66518837</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="31">
         <f>master!C178/master!C152</f>
         <v>0.48518480671043035</v>
       </c>
@@ -12372,7 +12372,7 @@
         <f>master!D178</f>
         <v>5877400</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="31">
         <f>master!D178/master!D152</f>
         <v>0.38620869476193531</v>
       </c>
@@ -12380,7 +12380,7 @@
         <f>master!G178</f>
         <v>32707261</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="31">
         <f>master!G178/master!G152</f>
         <v>0.61135067289719625</v>
       </c>
@@ -12388,7 +12388,7 @@
         <f>master!J178</f>
         <v>4592662.3999999994</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <f>master!J178/master!J152</f>
         <v>0.44588373526465824</v>
       </c>
@@ -12396,7 +12396,7 @@
         <f>master!M178</f>
         <v>24924992</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="31">
         <f>master!M178/master!M152</f>
         <v>0.71516604000216333</v>
       </c>
@@ -12404,7 +12404,7 @@
         <f>master!R178</f>
         <v>1942315</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="31">
         <f>master!R178/master!R152</f>
         <v>0.49754036672665897</v>
       </c>
@@ -12412,12 +12412,12 @@
         <f>master!V178</f>
         <v>3083554</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="31">
         <f>master!V178/master!V152</f>
         <v>1.2882462694361561</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -12425,7 +12425,7 @@
         <f>master!C179</f>
         <v>73925553</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="31">
         <f>master!C179/master!C153</f>
         <v>0.5158796441032798</v>
       </c>
@@ -12433,7 +12433,7 @@
         <f>master!D179</f>
         <v>6490800</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="31">
         <f>master!D179/master!D153</f>
         <v>0.44142516919155905</v>
       </c>
@@ -12441,7 +12441,7 @@
         <f>master!G179</f>
         <v>35736273</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="31">
         <f>master!G179/master!G153</f>
         <v>0.61192248287671236</v>
       </c>
@@ -12449,7 +12449,7 @@
         <f>master!J179</f>
         <v>4891872.0000000009</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="31">
         <f>master!J179/master!J153</f>
         <v>0.44169859403983852</v>
       </c>
@@ -12457,7 +12457,7 @@
         <f>master!M179</f>
         <v>22118880</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="31">
         <f>master!M179/master!M153</f>
         <v>0.65554297355123581</v>
       </c>
@@ -12465,7 +12465,7 @@
         <f>master!R179</f>
         <v>1992183</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="31">
         <f>master!R179/master!R153</f>
         <v>0.56890971272698609</v>
       </c>
@@ -12473,12 +12473,12 @@
         <f>master!V179</f>
         <v>3204517</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="31">
         <f>master!V179/master!V153</f>
         <v>1.2845119822345861</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -12486,7 +12486,7 @@
         <f>master!C180</f>
         <v>83606247</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="31">
         <f>master!C180/master!C154</f>
         <v>0.53870004510309277</v>
       </c>
@@ -12494,7 +12494,7 @@
         <f>master!D180</f>
         <v>7240700</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="31">
         <f>master!D180/master!D154</f>
         <v>0.46121740450920001</v>
       </c>
@@ -12502,7 +12502,7 @@
         <f>master!G180</f>
         <v>38137454</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="31">
         <f>master!G180/master!G154</f>
         <v>0.62214443719412726</v>
       </c>
@@ -12510,7 +12510,7 @@
         <f>master!J180</f>
         <v>5714515.2000000002</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="31">
         <f>master!J180/master!J154</f>
         <v>0.47287607586572045</v>
       </c>
@@ -12518,7 +12518,7 @@
         <f>master!M180</f>
         <v>28425065.600000001</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="31">
         <f>master!M180/master!M154</f>
         <v>0.77356244263268725</v>
       </c>
@@ -12526,7 +12526,7 @@
         <f>master!R180</f>
         <v>1941333</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="31">
         <f>master!R180/master!R154</f>
         <v>0.56260525303764863</v>
       </c>
@@ -12534,12 +12534,12 @@
         <f>master!V180</f>
         <v>2989007</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="31">
         <f>master!V180/master!V154</f>
         <v>1.3997036699872674</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -12547,7 +12547,7 @@
         <f>master!C181</f>
         <v>82509146</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="31">
         <f>master!C181/master!C155</f>
         <v>0.58641894811656003</v>
       </c>
@@ -12555,7 +12555,7 @@
         <f>master!D181</f>
         <v>7410700</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="31">
         <f>master!D181/master!D155</f>
         <v>0.52186396425351211</v>
       </c>
@@ -12563,7 +12563,7 @@
         <f>master!G181</f>
         <v>35751726</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="31">
         <f>master!G181/master!G155</f>
         <v>0.65359645338208405</v>
       </c>
@@ -12571,7 +12571,7 @@
         <f>master!J181</f>
         <v>5724816</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="31">
         <f>master!J181/master!J155</f>
         <v>0.4975221298003521</v>
       </c>
@@ -12579,7 +12579,7 @@
         <f>master!M181</f>
         <v>27474720</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="31">
         <f>master!M181/master!M155</f>
         <v>0.73791266591722449</v>
       </c>
@@ -12587,7 +12587,7 @@
         <f>master!R181</f>
         <v>1707984</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="31">
         <f>master!R181/master!R155</f>
         <v>0.61629902473734877</v>
       </c>
@@ -12595,12 +12595,12 @@
         <f>master!V181</f>
         <v>2105560</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="31">
         <f>master!V181/master!V155</f>
         <v>1.3945140301797219</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -12608,7 +12608,7 @@
         <f>master!C182</f>
         <v>78893289</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="31">
         <f>master!C182/master!C156</f>
         <v>0.56231852459016318</v>
       </c>
@@ -12616,7 +12616,7 @@
         <f>master!D182</f>
         <v>6766000</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <f>master!D182/master!D156</f>
         <v>0.4549700977862941</v>
       </c>
@@ -12624,7 +12624,7 @@
         <f>master!G182</f>
         <v>33762618</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="31">
         <f>master!G182/master!G156</f>
         <v>0.59622826566832043</v>
       </c>
@@ -12632,7 +12632,7 @@
         <f>master!J182</f>
         <v>5297676.8000000007</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <f>master!J182/master!J156</f>
         <v>0.45961856237950982</v>
       </c>
@@ -12640,7 +12640,7 @@
         <f>master!M182</f>
         <v>25687046.400000002</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="31">
         <f>master!M182/master!M156</f>
         <v>0.66655940979546979</v>
       </c>
@@ -12648,26 +12648,26 @@
         <f>master!R182</f>
         <v>1626042</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="31">
         <f>master!R182/master!R156</f>
         <v>0.55966354970344789</v>
       </c>
       <c r="N24" s="1">
         <f>master!V182</f>
-        <v>1748287</v>
-      </c>
-      <c r="O24" s="33">
+        <v>1698399</v>
+      </c>
+      <c r="O24" s="31">
         <f>master!V182/master!V156</f>
-        <v>1.7927416137973324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+        <v>1.7415850853617145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12692,16 +12692,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="107.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>183</v>
       </c>
@@ -12718,11 +12718,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="35" t="s">
         <v>204</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -12732,9 +12732,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>224</v>
       </c>
@@ -12745,9 +12745,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="3" t="s">
         <v>221</v>
       </c>
@@ -12758,9 +12758,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="22"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
         <v>207</v>
       </c>
@@ -12771,9 +12771,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="3" t="s">
         <v>223</v>
       </c>
@@ -12784,11 +12784,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="35" t="s">
         <v>204</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -12798,9 +12798,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="3" t="s">
         <v>233</v>
       </c>
@@ -12811,9 +12811,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="3" t="s">
         <v>207</v>
       </c>
@@ -12821,11 +12821,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="35" t="s">
         <v>204</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -12835,9 +12835,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="3" t="s">
         <v>224</v>
       </c>
@@ -12848,9 +12848,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="3" t="s">
         <v>222</v>
       </c>
@@ -12861,9 +12861,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3" t="s">
         <v>207</v>
       </c>
@@ -12871,24 +12871,24 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>185</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="17" t="s">
         <v>246</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E25" s="13"/>
     </row>
   </sheetData>

--- a/all_modes/ridership.xlsx
+++ b/all_modes/ridership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\all_modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EC3E07-F239-42B5-B377-B45ED31C7FC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB89B768-8A22-4DE0-B025-798520FF4D82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="275">
   <si>
     <t xml:space="preserve">Subway </t>
   </si>
@@ -995,7 +995,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1043,6 +1043,11 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,11 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1349,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6BD9D9-A94A-452F-BE0B-A0E3D87F1ACA}">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AE190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="W139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC96" sqref="AC96"/>
+      <selection pane="bottomRight" activeCell="AE174" sqref="AE174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1504,7 @@
       <c r="I2" s="11">
         <v>9528068</v>
       </c>
-      <c r="Z2" s="39">
+      <c r="Z2" s="33">
         <v>7981538</v>
       </c>
       <c r="AA2" s="11">
@@ -1544,7 +1545,7 @@
       <c r="I3" s="11">
         <v>9087705</v>
       </c>
-      <c r="Z3" s="39">
+      <c r="Z3" s="33">
         <v>7502006</v>
       </c>
       <c r="AA3" s="11">
@@ -1585,7 +1586,7 @@
       <c r="I4" s="11">
         <v>10145256</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="Z4" s="33">
         <v>9273477</v>
       </c>
       <c r="AA4" s="11">
@@ -1626,7 +1627,7 @@
       <c r="I5" s="11">
         <v>10234615</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="33">
         <v>9023095</v>
       </c>
       <c r="AA5" s="11">
@@ -1667,7 +1668,7 @@
       <c r="I6" s="11">
         <v>10491142</v>
       </c>
-      <c r="Z6" s="39">
+      <c r="Z6" s="33">
         <v>9393512</v>
       </c>
       <c r="AA6" s="11">
@@ -1708,7 +1709,7 @@
       <c r="I7" s="11">
         <v>10070315</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z7" s="33">
         <v>9561306</v>
       </c>
       <c r="AA7" s="11">
@@ -1749,7 +1750,7 @@
       <c r="I8" s="11">
         <v>10090794</v>
       </c>
-      <c r="Z8" s="39">
+      <c r="Z8" s="33">
         <v>10334921</v>
       </c>
       <c r="AA8" s="11">
@@ -1790,7 +1791,7 @@
       <c r="I9" s="11">
         <v>9651741</v>
       </c>
-      <c r="Z9" s="39">
+      <c r="Z9" s="33">
         <v>10404711</v>
       </c>
       <c r="AA9" s="11">
@@ -1831,7 +1832,7 @@
       <c r="I10" s="11">
         <v>10798069</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="33">
         <v>8094755</v>
       </c>
       <c r="AA10" s="11">
@@ -1872,7 +1873,7 @@
       <c r="I11" s="11">
         <v>11242147</v>
       </c>
-      <c r="Z11" s="39">
+      <c r="Z11" s="33">
         <v>8583331</v>
       </c>
       <c r="AA11" s="11">
@@ -1913,7 +1914,7 @@
       <c r="I12" s="11">
         <v>9673322</v>
       </c>
-      <c r="Z12" s="39">
+      <c r="Z12" s="33">
         <v>7789832</v>
       </c>
       <c r="AA12" s="11">
@@ -1954,7 +1955,7 @@
       <c r="I13" s="11">
         <v>10014576</v>
       </c>
-      <c r="Z13" s="39">
+      <c r="Z13" s="33">
         <v>8294424</v>
       </c>
       <c r="AA13" s="11">
@@ -2009,7 +2010,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
-      <c r="Z14" s="40">
+      <c r="Z14" s="34">
         <v>106236908</v>
       </c>
       <c r="AA14" s="12">
@@ -2050,7 +2051,7 @@
       <c r="I15" s="11">
         <v>9439157</v>
       </c>
-      <c r="Z15" s="39">
+      <c r="Z15" s="33">
         <v>7190117</v>
       </c>
       <c r="AA15" s="11">
@@ -2091,7 +2092,7 @@
       <c r="I16" s="11">
         <v>9213013</v>
       </c>
-      <c r="Z16" s="39">
+      <c r="Z16" s="33">
         <v>6649335</v>
       </c>
       <c r="AA16" s="11">
@@ -2132,7 +2133,7 @@
       <c r="I17" s="11">
         <v>10658594</v>
       </c>
-      <c r="Z17" s="39">
+      <c r="Z17" s="33">
         <v>8195852</v>
       </c>
       <c r="AA17" s="11">
@@ -2173,7 +2174,7 @@
       <c r="I18" s="11">
         <v>10128848</v>
       </c>
-      <c r="Z18" s="39">
+      <c r="Z18" s="33">
         <v>8620769</v>
       </c>
       <c r="AA18" s="11">
@@ -2214,7 +2215,7 @@
       <c r="I19" s="11">
         <v>10343294</v>
       </c>
-      <c r="Z19" s="39">
+      <c r="Z19" s="33">
         <v>8645684</v>
       </c>
       <c r="AA19" s="11">
@@ -2255,7 +2256,7 @@
       <c r="I20" s="11">
         <v>10165530</v>
       </c>
-      <c r="Z20" s="39">
+      <c r="Z20" s="33">
         <v>8974356</v>
       </c>
       <c r="AA20" s="11">
@@ -2296,7 +2297,7 @@
       <c r="I21" s="11">
         <v>9667200</v>
       </c>
-      <c r="Z21" s="39">
+      <c r="Z21" s="33">
         <v>10007441</v>
       </c>
       <c r="AA21" s="11">
@@ -2337,7 +2338,7 @@
       <c r="I22" s="11">
         <v>9220512</v>
       </c>
-      <c r="Z22" s="39">
+      <c r="Z22" s="33">
         <v>10130501</v>
       </c>
       <c r="AA22" s="11">
@@ -2378,7 +2379,7 @@
       <c r="I23" s="11">
         <v>10252638</v>
       </c>
-      <c r="Z23" s="39">
+      <c r="Z23" s="33">
         <v>8210117</v>
       </c>
       <c r="AA23" s="11">
@@ -2419,7 +2420,7 @@
       <c r="I24" s="11">
         <v>10964658</v>
       </c>
-      <c r="Z24" s="39">
+      <c r="Z24" s="33">
         <v>8566698</v>
       </c>
       <c r="AA24" s="11">
@@ -2460,7 +2461,7 @@
       <c r="I25" s="11">
         <v>10042575</v>
       </c>
-      <c r="Z25" s="39">
+      <c r="Z25" s="33">
         <v>7880843</v>
       </c>
       <c r="AA25" s="11">
@@ -2501,7 +2502,7 @@
       <c r="I26" s="11">
         <v>9896486</v>
       </c>
-      <c r="Z26" s="39">
+      <c r="Z26" s="33">
         <v>8319588</v>
       </c>
       <c r="AA26" s="11">
@@ -2556,7 +2557,7 @@
       <c r="W27" s="5"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="40">
+      <c r="Z27" s="34">
         <v>101391301</v>
       </c>
       <c r="AA27" s="12">
@@ -2603,7 +2604,7 @@
       <c r="O28" s="11">
         <v>14860656</v>
       </c>
-      <c r="Z28" s="39">
+      <c r="Z28" s="33">
         <v>7400271</v>
       </c>
       <c r="AA28" s="11">
@@ -2650,7 +2651,7 @@
       <c r="O29" s="11">
         <v>11143132</v>
       </c>
-      <c r="Z29" s="39">
+      <c r="Z29" s="33">
         <v>6481118</v>
       </c>
       <c r="AA29" s="11">
@@ -2697,7 +2698,7 @@
       <c r="O30" s="11">
         <v>12882577</v>
       </c>
-      <c r="Z30" s="39">
+      <c r="Z30" s="33">
         <v>8526950</v>
       </c>
       <c r="AA30" s="11">
@@ -2744,7 +2745,7 @@
       <c r="O31" s="11">
         <v>15143940</v>
       </c>
-      <c r="Z31" s="39">
+      <c r="Z31" s="33">
         <v>8512988</v>
       </c>
       <c r="AA31" s="11">
@@ -2791,7 +2792,7 @@
       <c r="O32" s="11">
         <v>15480594</v>
       </c>
-      <c r="Z32" s="39">
+      <c r="Z32" s="33">
         <v>8927139</v>
       </c>
       <c r="AA32" s="11">
@@ -2838,7 +2839,7 @@
       <c r="O33" s="11">
         <v>14824110</v>
       </c>
-      <c r="Z33" s="39">
+      <c r="Z33" s="33">
         <v>9419199</v>
       </c>
       <c r="AA33" s="11">
@@ -2885,7 +2886,7 @@
       <c r="O34" s="11">
         <v>14655312</v>
       </c>
-      <c r="Z34" s="39">
+      <c r="Z34" s="33">
         <v>10089936</v>
       </c>
       <c r="AA34" s="11">
@@ -2932,7 +2933,7 @@
       <c r="O35" s="11">
         <v>12527565</v>
       </c>
-      <c r="Z35" s="39">
+      <c r="Z35" s="33">
         <v>10217881</v>
       </c>
       <c r="AA35" s="11">
@@ -2979,7 +2980,7 @@
       <c r="O36" s="11">
         <v>15539160</v>
       </c>
-      <c r="Z36" s="39">
+      <c r="Z36" s="33">
         <v>8560368</v>
       </c>
       <c r="AA36" s="11">
@@ -3026,7 +3027,7 @@
       <c r="O37" s="11">
         <v>14197876</v>
       </c>
-      <c r="Z37" s="39">
+      <c r="Z37" s="33">
         <v>8998998</v>
       </c>
       <c r="AA37" s="11">
@@ -3073,7 +3074,7 @@
       <c r="O38" s="11">
         <v>13911030</v>
       </c>
-      <c r="Z38" s="39">
+      <c r="Z38" s="33">
         <v>8431142</v>
       </c>
       <c r="AA38" s="11">
@@ -3120,7 +3121,7 @@
       <c r="O39" s="11">
         <v>13817537</v>
       </c>
-      <c r="Z39" s="39">
+      <c r="Z39" s="33">
         <v>8132168</v>
       </c>
       <c r="AA39" s="11">
@@ -3179,7 +3180,7 @@
       <c r="W40" s="5"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
-      <c r="Z40" s="40">
+      <c r="Z40" s="34">
         <v>103698158</v>
       </c>
       <c r="AA40" s="12">
@@ -3235,7 +3236,7 @@
       <c r="Y41" s="11">
         <v>20408730</v>
       </c>
-      <c r="Z41" s="39">
+      <c r="Z41" s="33">
         <v>7321432</v>
       </c>
       <c r="AA41" s="11">
@@ -3291,7 +3292,7 @@
       <c r="Y42" s="11">
         <v>20176144</v>
       </c>
-      <c r="Z42" s="39">
+      <c r="Z42" s="33">
         <v>6629356</v>
       </c>
       <c r="AA42" s="11">
@@ -3347,7 +3348,7 @@
       <c r="Y43" s="11">
         <v>23928232</v>
       </c>
-      <c r="Z43" s="39">
+      <c r="Z43" s="33">
         <v>8658886</v>
       </c>
       <c r="AA43" s="11">
@@ -3403,7 +3404,7 @@
       <c r="Y44" s="11">
         <v>23593365</v>
       </c>
-      <c r="Z44" s="39">
+      <c r="Z44" s="33">
         <v>8931466</v>
       </c>
       <c r="AA44" s="11">
@@ -3459,7 +3460,7 @@
       <c r="Y45" s="11">
         <v>25144889</v>
       </c>
-      <c r="Z45" s="39">
+      <c r="Z45" s="33">
         <v>9377881</v>
       </c>
       <c r="AA45" s="11">
@@ -3515,7 +3516,7 @@
       <c r="Y46" s="11">
         <v>25289003</v>
       </c>
-      <c r="Z46" s="39">
+      <c r="Z46" s="33">
         <v>9634711</v>
       </c>
       <c r="AA46" s="11">
@@ -3571,7 +3572,7 @@
       <c r="Y47" s="11">
         <v>25490788</v>
       </c>
-      <c r="Z47" s="39">
+      <c r="Z47" s="33">
         <v>10410702</v>
       </c>
       <c r="AA47" s="11">
@@ -3627,7 +3628,7 @@
       <c r="Y48" s="11">
         <v>24253530</v>
       </c>
-      <c r="Z48" s="39">
+      <c r="Z48" s="33">
         <v>9821912</v>
       </c>
       <c r="AA48" s="11">
@@ -3683,7 +3684,7 @@
       <c r="Y49" s="11">
         <v>23976096</v>
       </c>
-      <c r="Z49" s="39">
+      <c r="Z49" s="33">
         <v>8735543</v>
       </c>
       <c r="AA49" s="11">
@@ -3739,7 +3740,7 @@
       <c r="Y50" s="11">
         <v>24135980</v>
       </c>
-      <c r="Z50" s="39">
+      <c r="Z50" s="33">
         <v>8905256</v>
       </c>
       <c r="AA50" s="11">
@@ -3795,7 +3796,7 @@
       <c r="Y51" s="11">
         <v>23480109</v>
       </c>
-      <c r="Z51" s="39">
+      <c r="Z51" s="33">
         <v>8444237</v>
       </c>
       <c r="AA51" s="11">
@@ -3851,7 +3852,7 @@
       <c r="Y52" s="11">
         <v>23697995</v>
       </c>
-      <c r="Z52" s="39">
+      <c r="Z52" s="33">
         <v>8593185</v>
       </c>
       <c r="AA52" s="11">
@@ -3916,7 +3917,7 @@
       <c r="Y53" s="12">
         <v>283574861</v>
       </c>
-      <c r="Z53" s="40">
+      <c r="Z53" s="34">
         <v>105464567</v>
       </c>
       <c r="AA53" s="12">
@@ -3972,7 +3973,7 @@
       <c r="Y54" s="32">
         <v>21776550</v>
       </c>
-      <c r="Z54" s="39">
+      <c r="Z54" s="33">
         <v>7707059</v>
       </c>
       <c r="AA54" s="32">
@@ -4028,7 +4029,7 @@
       <c r="Y55" s="32">
         <v>21280142</v>
       </c>
-      <c r="Z55" s="39">
+      <c r="Z55" s="33">
         <v>7281344</v>
       </c>
       <c r="AA55" s="32">
@@ -4084,7 +4085,7 @@
       <c r="Y56" s="32">
         <v>23927645</v>
       </c>
-      <c r="Z56" s="39">
+      <c r="Z56" s="33">
         <v>9074097</v>
       </c>
       <c r="AA56" s="32">
@@ -4140,7 +4141,7 @@
       <c r="Y57" s="32">
         <v>23651425</v>
       </c>
-      <c r="Z57" s="39">
+      <c r="Z57" s="33">
         <v>9369319</v>
       </c>
       <c r="AA57" s="32">
@@ -4196,7 +4197,7 @@
       <c r="Y58" s="32">
         <v>25192764</v>
       </c>
-      <c r="Z58" s="39">
+      <c r="Z58" s="33">
         <v>9501572</v>
       </c>
       <c r="AA58" s="32">
@@ -4252,7 +4253,7 @@
       <c r="Y59" s="32">
         <v>25233363</v>
       </c>
-      <c r="Z59" s="39">
+      <c r="Z59" s="33">
         <v>9953173</v>
       </c>
       <c r="AA59" s="32">
@@ -4308,7 +4309,7 @@
       <c r="Y60" s="32">
         <v>24887622</v>
       </c>
-      <c r="Z60" s="39">
+      <c r="Z60" s="33">
         <v>10464707</v>
       </c>
       <c r="AA60" s="32">
@@ -4364,7 +4365,7 @@
       <c r="Y61" s="32">
         <v>25669824</v>
       </c>
-      <c r="Z61" s="39">
+      <c r="Z61" s="33">
         <v>10792752</v>
       </c>
       <c r="AA61" s="32">
@@ -4420,7 +4421,7 @@
       <c r="Y62" s="32">
         <v>23763047</v>
       </c>
-      <c r="Z62" s="39">
+      <c r="Z62" s="33">
         <v>8907915</v>
       </c>
       <c r="AA62" s="32">
@@ -4476,7 +4477,7 @@
       <c r="Y63" s="32">
         <v>22963971</v>
       </c>
-      <c r="Z63" s="39">
+      <c r="Z63" s="33">
         <v>8590359</v>
       </c>
       <c r="AA63" s="32">
@@ -4532,7 +4533,7 @@
       <c r="Y64" s="32">
         <v>20993843</v>
       </c>
-      <c r="Z64" s="39">
+      <c r="Z64" s="33">
         <v>8403587</v>
       </c>
       <c r="AA64" s="32">
@@ -4588,7 +4589,7 @@
       <c r="Y65" s="32">
         <v>23412942</v>
       </c>
-      <c r="Z65" s="39">
+      <c r="Z65" s="33">
         <v>8920103</v>
       </c>
       <c r="AA65" s="32">
@@ -4653,7 +4654,7 @@
       <c r="Y66" s="12">
         <v>282753138</v>
       </c>
-      <c r="Z66" s="40">
+      <c r="Z66" s="34">
         <v>108965987</v>
       </c>
       <c r="AA66" s="12">
@@ -4715,7 +4716,7 @@
       <c r="Y67" s="32">
         <v>22290223</v>
       </c>
-      <c r="Z67" s="39">
+      <c r="Z67" s="33">
         <v>8206386</v>
       </c>
       <c r="AA67" s="32">
@@ -4780,7 +4781,7 @@
       <c r="Y68" s="32">
         <v>19831970</v>
       </c>
-      <c r="Z68" s="39">
+      <c r="Z68" s="33">
         <v>7231768</v>
       </c>
       <c r="AA68" s="32">
@@ -4845,7 +4846,7 @@
       <c r="Y69" s="32">
         <v>23376021</v>
       </c>
-      <c r="Z69" s="39">
+      <c r="Z69" s="33">
         <v>9453983</v>
       </c>
       <c r="AA69" s="32">
@@ -4910,7 +4911,7 @@
       <c r="Y70" s="32">
         <v>23638588</v>
       </c>
-      <c r="Z70" s="39">
+      <c r="Z70" s="33">
         <v>9167768</v>
       </c>
       <c r="AA70" s="32">
@@ -4975,7 +4976,7 @@
       <c r="Y71" s="32">
         <v>25045252</v>
       </c>
-      <c r="Z71" s="39">
+      <c r="Z71" s="33">
         <v>9767042</v>
       </c>
       <c r="AA71" s="32">
@@ -5043,7 +5044,7 @@
       <c r="Y72" s="32">
         <v>24738988</v>
       </c>
-      <c r="Z72" s="39">
+      <c r="Z72" s="33">
         <v>10074838</v>
       </c>
       <c r="AA72" s="32">
@@ -5111,7 +5112,7 @@
       <c r="Y73" s="32">
         <v>24886530</v>
       </c>
-      <c r="Z73" s="39">
+      <c r="Z73" s="33">
         <v>10653315</v>
       </c>
       <c r="AA73" s="32">
@@ -5182,7 +5183,7 @@
       <c r="Y74" s="32">
         <v>25636599</v>
       </c>
-      <c r="Z74" s="39">
+      <c r="Z74" s="33">
         <v>10935285</v>
       </c>
       <c r="AA74" s="32">
@@ -5253,7 +5254,7 @@
       <c r="Y75" s="32">
         <v>23810071</v>
       </c>
-      <c r="Z75" s="39">
+      <c r="Z75" s="33">
         <v>9101032</v>
       </c>
       <c r="AA75" s="32">
@@ -5324,7 +5325,7 @@
       <c r="Y76" s="32">
         <v>25036991</v>
       </c>
-      <c r="Z76" s="39">
+      <c r="Z76" s="33">
         <v>9473523</v>
       </c>
       <c r="AA76" s="32">
@@ -5395,7 +5396,7 @@
       <c r="Y77" s="32">
         <v>23200297</v>
       </c>
-      <c r="Z77" s="39">
+      <c r="Z77" s="33">
         <v>8507552</v>
       </c>
       <c r="AA77" s="32">
@@ -5466,7 +5467,7 @@
       <c r="Y78" s="32">
         <v>23035975</v>
       </c>
-      <c r="Z78" s="39">
+      <c r="Z78" s="33">
         <v>9575202</v>
       </c>
       <c r="AA78" s="32">
@@ -5541,7 +5542,7 @@
       <c r="Y79" s="12">
         <v>284527505</v>
       </c>
-      <c r="Z79" s="40">
+      <c r="Z79" s="34">
         <v>112147694</v>
       </c>
       <c r="AA79" s="12">
@@ -5612,7 +5613,7 @@
       <c r="Y80" s="32">
         <v>20747317</v>
       </c>
-      <c r="Z80" s="39">
+      <c r="Z80" s="33">
         <v>8140082</v>
       </c>
       <c r="AA80" s="32">
@@ -5683,7 +5684,7 @@
       <c r="Y81" s="32">
         <v>18701703</v>
       </c>
-      <c r="Z81" s="39">
+      <c r="Z81" s="33">
         <v>7147851</v>
       </c>
       <c r="AA81" s="32">
@@ -5754,7 +5755,7 @@
       <c r="Y82" s="32">
         <v>23431567</v>
       </c>
-      <c r="Z82" s="39">
+      <c r="Z82" s="33">
         <v>9456818</v>
       </c>
       <c r="AA82" s="32">
@@ -5825,7 +5826,7 @@
       <c r="Y83" s="32">
         <v>23834773</v>
       </c>
-      <c r="Z83" s="39">
+      <c r="Z83" s="33">
         <v>9692050</v>
       </c>
       <c r="AA83" s="32">
@@ -5896,7 +5897,7 @@
       <c r="Y84" s="32">
         <v>25668919</v>
       </c>
-      <c r="Z84" s="39">
+      <c r="Z84" s="33">
         <v>10134176</v>
       </c>
       <c r="AA84" s="32">
@@ -5967,7 +5968,7 @@
       <c r="Y85" s="32">
         <v>25374933</v>
       </c>
-      <c r="Z85" s="39">
+      <c r="Z85" s="33">
         <v>10455135</v>
       </c>
       <c r="AA85" s="32">
@@ -6038,7 +6039,7 @@
       <c r="Y86" s="32">
         <v>25435425</v>
       </c>
-      <c r="Z86" s="39">
+      <c r="Z86" s="33">
         <v>11131561</v>
       </c>
       <c r="AA86" s="32">
@@ -6109,7 +6110,7 @@
       <c r="Y87" s="32">
         <v>25951945</v>
       </c>
-      <c r="Z87" s="39">
+      <c r="Z87" s="33">
         <v>11411368</v>
       </c>
       <c r="AA87" s="32">
@@ -6180,7 +6181,7 @@
       <c r="Y88" s="32">
         <v>24481160</v>
       </c>
-      <c r="Z88" s="39">
+      <c r="Z88" s="33">
         <v>9534591</v>
       </c>
       <c r="AA88" s="32">
@@ -6251,7 +6252,7 @@
       <c r="Y89" s="32">
         <v>25189827</v>
       </c>
-      <c r="Z89" s="39">
+      <c r="Z89" s="33">
         <v>9815655</v>
       </c>
       <c r="AA89" s="32">
@@ -6322,7 +6323,7 @@
       <c r="Y90" s="32">
         <v>23400720</v>
       </c>
-      <c r="Z90" s="39">
+      <c r="Z90" s="33">
         <v>8951410</v>
       </c>
       <c r="AA90" s="32">
@@ -6393,7 +6394,7 @@
       <c r="Y91" s="32">
         <v>24198616</v>
       </c>
-      <c r="Z91" s="39">
+      <c r="Z91" s="33">
         <v>9929835</v>
       </c>
       <c r="AA91" s="32">
@@ -6468,7 +6469,7 @@
       <c r="Y92" s="12">
         <v>286416905</v>
       </c>
-      <c r="Z92" s="40">
+      <c r="Z92" s="34">
         <v>115800532</v>
       </c>
       <c r="AA92" s="12">
@@ -6554,7 +6555,7 @@
       <c r="Y93" s="32">
         <v>20983289</v>
       </c>
-      <c r="Z93" s="39">
+      <c r="Z93" s="33">
         <v>8396239</v>
       </c>
       <c r="AA93" s="32">
@@ -6640,7 +6641,7 @@
       <c r="Y94" s="32">
         <v>19983679</v>
       </c>
-      <c r="Z94" s="39">
+      <c r="Z94" s="33">
         <v>7785828</v>
       </c>
       <c r="AA94" s="32">
@@ -6726,7 +6727,7 @@
       <c r="Y95" s="32">
         <v>23836645</v>
       </c>
-      <c r="Z95" s="39">
+      <c r="Z95" s="33">
         <v>9815200</v>
       </c>
       <c r="AA95" s="32">
@@ -6812,7 +6813,7 @@
       <c r="Y96" s="32">
         <v>24825057</v>
       </c>
-      <c r="Z96" s="39">
+      <c r="Z96" s="33">
         <v>10251143</v>
       </c>
       <c r="AA96" s="32">
@@ -6898,7 +6899,7 @@
       <c r="Y97" s="32">
         <v>26520622</v>
       </c>
-      <c r="Z97" s="39">
+      <c r="Z97" s="33">
         <v>10712433</v>
       </c>
       <c r="AA97" s="32">
@@ -6984,7 +6985,7 @@
       <c r="Y98" s="32">
         <v>26140659</v>
       </c>
-      <c r="Z98" s="39">
+      <c r="Z98" s="33">
         <v>10968154</v>
       </c>
       <c r="AA98" s="32">
@@ -7070,7 +7071,7 @@
       <c r="Y99" s="32">
         <v>26900933</v>
       </c>
-      <c r="Z99" s="39">
+      <c r="Z99" s="33">
         <v>11893721</v>
       </c>
       <c r="AA99" s="32">
@@ -7156,7 +7157,7 @@
       <c r="Y100" s="32">
         <v>27179957</v>
       </c>
-      <c r="Z100" s="39">
+      <c r="Z100" s="33">
         <v>12015777</v>
       </c>
       <c r="AA100" s="32">
@@ -7242,7 +7243,7 @@
       <c r="Y101" s="32">
         <v>25176781</v>
       </c>
-      <c r="Z101" s="39">
+      <c r="Z101" s="33">
         <v>10159465</v>
       </c>
       <c r="AA101" s="32">
@@ -7328,7 +7329,7 @@
       <c r="Y102" s="32">
         <v>26221062</v>
       </c>
-      <c r="Z102" s="39">
+      <c r="Z102" s="33">
         <v>10658562</v>
       </c>
       <c r="AA102" s="32">
@@ -7414,7 +7415,7 @@
       <c r="Y103" s="32">
         <v>24793552</v>
       </c>
-      <c r="Z103" s="39">
+      <c r="Z103" s="33">
         <v>9772609</v>
       </c>
       <c r="AA103" s="32">
@@ -7500,7 +7501,7 @@
       <c r="Y104" s="32">
         <v>25398337</v>
       </c>
-      <c r="Z104" s="39">
+      <c r="Z104" s="33">
         <v>10330395</v>
       </c>
       <c r="AA104" s="32">
@@ -7585,7 +7586,7 @@
       <c r="Y105" s="12">
         <v>297960573</v>
       </c>
-      <c r="Z105" s="40">
+      <c r="Z105" s="34">
         <v>122759526</v>
       </c>
       <c r="AA105" s="12">
@@ -7671,7 +7672,7 @@
       <c r="Y106" s="32">
         <v>22206860</v>
       </c>
-      <c r="Z106" s="39">
+      <c r="Z106" s="33">
         <v>0</v>
       </c>
       <c r="AA106" s="32"/>
@@ -7751,7 +7752,7 @@
       <c r="Y107" s="32">
         <v>22379445</v>
       </c>
-      <c r="Z107" s="39">
+      <c r="Z107" s="33">
         <v>0</v>
       </c>
       <c r="AA107" s="32"/>
@@ -7831,7 +7832,7 @@
       <c r="Y108" s="32">
         <v>25678007</v>
       </c>
-      <c r="Z108" s="39">
+      <c r="Z108" s="33">
         <v>0</v>
       </c>
       <c r="AA108" s="32"/>
@@ -7911,7 +7912,7 @@
       <c r="Y109" s="32">
         <v>25460062</v>
       </c>
-      <c r="Z109" s="39">
+      <c r="Z109" s="33">
         <v>0</v>
       </c>
       <c r="AA109" s="32"/>
@@ -7991,7 +7992,7 @@
       <c r="Y110" s="32">
         <v>27041559</v>
       </c>
-      <c r="Z110" s="39">
+      <c r="Z110" s="33">
         <v>0</v>
       </c>
       <c r="AA110" s="32"/>
@@ -8071,7 +8072,7 @@
       <c r="Y111" s="32">
         <v>27281473</v>
       </c>
-      <c r="Z111" s="39">
+      <c r="Z111" s="33">
         <v>0</v>
       </c>
       <c r="AA111" s="32"/>
@@ -8151,7 +8152,7 @@
       <c r="Y112" s="32">
         <v>27279840</v>
       </c>
-      <c r="Z112" s="39">
+      <c r="Z112" s="33">
         <v>0</v>
       </c>
       <c r="AA112" s="32"/>
@@ -8231,7 +8232,7 @@
       <c r="Y113" s="32">
         <v>27620446</v>
       </c>
-      <c r="Z113" s="39">
+      <c r="Z113" s="33">
         <v>0</v>
       </c>
       <c r="AA113" s="32"/>
@@ -8311,7 +8312,7 @@
       <c r="Y114" s="32">
         <v>26043256</v>
       </c>
-      <c r="Z114" s="39">
+      <c r="Z114" s="33">
         <v>0</v>
       </c>
       <c r="AA114" s="32"/>
@@ -8391,7 +8392,7 @@
       <c r="Y115" s="32">
         <v>26022431</v>
       </c>
-      <c r="Z115" s="39">
+      <c r="Z115" s="33">
         <v>0</v>
       </c>
       <c r="AA115" s="32"/>
@@ -8471,7 +8472,7 @@
       <c r="Y116" s="32">
         <v>25130058</v>
       </c>
-      <c r="Z116" s="39">
+      <c r="Z116" s="33">
         <v>0</v>
       </c>
       <c r="AA116" s="32"/>
@@ -8551,7 +8552,7 @@
       <c r="Y117" s="32">
         <v>25273158</v>
       </c>
-      <c r="Z117" s="39">
+      <c r="Z117" s="33">
         <v>0</v>
       </c>
       <c r="AA117" s="32"/>
@@ -8630,7 +8631,7 @@
       <c r="Y118" s="12">
         <v>307416595</v>
       </c>
-      <c r="Z118" s="39">
+      <c r="Z118" s="33">
         <v>0</v>
       </c>
       <c r="AA118" s="12"/>
@@ -8710,7 +8711,7 @@
       <c r="Y119" s="32">
         <v>23452652</v>
       </c>
-      <c r="Z119" s="39">
+      <c r="Z119" s="33">
         <v>0</v>
       </c>
       <c r="AA119" s="32"/>
@@ -8790,7 +8791,7 @@
       <c r="Y120" s="32">
         <v>21620767</v>
       </c>
-      <c r="Z120" s="39">
+      <c r="Z120" s="33">
         <v>0</v>
       </c>
       <c r="AA120" s="32"/>
@@ -8870,7 +8871,7 @@
       <c r="Y121" s="32">
         <v>24595618</v>
       </c>
-      <c r="Z121" s="39">
+      <c r="Z121" s="33">
         <v>0</v>
       </c>
       <c r="AA121" s="32"/>
@@ -8950,7 +8951,7 @@
       <c r="Y122" s="32">
         <v>25354830</v>
       </c>
-      <c r="Z122" s="39">
+      <c r="Z122" s="33">
         <v>0</v>
       </c>
       <c r="AA122" s="32"/>
@@ -9033,7 +9034,7 @@
       <c r="Y123" s="32">
         <v>26717750</v>
       </c>
-      <c r="Z123" s="39">
+      <c r="Z123" s="33">
         <v>0</v>
       </c>
       <c r="AA123" s="32"/>
@@ -9116,7 +9117,7 @@
       <c r="Y124" s="32">
         <v>27133265</v>
       </c>
-      <c r="Z124" s="39">
+      <c r="Z124" s="33">
         <v>0</v>
       </c>
       <c r="AA124" s="32"/>
@@ -9199,7 +9200,7 @@
       <c r="Y125" s="32">
         <v>27530620</v>
       </c>
-      <c r="Z125" s="39">
+      <c r="Z125" s="33">
         <v>0</v>
       </c>
       <c r="AA125" s="32"/>
@@ -9282,7 +9283,7 @@
       <c r="Y126" s="32">
         <v>28271494</v>
       </c>
-      <c r="Z126" s="39">
+      <c r="Z126" s="33">
         <v>0</v>
       </c>
       <c r="AA126" s="32"/>
@@ -9365,7 +9366,7 @@
       <c r="Y127" s="32">
         <v>26559138</v>
       </c>
-      <c r="Z127" s="39">
+      <c r="Z127" s="33">
         <v>0</v>
       </c>
       <c r="AA127" s="32"/>
@@ -9448,7 +9449,7 @@
       <c r="Y128" s="32">
         <v>27068258</v>
       </c>
-      <c r="Z128" s="39">
+      <c r="Z128" s="33">
         <v>0</v>
       </c>
       <c r="AA128" s="32"/>
@@ -9531,7 +9532,7 @@
       <c r="Y129" s="32">
         <v>25955869</v>
       </c>
-      <c r="Z129" s="39">
+      <c r="Z129" s="33">
         <v>0</v>
       </c>
       <c r="AA129" s="32"/>
@@ -9614,7 +9615,7 @@
       <c r="Y130" s="32">
         <v>25737055</v>
       </c>
-      <c r="Z130" s="39">
+      <c r="Z130" s="33">
         <v>0</v>
       </c>
       <c r="AA130" s="32"/>
@@ -9695,7 +9696,7 @@
       <c r="Y131" s="12">
         <v>309997316</v>
       </c>
-      <c r="Z131" s="39">
+      <c r="Z131" s="33">
         <v>0</v>
       </c>
       <c r="AA131" s="12"/>
@@ -9778,7 +9779,7 @@
       <c r="Y132" s="32">
         <v>23731837</v>
       </c>
-      <c r="Z132" s="39">
+      <c r="Z132" s="33">
         <v>0</v>
       </c>
       <c r="AA132" s="32"/>
@@ -9861,7 +9862,7 @@
       <c r="Y133" s="32">
         <v>22742698</v>
       </c>
-      <c r="Z133" s="39">
+      <c r="Z133" s="33">
         <v>0</v>
       </c>
       <c r="AA133" s="32"/>
@@ -9944,7 +9945,7 @@
       <c r="Y134" s="32">
         <v>25672596</v>
       </c>
-      <c r="Z134" s="39">
+      <c r="Z134" s="33">
         <v>0</v>
       </c>
       <c r="AA134" s="32"/>
@@ -10027,7 +10028,7 @@
       <c r="Y135" s="32">
         <v>26519055</v>
       </c>
-      <c r="Z135" s="39">
+      <c r="Z135" s="33">
         <v>0</v>
       </c>
       <c r="AA135" s="32"/>
@@ -10110,7 +10111,7 @@
       <c r="Y136" s="32">
         <v>28226943</v>
       </c>
-      <c r="Z136" s="39">
+      <c r="Z136" s="33">
         <v>0</v>
       </c>
       <c r="AA136" s="32"/>
@@ -10193,7 +10194,7 @@
       <c r="Y137" s="32">
         <v>28546822</v>
       </c>
-      <c r="Z137" s="39">
+      <c r="Z137" s="33">
         <v>0</v>
       </c>
       <c r="AA137" s="32"/>
@@ -10276,7 +10277,7 @@
       <c r="Y138" s="32">
         <v>28561622</v>
       </c>
-      <c r="Z138" s="39">
+      <c r="Z138" s="33">
         <v>0</v>
       </c>
       <c r="AA138" s="32"/>
@@ -10359,7 +10360,7 @@
       <c r="Y139" s="32">
         <v>29280095</v>
       </c>
-      <c r="Z139" s="39">
+      <c r="Z139" s="33">
         <v>0</v>
       </c>
       <c r="AA139" s="32"/>
@@ -10442,7 +10443,7 @@
       <c r="Y140" s="32">
         <v>27175132</v>
       </c>
-      <c r="Z140" s="39">
+      <c r="Z140" s="33">
         <v>0</v>
       </c>
       <c r="AA140" s="32"/>
@@ -10525,7 +10526,7 @@
       <c r="Y141" s="32">
         <v>28301034</v>
       </c>
-      <c r="Z141" s="39">
+      <c r="Z141" s="33">
         <v>0</v>
       </c>
       <c r="AA141" s="32"/>
@@ -10608,7 +10609,7 @@
       <c r="Y142" s="32">
         <v>26584637</v>
       </c>
-      <c r="Z142" s="39">
+      <c r="Z142" s="33">
         <v>0</v>
       </c>
       <c r="AA142" s="32"/>
@@ -10691,7 +10692,7 @@
       <c r="Y143" s="32">
         <v>26946779</v>
       </c>
-      <c r="Z143" s="39">
+      <c r="Z143" s="33">
         <v>0</v>
       </c>
       <c r="AA143" s="32"/>
@@ -10772,14 +10773,14 @@
       <c r="Y144" s="12">
         <v>322289250</v>
       </c>
-      <c r="Z144" s="39">
+      <c r="Z144" s="33">
         <v>0</v>
       </c>
       <c r="AA144" s="12"/>
       <c r="AB144" s="12"/>
       <c r="AC144" s="12"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>39</v>
       </c>
@@ -10855,7 +10856,7 @@
       <c r="Y145" s="32">
         <v>25005762</v>
       </c>
-      <c r="Z145" s="39">
+      <c r="Z145" s="33">
         <f>SUM(AA145:AC145)</f>
         <v>10053348</v>
       </c>
@@ -10869,7 +10870,7 @@
         <v>2079639</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>38</v>
       </c>
@@ -10945,7 +10946,7 @@
       <c r="Y146" s="32">
         <v>23532562</v>
       </c>
-      <c r="Z146" s="39">
+      <c r="Z146" s="33">
         <f t="shared" ref="Z146:Z183" si="0">SUM(AA146:AC146)</f>
         <v>9273077</v>
       </c>
@@ -10959,7 +10960,7 @@
         <v>2034708</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>37</v>
       </c>
@@ -11035,7 +11036,7 @@
       <c r="Y147" s="32">
         <v>27332093</v>
       </c>
-      <c r="Z147" s="39">
+      <c r="Z147" s="33">
         <f t="shared" si="0"/>
         <v>11688992</v>
       </c>
@@ -11049,7 +11050,7 @@
         <v>2589567</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>36</v>
       </c>
@@ -11125,7 +11126,7 @@
       <c r="Y148" s="32">
         <v>27419476</v>
       </c>
-      <c r="Z148" s="39">
+      <c r="Z148" s="33">
         <f t="shared" si="0"/>
         <v>11804288</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>2647258</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>35</v>
       </c>
@@ -11215,7 +11216,7 @@
       <c r="Y149" s="32">
         <v>29249471</v>
       </c>
-      <c r="Z149" s="39">
+      <c r="Z149" s="33">
         <f t="shared" si="0"/>
         <v>12474023</v>
       </c>
@@ -11229,7 +11230,7 @@
         <v>2861666</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>34</v>
       </c>
@@ -11305,7 +11306,7 @@
       <c r="Y150" s="32">
         <v>28792254</v>
       </c>
-      <c r="Z150" s="39">
+      <c r="Z150" s="33">
         <f t="shared" si="0"/>
         <v>12638714</v>
       </c>
@@ -11319,7 +11320,7 @@
         <v>2800260</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>33</v>
       </c>
@@ -11395,7 +11396,7 @@
       <c r="Y151" s="32">
         <v>28857383</v>
       </c>
-      <c r="Z151" s="39">
+      <c r="Z151" s="33">
         <f t="shared" si="0"/>
         <v>12988766</v>
       </c>
@@ -11409,7 +11410,7 @@
         <v>2827066</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>32</v>
       </c>
@@ -11485,7 +11486,7 @@
       <c r="Y152" s="32">
         <v>29442733</v>
       </c>
-      <c r="Z152" s="39">
+      <c r="Z152" s="33">
         <f t="shared" si="0"/>
         <v>13201116</v>
       </c>
@@ -11499,7 +11500,7 @@
         <v>2886897</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>31</v>
       </c>
@@ -11575,7 +11576,7 @@
       <c r="Y153" s="32">
         <v>27785633</v>
       </c>
-      <c r="Z153" s="39">
+      <c r="Z153" s="33">
         <f t="shared" si="0"/>
         <v>11445661</v>
       </c>
@@ -11589,7 +11590,7 @@
         <v>2519506</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>30</v>
       </c>
@@ -11665,7 +11666,7 @@
       <c r="Y154" s="32">
         <v>28109963</v>
       </c>
-      <c r="Z154" s="39">
+      <c r="Z154" s="33">
         <f t="shared" si="0"/>
         <v>11817982</v>
       </c>
@@ -11679,7 +11680,7 @@
         <v>2673151</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>178</v>
       </c>
@@ -11755,7 +11756,7 @@
       <c r="Y155" s="32">
         <v>26913543</v>
       </c>
-      <c r="Z155" s="39">
+      <c r="Z155" s="33">
         <f t="shared" si="0"/>
         <v>10758155</v>
       </c>
@@ -11769,7 +11770,7 @@
         <v>2478342</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>29</v>
       </c>
@@ -11845,7 +11846,7 @@
       <c r="Y156" s="32">
         <v>26955736</v>
       </c>
-      <c r="Z156" s="39">
+      <c r="Z156" s="33">
         <f t="shared" si="0"/>
         <v>11828296</v>
       </c>
@@ -11859,7 +11860,7 @@
         <v>2686834</v>
       </c>
     </row>
-    <row r="157" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>198</v>
       </c>
@@ -11933,7 +11934,7 @@
       <c r="Y157" s="12">
         <v>329396609</v>
       </c>
-      <c r="Z157" s="40">
+      <c r="Z157" s="34">
         <f t="shared" si="0"/>
         <v>139972418</v>
       </c>
@@ -11950,7 +11951,7 @@
         <v>31084894</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>28</v>
       </c>
@@ -12026,7 +12027,7 @@
       <c r="Y158" s="32">
         <v>25368494</v>
       </c>
-      <c r="Z158" s="39">
+      <c r="Z158" s="33">
         <f t="shared" si="0"/>
         <v>10483476</v>
       </c>
@@ -12039,8 +12040,9 @@
       <c r="AC158" s="32">
         <v>2142510</v>
       </c>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE158" s="42"/>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>27</v>
       </c>
@@ -12116,7 +12118,7 @@
       <c r="Y159" s="32">
         <v>24540667</v>
       </c>
-      <c r="Z159" s="39">
+      <c r="Z159" s="33">
         <f t="shared" si="0"/>
         <v>9653387</v>
       </c>
@@ -12129,8 +12131,9 @@
       <c r="AC159" s="32">
         <v>2112051</v>
       </c>
-    </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE159" s="42"/>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>26</v>
       </c>
@@ -12200,7 +12203,7 @@
       <c r="Y160" s="32">
         <v>18934838</v>
       </c>
-      <c r="Z160" s="39">
+      <c r="Z160" s="33">
         <f t="shared" si="0"/>
         <v>5122553</v>
       </c>
@@ -12213,8 +12216,9 @@
       <c r="AC160" s="32">
         <v>1050174</v>
       </c>
-    </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE160" s="42"/>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>25</v>
       </c>
@@ -12284,7 +12288,7 @@
       <c r="Y161" s="32">
         <v>9730391</v>
       </c>
-      <c r="Z161" s="39">
+      <c r="Z161" s="33">
         <f t="shared" si="0"/>
         <v>185435</v>
       </c>
@@ -12297,8 +12301,9 @@
       <c r="AC161" s="32">
         <v>37294</v>
       </c>
-    </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE161" s="42"/>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>24</v>
       </c>
@@ -12368,7 +12373,7 @@
       <c r="Y162" s="32">
         <v>14953991</v>
       </c>
-      <c r="Z162" s="39">
+      <c r="Z162" s="33">
         <f t="shared" si="0"/>
         <v>375008</v>
       </c>
@@ -12381,8 +12386,9 @@
       <c r="AC162" s="32">
         <v>89690</v>
       </c>
-    </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE162" s="42"/>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>23</v>
       </c>
@@ -12452,7 +12458,7 @@
       <c r="Y163" s="32">
         <v>20001850</v>
       </c>
-      <c r="Z163" s="39">
+      <c r="Z163" s="33">
         <f t="shared" si="0"/>
         <v>1016908</v>
       </c>
@@ -12465,8 +12471,9 @@
       <c r="AC163" s="32">
         <v>268512</v>
       </c>
-    </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE163" s="42"/>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>22</v>
       </c>
@@ -12536,7 +12543,7 @@
       <c r="Y164" s="32">
         <v>23322086</v>
       </c>
-      <c r="Z164" s="39">
+      <c r="Z164" s="33">
         <f t="shared" si="0"/>
         <v>1719392</v>
       </c>
@@ -12549,8 +12556,9 @@
       <c r="AC164" s="32">
         <v>355040</v>
       </c>
-    </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE164" s="42"/>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>21</v>
       </c>
@@ -12620,7 +12628,7 @@
       <c r="Y165" s="32">
         <v>24423978</v>
       </c>
-      <c r="Z165" s="39">
+      <c r="Z165" s="33">
         <f t="shared" si="0"/>
         <v>2147509</v>
       </c>
@@ -12633,8 +12641,9 @@
       <c r="AC165" s="32">
         <v>383677</v>
       </c>
-    </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE165" s="42"/>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>20</v>
       </c>
@@ -12704,7 +12713,7 @@
       <c r="Y166" s="32">
         <v>24002326</v>
       </c>
-      <c r="Z166" s="39">
+      <c r="Z166" s="33">
         <f t="shared" si="0"/>
         <v>2054556</v>
       </c>
@@ -12717,8 +12726,9 @@
       <c r="AC166" s="32">
         <v>398377</v>
       </c>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE166" s="42"/>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
@@ -12788,7 +12798,7 @@
       <c r="Y167" s="32">
         <v>24436257</v>
       </c>
-      <c r="Z167" s="39">
+      <c r="Z167" s="33">
         <f t="shared" si="0"/>
         <v>2518691</v>
       </c>
@@ -12801,8 +12811,9 @@
       <c r="AC167" s="32">
         <v>442018</v>
       </c>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE167" s="42"/>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>18</v>
       </c>
@@ -12872,7 +12883,7 @@
       <c r="Y168" s="32">
         <v>21889990</v>
       </c>
-      <c r="Z168" s="39">
+      <c r="Z168" s="33">
         <f t="shared" si="0"/>
         <v>2563936</v>
       </c>
@@ -12885,8 +12896,9 @@
       <c r="AC168" s="32">
         <v>445031</v>
       </c>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE168" s="42"/>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>17</v>
       </c>
@@ -12956,7 +12968,7 @@
       <c r="Y169" s="32">
         <v>21579179</v>
       </c>
-      <c r="Z169" s="39">
+      <c r="Z169" s="33">
         <f t="shared" si="0"/>
         <v>2927875</v>
       </c>
@@ -12969,8 +12981,9 @@
       <c r="AC169" s="32">
         <v>520818</v>
       </c>
-    </row>
-    <row r="170" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE169" s="42"/>
+    </row>
+    <row r="170" spans="1:31" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>199</v>
       </c>
@@ -13040,7 +13053,7 @@
       <c r="Y170" s="12">
         <v>253184047</v>
       </c>
-      <c r="Z170" s="40">
+      <c r="Z170" s="34">
         <f t="shared" si="0"/>
         <v>40768726</v>
       </c>
@@ -13054,7 +13067,7 @@
         <v>8245192</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>16</v>
       </c>
@@ -13124,7 +13137,7 @@
       <c r="Y171" s="32">
         <v>21014689</v>
       </c>
-      <c r="Z171" s="39">
+      <c r="Z171" s="33">
         <f t="shared" si="0"/>
         <v>2795292</v>
       </c>
@@ -13137,8 +13150,9 @@
       <c r="AC171" s="32">
         <v>490261</v>
       </c>
-    </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE171" s="42"/>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>15</v>
       </c>
@@ -13208,7 +13222,7 @@
       <c r="Y172" s="32">
         <v>18255540</v>
       </c>
-      <c r="Z172" s="39">
+      <c r="Z172" s="33">
         <f t="shared" si="0"/>
         <v>2469326</v>
       </c>
@@ -13221,8 +13235,9 @@
       <c r="AC172" s="32">
         <v>428684</v>
       </c>
-    </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE172" s="42"/>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>14</v>
       </c>
@@ -13292,7 +13307,7 @@
       <c r="Y173" s="32">
         <v>24335609</v>
       </c>
-      <c r="Z173" s="39">
+      <c r="Z173" s="33">
         <f t="shared" si="0"/>
         <v>3621183</v>
       </c>
@@ -13305,8 +13320,9 @@
       <c r="AC173" s="32">
         <v>698607</v>
       </c>
-    </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE173" s="42"/>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>13</v>
       </c>
@@ -13376,7 +13392,7 @@
       <c r="Y174" s="32">
         <v>24896430</v>
       </c>
-      <c r="Z174" s="39">
+      <c r="Z174" s="33">
         <f t="shared" si="0"/>
         <v>4616493</v>
       </c>
@@ -13389,8 +13405,9 @@
       <c r="AC174" s="32">
         <v>898135</v>
       </c>
-    </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE174" s="42"/>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>12</v>
       </c>
@@ -13460,7 +13477,7 @@
       <c r="Y175" s="32">
         <v>26848094</v>
       </c>
-      <c r="Z175" s="39">
+      <c r="Z175" s="33">
         <f t="shared" si="0"/>
         <v>5739053</v>
       </c>
@@ -13473,8 +13490,9 @@
       <c r="AC175" s="32">
         <v>1093336</v>
       </c>
-    </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE175" s="42"/>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>11</v>
       </c>
@@ -13544,7 +13562,7 @@
       <c r="Y176" s="32">
         <v>27834962</v>
       </c>
-      <c r="Z176" s="39">
+      <c r="Z176" s="33">
         <f t="shared" si="0"/>
         <v>6689446</v>
       </c>
@@ -13557,8 +13575,9 @@
       <c r="AC176" s="32">
         <v>1187689</v>
       </c>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE176" s="42"/>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -13628,7 +13647,7 @@
       <c r="Y177" s="32">
         <v>28032430</v>
       </c>
-      <c r="Z177" s="39">
+      <c r="Z177" s="33">
         <f t="shared" si="0"/>
         <v>8231518</v>
       </c>
@@ -13641,8 +13660,9 @@
       <c r="AC177" s="32">
         <v>1673780</v>
       </c>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE177" s="42"/>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>9</v>
       </c>
@@ -13712,7 +13732,7 @@
       <c r="Y178" s="32">
         <v>28090122</v>
       </c>
-      <c r="Z178" s="39">
+      <c r="Z178" s="33">
         <f t="shared" si="0"/>
         <v>8263910</v>
       </c>
@@ -13725,8 +13745,9 @@
       <c r="AC178" s="32">
         <v>1511171</v>
       </c>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE178" s="42"/>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>8</v>
       </c>
@@ -13796,7 +13817,7 @@
       <c r="Y179" s="32">
         <v>27056983</v>
       </c>
-      <c r="Z179" s="39">
+      <c r="Z179" s="33">
         <f t="shared" si="0"/>
         <v>6856613</v>
       </c>
@@ -13809,8 +13830,9 @@
       <c r="AC179" s="32">
         <v>1454194</v>
       </c>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE179" s="42"/>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>7</v>
       </c>
@@ -13880,7 +13902,7 @@
       <c r="Y180" s="32">
         <v>28078500</v>
       </c>
-      <c r="Z180" s="39">
+      <c r="Z180" s="33">
         <f t="shared" si="0"/>
         <v>7694847</v>
       </c>
@@ -13893,8 +13915,9 @@
       <c r="AC180" s="32">
         <v>1820011</v>
       </c>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE180" s="42"/>
+    </row>
+    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>6</v>
       </c>
@@ -13964,7 +13987,7 @@
       <c r="Y181" s="32">
         <v>26839397</v>
       </c>
-      <c r="Z181" s="39">
+      <c r="Z181" s="33">
         <f t="shared" si="0"/>
         <v>9186375</v>
       </c>
@@ -13977,8 +14000,9 @@
       <c r="AC181" s="32">
         <v>2217536</v>
       </c>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE181" s="42"/>
+    </row>
+    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>88</v>
       </c>
@@ -14048,7 +14072,7 @@
       <c r="Y182" s="32">
         <v>26013482</v>
       </c>
-      <c r="Z182" s="39">
+      <c r="Z182" s="33">
         <f t="shared" si="0"/>
         <v>9472751</v>
       </c>
@@ -14061,8 +14085,9 @@
       <c r="AC182" s="32">
         <v>2183346</v>
       </c>
-    </row>
-    <row r="183" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE182" s="42"/>
+    </row>
+    <row r="183" spans="1:31" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>200</v>
       </c>
@@ -14132,7 +14157,7 @@
       <c r="Y183" s="12">
         <v>307296238</v>
       </c>
-      <c r="Z183" s="40">
+      <c r="Z183" s="34">
         <f t="shared" si="0"/>
         <v>75636807</v>
       </c>
@@ -14146,7 +14171,7 @@
         <v>15656750</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
       <c r="I190" s="14"/>
     </row>
   </sheetData>
@@ -14160,8 +14185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C429C9-6E20-46E5-A73D-03E9F6692ECC}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14817,7 +14842,7 @@
       <c r="J14" s="1">
         <v>40768726</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -14892,10 +14917,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6FA1A-7027-4295-B591-078C141CD45C}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14916,47 +14941,52 @@
     <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="16.109375" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="Q1" s="33"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="S1" s="36"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
       <c r="B2" s="15" t="s">
         <v>239</v>
       </c>
@@ -15005,8 +15035,14 @@
       <c r="Q2" s="18" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -15074,8 +15110,16 @@
         <f>master!W158/master!W145</f>
         <v>1.0203780597931029</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="1">
+        <f>master!Z158</f>
+        <v>10483476</v>
+      </c>
+      <c r="S3" s="23">
+        <f>master!Z158/master!Z145</f>
+        <v>1.0427845529668325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -15143,8 +15187,16 @@
         <f>master!W159/master!W146</f>
         <v>1.0504163517615346</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="1">
+        <f>master!Z159</f>
+        <v>9653387</v>
+      </c>
+      <c r="S4" s="23">
+        <f>master!Z159/master!Z146</f>
+        <v>1.0410122767232495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -15212,8 +15264,16 @@
         <f>master!W160/master!W147</f>
         <v>0.70095666758082953</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="1">
+        <f>master!Z160</f>
+        <v>5122553</v>
+      </c>
+      <c r="S5" s="23">
+        <f>master!Z160/master!Z147</f>
+        <v>0.43823736041568001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -15281,8 +15341,16 @@
         <f>master!W161/master!W148</f>
         <v>0.36502686178200267</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="1">
+        <f>master!Z161</f>
+        <v>185435</v>
+      </c>
+      <c r="S6" s="23">
+        <f>master!Z161/master!Z148</f>
+        <v>1.570912197330326E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -15350,8 +15418,16 @@
         <f>master!W162/master!W149</f>
         <v>0.52905288729466249</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="1">
+        <f>master!Z162</f>
+        <v>375008</v>
+      </c>
+      <c r="S7" s="23">
+        <f>master!Z162/master!Z149</f>
+        <v>3.0063115965073977E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -15419,8 +15495,16 @@
         <f>master!W163/master!W150</f>
         <v>0.70669953801710295</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="1">
+        <f>master!Z163</f>
+        <v>1016908</v>
+      </c>
+      <c r="S8" s="23">
+        <f>master!Z163/master!Z150</f>
+        <v>8.0459768296046577E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -15488,8 +15572,16 @@
         <f>master!W164/master!W151</f>
         <v>0.81632288641155404</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="1">
+        <f>master!Z164</f>
+        <v>1719392</v>
+      </c>
+      <c r="S9" s="23">
+        <f>master!Z164/master!Z151</f>
+        <v>0.13237531571513414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -15557,8 +15649,16 @@
         <f>master!W165/master!W152</f>
         <v>0.83860078239516611</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="1">
+        <f>master!Z165</f>
+        <v>2147509</v>
+      </c>
+      <c r="S10" s="23">
+        <f>master!Z165/master!Z152</f>
+        <v>0.16267632221397038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -15626,8 +15726,16 @@
         <f>master!W166/master!W153</f>
         <v>0.86970046004884716</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="1">
+        <f>master!Z166</f>
+        <v>2054556</v>
+      </c>
+      <c r="S11" s="23">
+        <f>master!Z166/master!Z153</f>
+        <v>0.17950522909948147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -15695,8 +15803,16 @@
         <f>master!W167/master!W154</f>
         <v>0.87437041327007015</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="1">
+        <f>master!Z167</f>
+        <v>2518691</v>
+      </c>
+      <c r="S12" s="23">
+        <f>master!Z167/master!Z154</f>
+        <v>0.21312361112074801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -15764,8 +15880,16 @@
         <f>master!W168/master!W155</f>
         <v>0.82016686935302874</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="1">
+        <f>master!Z168</f>
+        <v>2563936</v>
+      </c>
+      <c r="S13" s="23">
+        <f>master!Z168/master!Z155</f>
+        <v>0.23832488005610628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -15833,8 +15957,16 @@
         <f>master!W169/master!W156</f>
         <v>0.8033989227205971</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="1">
+        <f>master!Z169</f>
+        <v>2927875</v>
+      </c>
+      <c r="S14" s="23">
+        <f>master!Z169/master!Z156</f>
+        <v>0.24753142802648834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -15902,8 +16034,16 @@
         <f>master!W171/master!W145</f>
         <v>0.85477768350101146</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="1">
+        <f>master!Z171</f>
+        <v>2795292</v>
+      </c>
+      <c r="S15" s="23">
+        <f>master!Z171/master!Z145</f>
+        <v>0.27804588083492188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -15971,8 +16111,16 @@
         <f>master!W172/master!W146</f>
         <v>0.7853542957956271</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="1">
+        <f>master!Z172</f>
+        <v>2469326</v>
+      </c>
+      <c r="S16" s="23">
+        <f>master!Z172/master!Z146</f>
+        <v>0.26628981944180985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -16040,8 +16188,16 @@
         <f>master!W173/master!W147</f>
         <v>0.89953226626712424</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="1">
+        <f>master!Z173</f>
+        <v>3621183</v>
+      </c>
+      <c r="S17" s="23">
+        <f>master!Z173/master!Z147</f>
+        <v>0.30979429192867958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -16109,8 +16265,16 @@
         <f>master!W174/master!W148</f>
         <v>0.91373149284469424</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="1">
+        <f>master!Z174</f>
+        <v>4616493</v>
+      </c>
+      <c r="S18" s="23">
+        <f>master!Z174/master!Z148</f>
+        <v>0.39108610362607216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -16178,8 +16342,16 @@
         <f>master!W175/master!W149</f>
         <v>0.92740466584152925</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="1">
+        <f>master!Z175</f>
+        <v>5739053</v>
+      </c>
+      <c r="S19" s="23">
+        <f>master!Z175/master!Z149</f>
+        <v>0.46008036060218904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -16247,8 +16419,16 @@
         <f>master!W176/master!W150</f>
         <v>0.97028872794593624</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="1">
+        <f>master!Z176</f>
+        <v>6689446</v>
+      </c>
+      <c r="S20" s="23">
+        <f>master!Z176/master!Z150</f>
+        <v>0.52928217222100282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -16316,8 +16496,16 @@
         <f>master!W177/master!W151</f>
         <v>0.97747253026069825</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="1">
+        <f>master!Z177</f>
+        <v>8231518</v>
+      </c>
+      <c r="S21" s="23">
+        <f>master!Z177/master!Z151</f>
+        <v>0.63374134232613011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -16385,8 +16573,16 @@
         <f>master!W178/master!W152</f>
         <v>0.95850599975749162</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="1">
+        <f>master!Z178</f>
+        <v>8263910</v>
+      </c>
+      <c r="S22" s="23">
+        <f>master!Z178/master!Z152</f>
+        <v>0.62600086235133456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -16454,8 +16650,16 @@
         <f>master!W179/master!W153</f>
         <v>0.97147461300727533</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="1">
+        <f>master!Z179</f>
+        <v>6856613</v>
+      </c>
+      <c r="S23" s="23">
+        <f>master!Z179/master!Z153</f>
+        <v>0.59905784384143479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -16523,8 +16727,16 @@
         <f>master!W180/master!W154</f>
         <v>0.99675987119702925</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="1">
+        <f>master!Z180</f>
+        <v>7694847</v>
+      </c>
+      <c r="S24" s="23">
+        <f>master!Z180/master!Z154</f>
+        <v>0.65111344728736265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -16592,8 +16804,16 @@
         <f>master!W181/master!W155</f>
         <v>0.99513563525241244</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="1">
+        <f>master!Z181</f>
+        <v>9186375</v>
+      </c>
+      <c r="S25" s="23">
+        <f>master!Z181/master!Z155</f>
+        <v>0.85389874007206623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -16661,17 +16881,26 @@
         <f>master!W182/master!W156</f>
         <v>0.96314670824737736</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="1">
+        <f>master!Z182</f>
+        <v>9472751</v>
+      </c>
+      <c r="S26" s="23">
+        <f>master!Z182/master!Z156</f>
+        <v>0.80085508512806913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
@@ -16726,13 +16955,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="40" t="s">
         <v>201</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -16744,9 +16973,9 @@
       <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="25" t="s">
         <v>214</v>
       </c>
@@ -16758,9 +16987,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="25" t="s">
         <v>211</v>
       </c>
@@ -16772,9 +17001,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="25" t="s">
         <v>204</v>
       </c>
@@ -16786,9 +17015,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="25" t="s">
         <v>213</v>
       </c>
@@ -16800,13 +17029,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="40" t="s">
         <v>201</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -16818,9 +17047,9 @@
       <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="25" t="s">
         <v>222</v>
       </c>
@@ -16832,9 +17061,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="25" t="s">
         <v>204</v>
       </c>
@@ -16844,13 +17073,13 @@
       <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="40" t="s">
         <v>201</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -16862,9 +17091,9 @@
       <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="25" t="s">
         <v>214</v>
       </c>
@@ -16876,9 +17105,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="25" t="s">
         <v>212</v>
       </c>
@@ -16890,9 +17119,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="25" t="s">
         <v>204</v>
       </c>
@@ -16960,10 +17189,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="39" t="s">
         <v>255</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -16980,8 +17209,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="17" t="s">
         <v>201</v>
       </c>
@@ -16993,10 +17222,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="35" t="s">
         <v>265</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -17010,8 +17239,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
       <c r="D20" s="3" t="s">
         <v>266</v>
       </c>
@@ -17020,8 +17249,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
       <c r="D21" s="3"/>
       <c r="E21" s="26"/>
     </row>

--- a/all_modes/ridership.xlsx
+++ b/all_modes/ridership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\all_modes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\all_modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB89B768-8A22-4DE0-B025-798520FF4D82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC622E7-BDFB-4E7F-B81D-7ED3B6E840A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="5" r:id="rId1"/>
@@ -1048,6 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1066,7 +1067,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1352,11 +1352,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6BD9D9-A94A-452F-BE0B-A0E3D87F1ACA}">
   <dimension ref="A1:AE190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W139" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE174" sqref="AE174"/>
+      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,8 +1365,8 @@
     <col min="2" max="2" width="5.109375" style="10" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="11" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="11" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" style="21" customWidth="1"/>
     <col min="8" max="9" width="18.5546875" style="11" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1379,12 +1379,10 @@
     <col min="18" max="21" width="18.5546875" style="11" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" style="11" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="11" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" style="11" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="17.6640625" style="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7673,11 +7671,17 @@
         <v>22206860</v>
       </c>
       <c r="Z106" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA106" s="32"/>
-      <c r="AB106" s="32"/>
-      <c r="AC106" s="32"/>
+        <v>9181202</v>
+      </c>
+      <c r="AA106" s="32">
+        <v>4244083</v>
+      </c>
+      <c r="AB106" s="32">
+        <v>2906809</v>
+      </c>
+      <c r="AC106" s="32">
+        <v>2030310</v>
+      </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
@@ -7753,11 +7757,17 @@
         <v>22379445</v>
       </c>
       <c r="Z107" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="32"/>
-      <c r="AB107" s="32"/>
-      <c r="AC107" s="32"/>
+        <v>8615646</v>
+      </c>
+      <c r="AA107" s="32">
+        <v>3890737</v>
+      </c>
+      <c r="AB107" s="32">
+        <v>2730815</v>
+      </c>
+      <c r="AC107" s="32">
+        <v>1994094</v>
+      </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
@@ -7833,11 +7843,17 @@
         <v>25678007</v>
       </c>
       <c r="Z108" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
+        <v>10611895</v>
+      </c>
+      <c r="AA108" s="32">
+        <v>4755865</v>
+      </c>
+      <c r="AB108" s="32">
+        <v>3338378</v>
+      </c>
+      <c r="AC108" s="32">
+        <v>2517652</v>
+      </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
@@ -7913,11 +7929,17 @@
         <v>25460062</v>
       </c>
       <c r="Z109" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="32"/>
-      <c r="AB109" s="32"/>
-      <c r="AC109" s="32"/>
+        <v>10549700</v>
+      </c>
+      <c r="AA109" s="32">
+        <v>4737920</v>
+      </c>
+      <c r="AB109" s="32">
+        <v>3357881</v>
+      </c>
+      <c r="AC109" s="32">
+        <v>2453899</v>
+      </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
@@ -7993,11 +8015,17 @@
         <v>27041559</v>
       </c>
       <c r="Z110" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA110" s="32"/>
-      <c r="AB110" s="32"/>
-      <c r="AC110" s="32"/>
+        <v>11351442</v>
+      </c>
+      <c r="AA110" s="32">
+        <v>5147681</v>
+      </c>
+      <c r="AB110" s="32">
+        <v>3547440</v>
+      </c>
+      <c r="AC110" s="32">
+        <v>2656321</v>
+      </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
@@ -8073,11 +8101,17 @@
         <v>27281473</v>
       </c>
       <c r="Z111" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA111" s="32"/>
-      <c r="AB111" s="32"/>
-      <c r="AC111" s="32"/>
+        <v>11658349</v>
+      </c>
+      <c r="AA111" s="32">
+        <v>5362291</v>
+      </c>
+      <c r="AB111" s="32">
+        <v>3596663</v>
+      </c>
+      <c r="AC111" s="32">
+        <v>2699395</v>
+      </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
@@ -8153,11 +8187,17 @@
         <v>27279840</v>
       </c>
       <c r="Z112" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA112" s="32"/>
-      <c r="AB112" s="32"/>
-      <c r="AC112" s="32"/>
+        <v>12093726</v>
+      </c>
+      <c r="AA112" s="32">
+        <v>5708707</v>
+      </c>
+      <c r="AB112" s="32">
+        <v>3720302</v>
+      </c>
+      <c r="AC112" s="32">
+        <v>2664717</v>
+      </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
@@ -8233,11 +8273,17 @@
         <v>27620446</v>
       </c>
       <c r="Z113" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA113" s="32"/>
-      <c r="AB113" s="32"/>
-      <c r="AC113" s="32"/>
+        <v>12293813</v>
+      </c>
+      <c r="AA113" s="32">
+        <v>5849941</v>
+      </c>
+      <c r="AB113" s="32">
+        <v>3787577</v>
+      </c>
+      <c r="AC113" s="32">
+        <v>2656295</v>
+      </c>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
@@ -8313,11 +8359,17 @@
         <v>26043256</v>
       </c>
       <c r="Z114" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA114" s="32"/>
-      <c r="AB114" s="32"/>
-      <c r="AC114" s="32"/>
+        <v>11168328</v>
+      </c>
+      <c r="AA114" s="32">
+        <v>5152464</v>
+      </c>
+      <c r="AB114" s="32">
+        <v>3311461</v>
+      </c>
+      <c r="AC114" s="32">
+        <v>2704403</v>
+      </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
@@ -8393,11 +8445,17 @@
         <v>26022431</v>
       </c>
       <c r="Z115" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA115" s="32"/>
-      <c r="AB115" s="32"/>
-      <c r="AC115" s="32"/>
+        <v>10830035</v>
+      </c>
+      <c r="AA115" s="32">
+        <v>4936656</v>
+      </c>
+      <c r="AB115" s="32">
+        <v>3374434</v>
+      </c>
+      <c r="AC115" s="32">
+        <v>2518945</v>
+      </c>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -8473,11 +8531,17 @@
         <v>25130058</v>
       </c>
       <c r="Z116" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA116" s="32"/>
-      <c r="AB116" s="32"/>
-      <c r="AC116" s="32"/>
+        <v>10303930</v>
+      </c>
+      <c r="AA116" s="32">
+        <v>4488489</v>
+      </c>
+      <c r="AB116" s="32">
+        <v>3363097</v>
+      </c>
+      <c r="AC116" s="32">
+        <v>2452344</v>
+      </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
@@ -8553,11 +8617,17 @@
         <v>25273158</v>
       </c>
       <c r="Z117" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="32"/>
-      <c r="AB117" s="32"/>
-      <c r="AC117" s="32"/>
+        <v>10797501</v>
+      </c>
+      <c r="AA117" s="32">
+        <v>4830679</v>
+      </c>
+      <c r="AB117" s="32">
+        <v>3528428</v>
+      </c>
+      <c r="AC117" s="32">
+        <v>2438394</v>
+      </c>
     </row>
     <row r="118" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
@@ -8631,12 +8701,18 @@
       <c r="Y118" s="12">
         <v>307416595</v>
       </c>
-      <c r="Z118" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA118" s="12"/>
-      <c r="AB118" s="12"/>
-      <c r="AC118" s="12"/>
+      <c r="Z118" s="34">
+        <v>129455567</v>
+      </c>
+      <c r="AA118" s="12">
+        <v>59105513</v>
+      </c>
+      <c r="AB118" s="12">
+        <v>40563285</v>
+      </c>
+      <c r="AC118" s="12">
+        <v>29786769</v>
+      </c>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
@@ -8712,11 +8788,17 @@
         <v>23452652</v>
       </c>
       <c r="Z119" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA119" s="32"/>
-      <c r="AB119" s="32"/>
-      <c r="AC119" s="32"/>
+        <v>9735447</v>
+      </c>
+      <c r="AA119" s="32">
+        <v>4486811</v>
+      </c>
+      <c r="AB119" s="32">
+        <v>3205695</v>
+      </c>
+      <c r="AC119" s="32">
+        <v>2042941</v>
+      </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
@@ -8792,11 +8874,17 @@
         <v>21620767</v>
       </c>
       <c r="Z120" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA120" s="32"/>
-      <c r="AB120" s="32"/>
-      <c r="AC120" s="32"/>
+        <v>8721745</v>
+      </c>
+      <c r="AA120" s="32">
+        <v>3808065</v>
+      </c>
+      <c r="AB120" s="32">
+        <v>3026314</v>
+      </c>
+      <c r="AC120" s="32">
+        <v>1887366</v>
+      </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
@@ -8872,11 +8960,17 @@
         <v>24595618</v>
       </c>
       <c r="Z121" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA121" s="32"/>
-      <c r="AB121" s="32"/>
-      <c r="AC121" s="32"/>
+        <v>10609206</v>
+      </c>
+      <c r="AA121" s="32">
+        <v>4663061</v>
+      </c>
+      <c r="AB121" s="32">
+        <v>3524305</v>
+      </c>
+      <c r="AC121" s="32">
+        <v>2421840</v>
+      </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
@@ -8952,11 +9046,17 @@
         <v>25354830</v>
       </c>
       <c r="Z122" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA122" s="32"/>
-      <c r="AB122" s="32"/>
-      <c r="AC122" s="32"/>
+        <v>11137544</v>
+      </c>
+      <c r="AA122" s="32">
+        <v>5038142</v>
+      </c>
+      <c r="AB122" s="32">
+        <v>3631231</v>
+      </c>
+      <c r="AC122" s="32">
+        <v>2468171</v>
+      </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
@@ -9035,11 +9135,17 @@
         <v>26717750</v>
       </c>
       <c r="Z123" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA123" s="32"/>
-      <c r="AB123" s="32"/>
-      <c r="AC123" s="32"/>
+        <v>11516145</v>
+      </c>
+      <c r="AA123" s="32">
+        <v>5142597</v>
+      </c>
+      <c r="AB123" s="32">
+        <v>3738832</v>
+      </c>
+      <c r="AC123" s="32">
+        <v>2634716</v>
+      </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
@@ -9118,11 +9224,17 @@
         <v>27133265</v>
       </c>
       <c r="Z124" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA124" s="32"/>
-      <c r="AB124" s="32"/>
-      <c r="AC124" s="32"/>
+        <v>11888178</v>
+      </c>
+      <c r="AA124" s="32">
+        <v>5477601</v>
+      </c>
+      <c r="AB124" s="32">
+        <v>3768913</v>
+      </c>
+      <c r="AC124" s="32">
+        <v>2641664</v>
+      </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -9201,11 +9313,17 @@
         <v>27530620</v>
       </c>
       <c r="Z125" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA125" s="32"/>
-      <c r="AB125" s="32"/>
-      <c r="AC125" s="32"/>
+        <v>12583972</v>
+      </c>
+      <c r="AA125" s="32">
+        <v>5865760</v>
+      </c>
+      <c r="AB125" s="32">
+        <v>4091881</v>
+      </c>
+      <c r="AC125" s="32">
+        <v>2626331</v>
+      </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
@@ -9284,11 +9402,17 @@
         <v>28271494</v>
       </c>
       <c r="Z126" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA126" s="32"/>
-      <c r="AB126" s="32"/>
-      <c r="AC126" s="32"/>
+        <v>12766104</v>
+      </c>
+      <c r="AA126" s="32">
+        <v>6007903</v>
+      </c>
+      <c r="AB126" s="32">
+        <v>4049567</v>
+      </c>
+      <c r="AC126" s="32">
+        <v>2708634</v>
+      </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
@@ -9367,11 +9491,17 @@
         <v>26559138</v>
       </c>
       <c r="Z127" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA127" s="32"/>
-      <c r="AB127" s="32"/>
-      <c r="AC127" s="32"/>
+        <v>10652375</v>
+      </c>
+      <c r="AA127" s="32">
+        <v>4893624</v>
+      </c>
+      <c r="AB127" s="32">
+        <v>3387176</v>
+      </c>
+      <c r="AC127" s="32">
+        <v>2371575</v>
+      </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
@@ -9450,11 +9580,17 @@
         <v>27068258</v>
       </c>
       <c r="Z128" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA128" s="32"/>
-      <c r="AB128" s="32"/>
-      <c r="AC128" s="32"/>
+        <v>11180250</v>
+      </c>
+      <c r="AA128" s="32">
+        <v>4768329</v>
+      </c>
+      <c r="AB128" s="32">
+        <v>3672913</v>
+      </c>
+      <c r="AC128" s="32">
+        <v>2739008</v>
+      </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
@@ -9533,11 +9669,17 @@
         <v>25955869</v>
       </c>
       <c r="Z129" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA129" s="32"/>
-      <c r="AB129" s="32"/>
-      <c r="AC129" s="32"/>
+        <v>10458539</v>
+      </c>
+      <c r="AA129" s="32">
+        <v>4496948</v>
+      </c>
+      <c r="AB129" s="32">
+        <v>3413833</v>
+      </c>
+      <c r="AC129" s="32">
+        <v>2547758</v>
+      </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
@@ -9616,11 +9758,17 @@
         <v>25737055</v>
       </c>
       <c r="Z130" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA130" s="32"/>
-      <c r="AB130" s="32"/>
-      <c r="AC130" s="32"/>
+        <v>10945460</v>
+      </c>
+      <c r="AA130" s="32">
+        <v>4743659</v>
+      </c>
+      <c r="AB130" s="32">
+        <v>3723501</v>
+      </c>
+      <c r="AC130" s="32">
+        <v>2478300</v>
+      </c>
     </row>
     <row r="131" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
@@ -9696,12 +9844,18 @@
       <c r="Y131" s="12">
         <v>309997316</v>
       </c>
-      <c r="Z131" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA131" s="12"/>
-      <c r="AB131" s="12"/>
-      <c r="AC131" s="12"/>
+      <c r="Z131" s="34">
+        <v>132194965</v>
+      </c>
+      <c r="AA131" s="12">
+        <v>59392500</v>
+      </c>
+      <c r="AB131" s="12">
+        <v>43234161</v>
+      </c>
+      <c r="AC131" s="12">
+        <v>29568304</v>
+      </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
@@ -9780,11 +9934,17 @@
         <v>23731837</v>
       </c>
       <c r="Z132" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA132" s="32"/>
-      <c r="AB132" s="32"/>
-      <c r="AC132" s="32"/>
+        <v>9526019</v>
+      </c>
+      <c r="AA132" s="32">
+        <v>4256541</v>
+      </c>
+      <c r="AB132" s="32">
+        <v>3257093</v>
+      </c>
+      <c r="AC132" s="32">
+        <v>2012385</v>
+      </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
@@ -9863,11 +10023,17 @@
         <v>22742698</v>
       </c>
       <c r="Z133" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA133" s="32"/>
-      <c r="AB133" s="32"/>
-      <c r="AC133" s="32"/>
+        <v>9250409</v>
+      </c>
+      <c r="AA133" s="32">
+        <v>3940279</v>
+      </c>
+      <c r="AB133" s="32">
+        <v>3307418</v>
+      </c>
+      <c r="AC133" s="32">
+        <v>2002712</v>
+      </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
@@ -9946,11 +10112,17 @@
         <v>25672596</v>
       </c>
       <c r="Z134" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA134" s="32"/>
-      <c r="AB134" s="32"/>
-      <c r="AC134" s="32"/>
+        <v>10976792</v>
+      </c>
+      <c r="AA134" s="32">
+        <v>4832541</v>
+      </c>
+      <c r="AB134" s="32">
+        <v>3724003</v>
+      </c>
+      <c r="AC134" s="32">
+        <v>2420248</v>
+      </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
@@ -10029,11 +10201,17 @@
         <v>26519055</v>
       </c>
       <c r="Z135" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA135" s="32"/>
-      <c r="AB135" s="32"/>
-      <c r="AC135" s="32"/>
+        <v>11468480</v>
+      </c>
+      <c r="AA135" s="32">
+        <v>5038239</v>
+      </c>
+      <c r="AB135" s="32">
+        <v>3895340</v>
+      </c>
+      <c r="AC135" s="32">
+        <v>2534901</v>
+      </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
@@ -10112,11 +10290,17 @@
         <v>28226943</v>
       </c>
       <c r="Z136" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA136" s="32"/>
-      <c r="AB136" s="32"/>
-      <c r="AC136" s="32"/>
+        <v>12360532</v>
+      </c>
+      <c r="AA136" s="32">
+        <v>5533739</v>
+      </c>
+      <c r="AB136" s="32">
+        <v>4099575</v>
+      </c>
+      <c r="AC136" s="32">
+        <v>2727218</v>
+      </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
@@ -10195,11 +10379,17 @@
         <v>28546822</v>
       </c>
       <c r="Z137" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA137" s="32"/>
-      <c r="AB137" s="32"/>
-      <c r="AC137" s="32"/>
+        <v>12634586</v>
+      </c>
+      <c r="AA137" s="32">
+        <v>5679229</v>
+      </c>
+      <c r="AB137" s="32">
+        <v>4192442</v>
+      </c>
+      <c r="AC137" s="32">
+        <v>2762915</v>
+      </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
@@ -10278,11 +10468,17 @@
         <v>28561622</v>
       </c>
       <c r="Z138" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA138" s="32"/>
-      <c r="AB138" s="32"/>
-      <c r="AC138" s="32"/>
+        <v>13064431</v>
+      </c>
+      <c r="AA138" s="32">
+        <v>6041910</v>
+      </c>
+      <c r="AB138" s="32">
+        <v>4281169</v>
+      </c>
+      <c r="AC138" s="32">
+        <v>2741352</v>
+      </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
@@ -10361,11 +10557,17 @@
         <v>29280095</v>
       </c>
       <c r="Z139" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA139" s="32"/>
-      <c r="AB139" s="32"/>
-      <c r="AC139" s="32"/>
+        <v>13172538</v>
+      </c>
+      <c r="AA139" s="32">
+        <v>6148330</v>
+      </c>
+      <c r="AB139" s="32">
+        <v>4234559</v>
+      </c>
+      <c r="AC139" s="32">
+        <v>2789649</v>
+      </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
@@ -10444,11 +10646,17 @@
         <v>27175132</v>
       </c>
       <c r="Z140" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA140" s="32"/>
-      <c r="AB140" s="32"/>
-      <c r="AC140" s="32"/>
+        <v>11095402</v>
+      </c>
+      <c r="AA140" s="32">
+        <v>5084305</v>
+      </c>
+      <c r="AB140" s="32">
+        <v>3638739</v>
+      </c>
+      <c r="AC140" s="32">
+        <v>2372358</v>
+      </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
@@ -10527,11 +10735,17 @@
         <v>28301034</v>
       </c>
       <c r="Z141" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA141" s="32"/>
-      <c r="AB141" s="32"/>
-      <c r="AC141" s="32"/>
+        <v>11747409</v>
+      </c>
+      <c r="AA141" s="32">
+        <v>5228051</v>
+      </c>
+      <c r="AB141" s="32">
+        <v>3875677</v>
+      </c>
+      <c r="AC141" s="32">
+        <v>2643681</v>
+      </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
@@ -10610,11 +10824,17 @@
         <v>26584637</v>
       </c>
       <c r="Z142" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA142" s="32"/>
-      <c r="AB142" s="32"/>
-      <c r="AC142" s="32"/>
+        <v>11083793</v>
+      </c>
+      <c r="AA142" s="32">
+        <v>4785508</v>
+      </c>
+      <c r="AB142" s="32">
+        <v>3724766</v>
+      </c>
+      <c r="AC142" s="32">
+        <v>2573519</v>
+      </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
@@ -10693,11 +10913,17 @@
         <v>26946779</v>
       </c>
       <c r="Z143" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA143" s="32"/>
-      <c r="AB143" s="32"/>
-      <c r="AC143" s="32"/>
+        <v>11402614</v>
+      </c>
+      <c r="AA143" s="32">
+        <v>5055084</v>
+      </c>
+      <c r="AB143" s="32">
+        <v>3834394</v>
+      </c>
+      <c r="AC143" s="32">
+        <v>2513136</v>
+      </c>
     </row>
     <row r="144" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
@@ -10773,12 +10999,18 @@
       <c r="Y144" s="12">
         <v>322289250</v>
       </c>
-      <c r="Z144" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA144" s="12"/>
-      <c r="AB144" s="12"/>
-      <c r="AC144" s="12"/>
+      <c r="Z144" s="34">
+        <v>137783005</v>
+      </c>
+      <c r="AA144" s="12">
+        <v>61623756</v>
+      </c>
+      <c r="AB144" s="12">
+        <v>46065175</v>
+      </c>
+      <c r="AC144" s="12">
+        <v>30094074</v>
+      </c>
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -10857,7 +11089,6 @@
         <v>25005762</v>
       </c>
       <c r="Z145" s="33">
-        <f>SUM(AA145:AC145)</f>
         <v>10053348</v>
       </c>
       <c r="AA145" s="32">
@@ -10947,7 +11178,6 @@
         <v>23532562</v>
       </c>
       <c r="Z146" s="33">
-        <f t="shared" ref="Z146:Z183" si="0">SUM(AA146:AC146)</f>
         <v>9273077</v>
       </c>
       <c r="AA146" s="32">
@@ -11037,7 +11267,6 @@
         <v>27332093</v>
       </c>
       <c r="Z147" s="33">
-        <f t="shared" si="0"/>
         <v>11688992</v>
       </c>
       <c r="AA147" s="32">
@@ -11127,7 +11356,6 @@
         <v>27419476</v>
       </c>
       <c r="Z148" s="33">
-        <f t="shared" si="0"/>
         <v>11804288</v>
       </c>
       <c r="AA148" s="32">
@@ -11217,7 +11445,6 @@
         <v>29249471</v>
       </c>
       <c r="Z149" s="33">
-        <f t="shared" si="0"/>
         <v>12474023</v>
       </c>
       <c r="AA149" s="32">
@@ -11307,7 +11534,6 @@
         <v>28792254</v>
       </c>
       <c r="Z150" s="33">
-        <f t="shared" si="0"/>
         <v>12638714</v>
       </c>
       <c r="AA150" s="32">
@@ -11397,7 +11623,6 @@
         <v>28857383</v>
       </c>
       <c r="Z151" s="33">
-        <f t="shared" si="0"/>
         <v>12988766</v>
       </c>
       <c r="AA151" s="32">
@@ -11487,7 +11712,6 @@
         <v>29442733</v>
       </c>
       <c r="Z152" s="33">
-        <f t="shared" si="0"/>
         <v>13201116</v>
       </c>
       <c r="AA152" s="32">
@@ -11577,7 +11801,6 @@
         <v>27785633</v>
       </c>
       <c r="Z153" s="33">
-        <f t="shared" si="0"/>
         <v>11445661</v>
       </c>
       <c r="AA153" s="32">
@@ -11667,7 +11890,6 @@
         <v>28109963</v>
       </c>
       <c r="Z154" s="33">
-        <f t="shared" si="0"/>
         <v>11817982</v>
       </c>
       <c r="AA154" s="32">
@@ -11757,7 +11979,6 @@
         <v>26913543</v>
       </c>
       <c r="Z155" s="33">
-        <f t="shared" si="0"/>
         <v>10758155</v>
       </c>
       <c r="AA155" s="32">
@@ -11847,7 +12068,6 @@
         <v>26955736</v>
       </c>
       <c r="Z156" s="33">
-        <f t="shared" si="0"/>
         <v>11828296</v>
       </c>
       <c r="AA156" s="32">
@@ -11935,19 +12155,15 @@
         <v>329396609</v>
       </c>
       <c r="Z157" s="34">
-        <f t="shared" si="0"/>
         <v>139972418</v>
       </c>
       <c r="AA157" s="12">
-        <f>SUM(AA145:AA156)</f>
         <v>62551072</v>
       </c>
       <c r="AB157" s="12">
-        <f t="shared" ref="AB157:AC157" si="1">SUM(AB145:AB156)</f>
         <v>46336452</v>
       </c>
       <c r="AC157" s="12">
-        <f t="shared" si="1"/>
         <v>31084894</v>
       </c>
     </row>
@@ -12028,7 +12244,6 @@
         <v>25368494</v>
       </c>
       <c r="Z158" s="33">
-        <f t="shared" si="0"/>
         <v>10483476</v>
       </c>
       <c r="AA158" s="32">
@@ -12040,7 +12255,7 @@
       <c r="AC158" s="32">
         <v>2142510</v>
       </c>
-      <c r="AE158" s="42"/>
+      <c r="AE158" s="36"/>
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
@@ -12119,7 +12334,6 @@
         <v>24540667</v>
       </c>
       <c r="Z159" s="33">
-        <f t="shared" si="0"/>
         <v>9653387</v>
       </c>
       <c r="AA159" s="32">
@@ -12131,7 +12345,7 @@
       <c r="AC159" s="32">
         <v>2112051</v>
       </c>
-      <c r="AE159" s="42"/>
+      <c r="AE159" s="36"/>
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
@@ -12204,7 +12418,6 @@
         <v>18934838</v>
       </c>
       <c r="Z160" s="33">
-        <f t="shared" si="0"/>
         <v>5122553</v>
       </c>
       <c r="AA160" s="32">
@@ -12216,7 +12429,7 @@
       <c r="AC160" s="32">
         <v>1050174</v>
       </c>
-      <c r="AE160" s="42"/>
+      <c r="AE160" s="36"/>
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
@@ -12289,7 +12502,6 @@
         <v>9730391</v>
       </c>
       <c r="Z161" s="33">
-        <f t="shared" si="0"/>
         <v>185435</v>
       </c>
       <c r="AA161" s="32">
@@ -12301,7 +12513,7 @@
       <c r="AC161" s="32">
         <v>37294</v>
       </c>
-      <c r="AE161" s="42"/>
+      <c r="AE161" s="36"/>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
@@ -12374,7 +12586,6 @@
         <v>14953991</v>
       </c>
       <c r="Z162" s="33">
-        <f t="shared" si="0"/>
         <v>375008</v>
       </c>
       <c r="AA162" s="32">
@@ -12386,7 +12597,7 @@
       <c r="AC162" s="32">
         <v>89690</v>
       </c>
-      <c r="AE162" s="42"/>
+      <c r="AE162" s="36"/>
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
@@ -12459,7 +12670,6 @@
         <v>20001850</v>
       </c>
       <c r="Z163" s="33">
-        <f t="shared" si="0"/>
         <v>1016908</v>
       </c>
       <c r="AA163" s="32">
@@ -12471,7 +12681,7 @@
       <c r="AC163" s="32">
         <v>268512</v>
       </c>
-      <c r="AE163" s="42"/>
+      <c r="AE163" s="36"/>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
@@ -12544,7 +12754,6 @@
         <v>23322086</v>
       </c>
       <c r="Z164" s="33">
-        <f t="shared" si="0"/>
         <v>1719392</v>
       </c>
       <c r="AA164" s="32">
@@ -12556,7 +12765,7 @@
       <c r="AC164" s="32">
         <v>355040</v>
       </c>
-      <c r="AE164" s="42"/>
+      <c r="AE164" s="36"/>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
@@ -12629,7 +12838,6 @@
         <v>24423978</v>
       </c>
       <c r="Z165" s="33">
-        <f t="shared" si="0"/>
         <v>2147509</v>
       </c>
       <c r="AA165" s="32">
@@ -12641,7 +12849,7 @@
       <c r="AC165" s="32">
         <v>383677</v>
       </c>
-      <c r="AE165" s="42"/>
+      <c r="AE165" s="36"/>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
@@ -12714,7 +12922,6 @@
         <v>24002326</v>
       </c>
       <c r="Z166" s="33">
-        <f t="shared" si="0"/>
         <v>2054556</v>
       </c>
       <c r="AA166" s="32">
@@ -12726,7 +12933,7 @@
       <c r="AC166" s="32">
         <v>398377</v>
       </c>
-      <c r="AE166" s="42"/>
+      <c r="AE166" s="36"/>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
@@ -12799,7 +13006,6 @@
         <v>24436257</v>
       </c>
       <c r="Z167" s="33">
-        <f t="shared" si="0"/>
         <v>2518691</v>
       </c>
       <c r="AA167" s="32">
@@ -12811,7 +13017,7 @@
       <c r="AC167" s="32">
         <v>442018</v>
       </c>
-      <c r="AE167" s="42"/>
+      <c r="AE167" s="36"/>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
@@ -12884,7 +13090,6 @@
         <v>21889990</v>
       </c>
       <c r="Z168" s="33">
-        <f t="shared" si="0"/>
         <v>2563936</v>
       </c>
       <c r="AA168" s="32">
@@ -12896,7 +13101,7 @@
       <c r="AC168" s="32">
         <v>445031</v>
       </c>
-      <c r="AE168" s="42"/>
+      <c r="AE168" s="36"/>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
@@ -12969,7 +13174,6 @@
         <v>21579179</v>
       </c>
       <c r="Z169" s="33">
-        <f t="shared" si="0"/>
         <v>2927875</v>
       </c>
       <c r="AA169" s="32">
@@ -12981,7 +13185,7 @@
       <c r="AC169" s="32">
         <v>520818</v>
       </c>
-      <c r="AE169" s="42"/>
+      <c r="AE169" s="36"/>
     </row>
     <row r="170" spans="1:31" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
@@ -13054,7 +13258,6 @@
         <v>253184047</v>
       </c>
       <c r="Z170" s="34">
-        <f t="shared" si="0"/>
         <v>40768726</v>
       </c>
       <c r="AA170" s="12">
@@ -13138,7 +13341,6 @@
         <v>21014689</v>
       </c>
       <c r="Z171" s="33">
-        <f t="shared" si="0"/>
         <v>2795292</v>
       </c>
       <c r="AA171" s="32">
@@ -13150,7 +13352,7 @@
       <c r="AC171" s="32">
         <v>490261</v>
       </c>
-      <c r="AE171" s="42"/>
+      <c r="AE171" s="36"/>
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
@@ -13223,7 +13425,6 @@
         <v>18255540</v>
       </c>
       <c r="Z172" s="33">
-        <f t="shared" si="0"/>
         <v>2469326</v>
       </c>
       <c r="AA172" s="32">
@@ -13235,7 +13436,7 @@
       <c r="AC172" s="32">
         <v>428684</v>
       </c>
-      <c r="AE172" s="42"/>
+      <c r="AE172" s="36"/>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
@@ -13308,7 +13509,6 @@
         <v>24335609</v>
       </c>
       <c r="Z173" s="33">
-        <f t="shared" si="0"/>
         <v>3621183</v>
       </c>
       <c r="AA173" s="32">
@@ -13320,7 +13520,7 @@
       <c r="AC173" s="32">
         <v>698607</v>
       </c>
-      <c r="AE173" s="42"/>
+      <c r="AE173" s="36"/>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
@@ -13393,7 +13593,6 @@
         <v>24896430</v>
       </c>
       <c r="Z174" s="33">
-        <f t="shared" si="0"/>
         <v>4616493</v>
       </c>
       <c r="AA174" s="32">
@@ -13405,7 +13604,7 @@
       <c r="AC174" s="32">
         <v>898135</v>
       </c>
-      <c r="AE174" s="42"/>
+      <c r="AE174" s="36"/>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
@@ -13478,7 +13677,6 @@
         <v>26848094</v>
       </c>
       <c r="Z175" s="33">
-        <f t="shared" si="0"/>
         <v>5739053</v>
       </c>
       <c r="AA175" s="32">
@@ -13490,7 +13688,7 @@
       <c r="AC175" s="32">
         <v>1093336</v>
       </c>
-      <c r="AE175" s="42"/>
+      <c r="AE175" s="36"/>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
@@ -13563,7 +13761,6 @@
         <v>27834962</v>
       </c>
       <c r="Z176" s="33">
-        <f t="shared" si="0"/>
         <v>6689446</v>
       </c>
       <c r="AA176" s="32">
@@ -13575,7 +13772,7 @@
       <c r="AC176" s="32">
         <v>1187689</v>
       </c>
-      <c r="AE176" s="42"/>
+      <c r="AE176" s="36"/>
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
@@ -13648,7 +13845,6 @@
         <v>28032430</v>
       </c>
       <c r="Z177" s="33">
-        <f t="shared" si="0"/>
         <v>8231518</v>
       </c>
       <c r="AA177" s="32">
@@ -13660,7 +13856,7 @@
       <c r="AC177" s="32">
         <v>1673780</v>
       </c>
-      <c r="AE177" s="42"/>
+      <c r="AE177" s="36"/>
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
@@ -13733,7 +13929,6 @@
         <v>28090122</v>
       </c>
       <c r="Z178" s="33">
-        <f t="shared" si="0"/>
         <v>8263910</v>
       </c>
       <c r="AA178" s="32">
@@ -13745,7 +13940,7 @@
       <c r="AC178" s="32">
         <v>1511171</v>
       </c>
-      <c r="AE178" s="42"/>
+      <c r="AE178" s="36"/>
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
@@ -13818,7 +14013,6 @@
         <v>27056983</v>
       </c>
       <c r="Z179" s="33">
-        <f t="shared" si="0"/>
         <v>6856613</v>
       </c>
       <c r="AA179" s="32">
@@ -13830,7 +14024,7 @@
       <c r="AC179" s="32">
         <v>1454194</v>
       </c>
-      <c r="AE179" s="42"/>
+      <c r="AE179" s="36"/>
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
@@ -13903,7 +14097,6 @@
         <v>28078500</v>
       </c>
       <c r="Z180" s="33">
-        <f t="shared" si="0"/>
         <v>7694847</v>
       </c>
       <c r="AA180" s="32">
@@ -13915,7 +14108,7 @@
       <c r="AC180" s="32">
         <v>1820011</v>
       </c>
-      <c r="AE180" s="42"/>
+      <c r="AE180" s="36"/>
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
@@ -13988,7 +14181,6 @@
         <v>26839397</v>
       </c>
       <c r="Z181" s="33">
-        <f t="shared" si="0"/>
         <v>9186375</v>
       </c>
       <c r="AA181" s="32">
@@ -14000,7 +14192,7 @@
       <c r="AC181" s="32">
         <v>2217536</v>
       </c>
-      <c r="AE181" s="42"/>
+      <c r="AE181" s="36"/>
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
@@ -14073,7 +14265,6 @@
         <v>26013482</v>
       </c>
       <c r="Z182" s="33">
-        <f t="shared" si="0"/>
         <v>9472751</v>
       </c>
       <c r="AA182" s="32">
@@ -14085,7 +14276,7 @@
       <c r="AC182" s="32">
         <v>2183346</v>
       </c>
-      <c r="AE182" s="42"/>
+      <c r="AE182" s="36"/>
     </row>
     <row r="183" spans="1:31" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
@@ -14158,7 +14349,6 @@
         <v>307296238</v>
       </c>
       <c r="Z183" s="34">
-        <f t="shared" si="0"/>
         <v>75636807</v>
       </c>
       <c r="AA183" s="12">
@@ -14919,7 +15109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6FA1A-7027-4295-B591-078C141CD45C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -14945,48 +15135,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="S1" s="36"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="15" t="s">
         <v>239</v>
       </c>
@@ -16955,13 +17145,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>201</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -16973,9 +17163,9 @@
       <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="25" t="s">
         <v>214</v>
       </c>
@@ -16987,9 +17177,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="25" t="s">
         <v>211</v>
       </c>
@@ -17001,9 +17191,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="25" t="s">
         <v>204</v>
       </c>
@@ -17015,9 +17205,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="25" t="s">
         <v>213</v>
       </c>
@@ -17029,13 +17219,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>201</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -17047,9 +17237,9 @@
       <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="25" t="s">
         <v>222</v>
       </c>
@@ -17061,9 +17251,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="25" t="s">
         <v>204</v>
       </c>
@@ -17073,13 +17263,13 @@
       <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>201</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -17091,9 +17281,9 @@
       <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="25" t="s">
         <v>214</v>
       </c>
@@ -17105,9 +17295,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="25" t="s">
         <v>212</v>
       </c>
@@ -17119,9 +17309,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="25" t="s">
         <v>204</v>
       </c>
@@ -17189,10 +17379,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>255</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -17209,8 +17399,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="17" t="s">
         <v>201</v>
       </c>

--- a/all_modes/ridership.xlsx
+++ b/all_modes/ridership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\all_modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC622E7-BDFB-4E7F-B81D-7ED3B6E840A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB42DEE-55B1-4E9D-A818-C2CBEFC4E3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="280">
   <si>
     <t xml:space="preserve">Subway </t>
   </si>
@@ -865,6 +865,21 @@
   </si>
   <si>
     <t>JFK (Passengers)</t>
+  </si>
+  <si>
+    <t>Positive Cases</t>
+  </si>
+  <si>
+    <t>Counts</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>DOHMH</t>
+  </si>
+  <si>
+    <t>Case by Day</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6BD9D9-A94A-452F-BE0B-A0E3D87F1ACA}">
   <dimension ref="A1:AE190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15107,10 +15122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6FA1A-7027-4295-B591-078C141CD45C}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15134,7 +15149,7 @@
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>210</v>
       </c>
@@ -15174,8 +15189,11 @@
         <v>270</v>
       </c>
       <c r="S1" s="37"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
       <c r="B2" s="15" t="s">
         <v>239</v>
@@ -15231,8 +15249,11 @@
       <c r="S2" s="18" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -15308,8 +15329,11 @@
         <f>master!Z158/master!Z145</f>
         <v>1.0427845529668325</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -15385,8 +15409,11 @@
         <f>master!Z159/master!Z146</f>
         <v>1.0410122767232495</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -15462,8 +15489,11 @@
         <f>master!Z160/master!Z147</f>
         <v>0.43823736041568001</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>65181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -15539,8 +15569,11 @@
         <f>master!Z161/master!Z148</f>
         <v>1.570912197330326E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>109297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -15616,8 +15649,11 @@
         <f>master!Z162/master!Z149</f>
         <v>3.0063115965073977E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>28417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -15693,8 +15729,11 @@
         <f>master!Z163/master!Z150</f>
         <v>8.0459768296046577E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>10844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -15770,8 +15809,11 @@
         <f>master!Z164/master!Z151</f>
         <v>0.13237531571513414</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>9786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -15847,8 +15889,11 @@
         <f>master!Z165/master!Z152</f>
         <v>0.16267632221397038</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -15924,8 +15969,11 @@
         <f>master!Z166/master!Z153</f>
         <v>0.17950522909948147</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -16001,8 +16049,11 @@
         <f>master!Z167/master!Z154</f>
         <v>0.21312361112074801</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>16926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -16078,8 +16129,11 @@
         <f>master!Z168/master!Z155</f>
         <v>0.23832488005610628</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>44751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -16155,8 +16209,11 @@
         <f>master!Z169/master!Z156</f>
         <v>0.24753142802648834</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>97771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -16232,8 +16289,11 @@
         <f>master!Z171/master!Z145</f>
         <v>0.27804588083492188</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>138567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -16309,8 +16369,11 @@
         <f>master!Z172/master!Z146</f>
         <v>0.26628981944180985</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>86498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -16386,8 +16449,11 @@
         <f>master!Z173/master!Z147</f>
         <v>0.30979429192867958</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>92036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -16463,8 +16529,11 @@
         <f>master!Z174/master!Z148</f>
         <v>0.39108610362607216</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>54337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -16540,8 +16609,11 @@
         <f>master!Z175/master!Z149</f>
         <v>0.46008036060218904</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>13568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -16617,8 +16689,11 @@
         <f>master!Z176/master!Z150</f>
         <v>0.52928217222100282</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -16694,8 +16769,11 @@
         <f>master!Z177/master!Z151</f>
         <v>0.63374134232613011</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>18830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -16771,8 +16849,11 @@
         <f>master!Z178/master!Z152</f>
         <v>0.62600086235133456</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>46443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -16848,8 +16929,11 @@
         <f>master!Z179/master!Z153</f>
         <v>0.59905784384143479</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>39110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -16925,8 +17009,11 @@
         <f>master!Z180/master!Z154</f>
         <v>0.65111344728736265</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>25257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -17002,8 +17089,11 @@
         <f>master!Z181/master!Z155</f>
         <v>0.85389874007206623</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>31991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -17079,12 +17169,15 @@
         <f>master!Z182/master!Z156</f>
         <v>0.80085508512806913</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>504796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
     </row>
@@ -17108,10 +17201,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCA9939-48E3-4CB2-997E-11CCE7504404}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17439,21 +17532,38 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="15" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F23" s="15" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F27" s="11"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17490,8 +17600,9 @@
     <hyperlink ref="D18" r:id="rId17" xr:uid="{1C472C3F-0655-4B70-B7E3-1086F8B64BBB}"/>
     <hyperlink ref="D20" r:id="rId18" xr:uid="{5729E0C1-1FB5-41E0-9D97-3FD8F364F817}"/>
     <hyperlink ref="D19" r:id="rId19" xr:uid="{A23383D3-F080-4C3A-8ED7-5FB0FC9E3FD3}"/>
+    <hyperlink ref="D21" r:id="rId20" tooltip="cases-by-day.csv" xr:uid="{C213FCD0-6F1C-4CB9-9202-6D89F268D9C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/all_modes/ridership.xlsx
+++ b/all_modes/ridership.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\all_modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB42DEE-55B1-4E9D-A818-C2CBEFC4E3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367CF27F-3CE8-491E-B7EA-42196DE88849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,19 +867,19 @@
     <t>JFK (Passengers)</t>
   </si>
   <si>
-    <t>Positive Cases</t>
-  </si>
-  <si>
     <t>Counts</t>
   </si>
   <si>
-    <t>Case</t>
-  </si>
-  <si>
     <t>DOHMH</t>
   </si>
   <si>
-    <t>Case by Day</t>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Hospitalizations by Day</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:AE190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
@@ -15122,10 +15122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6FA1A-7027-4295-B591-078C141CD45C}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15147,6 +15147,7 @@
     <col min="16" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="16.109375" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -15190,7 +15191,7 @@
       </c>
       <c r="S1" s="37"/>
       <c r="T1" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -15250,7 +15251,7 @@
         <v>240</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -15490,7 +15491,7 @@
         <v>0.43823736041568001</v>
       </c>
       <c r="T5">
-        <v>65181</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -15570,7 +15571,7 @@
         <v>1.570912197330326E-2</v>
       </c>
       <c r="T6">
-        <v>109297</v>
+        <v>27626</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -15650,7 +15651,7 @@
         <v>3.0063115965073977E-2</v>
       </c>
       <c r="T7">
-        <v>28417</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -15730,7 +15731,7 @@
         <v>8.0459768296046577E-2</v>
       </c>
       <c r="T8">
-        <v>10844</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -15810,7 +15811,7 @@
         <v>0.13237531571513414</v>
       </c>
       <c r="T9">
-        <v>9786</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -15890,7 +15891,7 @@
         <v>0.16267632221397038</v>
       </c>
       <c r="T10">
-        <v>7446</v>
+        <v>953</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -15970,7 +15971,7 @@
         <v>0.17950522909948147</v>
       </c>
       <c r="T11">
-        <v>11100</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -16050,7 +16051,7 @@
         <v>0.21312361112074801</v>
       </c>
       <c r="T12">
-        <v>16926</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -16130,7 +16131,7 @@
         <v>0.23832488005610628</v>
       </c>
       <c r="T13">
-        <v>44751</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -16210,7 +16211,7 @@
         <v>0.24753142802648834</v>
       </c>
       <c r="T14">
-        <v>97771</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -16290,7 +16291,7 @@
         <v>0.27804588083492188</v>
       </c>
       <c r="T15">
-        <v>138567</v>
+        <v>11474</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -16370,7 +16371,7 @@
         <v>0.26628981944180985</v>
       </c>
       <c r="T16">
-        <v>86498</v>
+        <v>9228</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -16450,7 +16451,7 @@
         <v>0.30979429192867958</v>
       </c>
       <c r="T17">
-        <v>92036</v>
+        <v>8622</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -16530,7 +16531,7 @@
         <v>0.39108610362607216</v>
       </c>
       <c r="T18">
-        <v>54337</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -16610,7 +16611,7 @@
         <v>0.46008036060218904</v>
       </c>
       <c r="T19">
-        <v>13568</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -16690,7 +16691,7 @@
         <v>0.52928217222100282</v>
       </c>
       <c r="T20">
-        <v>5266</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -16770,7 +16771,7 @@
         <v>0.63374134232613011</v>
       </c>
       <c r="T21">
-        <v>18830</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -16850,7 +16851,7 @@
         <v>0.62600086235133456</v>
       </c>
       <c r="T22">
-        <v>46443</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -16930,7 +16931,7 @@
         <v>0.59905784384143479</v>
       </c>
       <c r="T23">
-        <v>39110</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -17010,7 +17011,7 @@
         <v>0.65111344728736265</v>
       </c>
       <c r="T24">
-        <v>25257</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -17090,7 +17091,7 @@
         <v>0.85389874007206623</v>
       </c>
       <c r="T25">
-        <v>31991</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -17170,16 +17171,8 @@
         <v>0.80085508512806913</v>
       </c>
       <c r="T26">
-        <v>504796</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+        <v>12335</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -17204,7 +17197,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17533,13 +17526,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>279</v>
